--- a/BackTest/2020-01-15 BackTest BHP.xlsx
+++ b/BackTest/2020-01-15 BackTest BHP.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>4918.9717</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>4618.9717</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I3" t="n">
         <v>939</v>
@@ -521,7 +521,7 @@
         <v>4618.9717</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
         <v>937</v>
@@ -562,7 +562,7 @@
         <v>4793.9717</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I5" t="n">
         <v>937</v>
@@ -603,7 +603,7 @@
         <v>4793.9717</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I6" t="n">
         <v>939</v>
@@ -640,7 +640,7 @@
         <v>4793.9717</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I7" t="n">
         <v>939</v>
@@ -681,7 +681,7 @@
         <v>4793.9717</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I8" t="n">
         <v>939</v>
@@ -722,7 +722,7 @@
         <v>4790.4717</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I9" t="n">
         <v>939</v>
@@ -759,7 +759,7 @@
         <v>5030.4717</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I10" t="n">
         <v>937</v>
@@ -800,7 +800,7 @@
         <v>5592.3717</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I11" t="n">
         <v>939</v>
@@ -841,9 +841,11 @@
         <v>5592.3717</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I12" t="n">
+        <v>941</v>
+      </c>
       <c r="J12" t="n">
         <v>939</v>
       </c>
@@ -880,7 +882,7 @@
         <v>5591.6717</v>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I13" t="n">
         <v>941</v>
@@ -921,9 +923,11 @@
         <v>5591.6717</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I14" t="n">
+        <v>939</v>
+      </c>
       <c r="J14" t="n">
         <v>939</v>
       </c>
@@ -960,7 +964,7 @@
         <v>5932.6717</v>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I15" t="n">
         <v>939</v>
@@ -1001,9 +1005,11 @@
         <v>5932.6717</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I16" t="n">
+        <v>941</v>
+      </c>
       <c r="J16" t="n">
         <v>939</v>
       </c>
@@ -1040,9 +1046,11 @@
         <v>5932.6717</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>941</v>
+      </c>
       <c r="J17" t="n">
         <v>939</v>
       </c>
@@ -1079,9 +1087,11 @@
         <v>5927.7717</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I18" t="n">
+        <v>941</v>
+      </c>
       <c r="J18" t="n">
         <v>939</v>
       </c>
@@ -1118,9 +1128,11 @@
         <v>5927.7717</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I19" t="n">
+        <v>939</v>
+      </c>
       <c r="J19" t="n">
         <v>939</v>
       </c>
@@ -1157,9 +1169,11 @@
         <v>5927.7717</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I20" t="n">
+        <v>939</v>
+      </c>
       <c r="J20" t="n">
         <v>939</v>
       </c>
@@ -1196,9 +1210,11 @@
         <v>5924.871700000001</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
-      </c>
-      <c r="I21" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I21" t="n">
+        <v>939</v>
+      </c>
       <c r="J21" t="n">
         <v>939</v>
       </c>
@@ -1235,7 +1251,7 @@
         <v>5924.871700000001</v>
       </c>
       <c r="H22" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I22" t="n">
         <v>937</v>
@@ -1276,7 +1292,7 @@
         <v>6488.3567</v>
       </c>
       <c r="H23" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I23" t="n">
         <v>937</v>
@@ -1317,7 +1333,7 @@
         <v>6488.3567</v>
       </c>
       <c r="H24" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I24" t="n">
         <v>939</v>
@@ -1358,7 +1374,7 @@
         <v>6488.3567</v>
       </c>
       <c r="H25" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I25" t="n">
         <v>939</v>
@@ -1399,7 +1415,7 @@
         <v>6488.3567</v>
       </c>
       <c r="H26" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I26" t="n">
         <v>939</v>
@@ -1440,7 +1456,7 @@
         <v>7062.6567</v>
       </c>
       <c r="H27" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I27" t="n">
         <v>939</v>
@@ -1481,7 +1497,7 @@
         <v>7062.6567</v>
       </c>
       <c r="H28" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I28" t="n">
         <v>941</v>
@@ -1522,7 +1538,7 @@
         <v>7062.6567</v>
       </c>
       <c r="H29" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I29" t="n">
         <v>941</v>
@@ -1563,7 +1579,7 @@
         <v>7053.5567</v>
       </c>
       <c r="H30" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I30" t="n">
         <v>941</v>
@@ -1604,9 +1620,11 @@
         <v>7053.5567</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
-      </c>
-      <c r="I31" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I31" t="n">
+        <v>939</v>
+      </c>
       <c r="J31" t="n">
         <v>939</v>
       </c>
@@ -1643,9 +1661,11 @@
         <v>7062.6567</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I32" t="n">
+        <v>939</v>
+      </c>
       <c r="J32" t="n">
         <v>939</v>
       </c>
@@ -1682,9 +1702,11 @@
         <v>7173.5567</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
-      </c>
-      <c r="I33" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I33" t="n">
+        <v>941</v>
+      </c>
       <c r="J33" t="n">
         <v>939</v>
       </c>
@@ -1721,9 +1743,11 @@
         <v>7167.0567</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I34" t="n">
+        <v>943</v>
+      </c>
       <c r="J34" t="n">
         <v>939</v>
       </c>
@@ -1760,9 +1784,11 @@
         <v>7167.0567</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I35" t="n">
+        <v>941</v>
+      </c>
       <c r="J35" t="n">
         <v>939</v>
       </c>
@@ -1799,9 +1825,11 @@
         <v>7167.0567</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
-      </c>
-      <c r="I36" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I36" t="n">
+        <v>941</v>
+      </c>
       <c r="J36" t="n">
         <v>939</v>
       </c>
@@ -1838,9 +1866,11 @@
         <v>7167.0567</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
-      </c>
-      <c r="I37" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I37" t="n">
+        <v>941</v>
+      </c>
       <c r="J37" t="n">
         <v>939</v>
       </c>
@@ -1877,9 +1907,11 @@
         <v>7877.0567</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
-      </c>
-      <c r="I38" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I38" t="n">
+        <v>941</v>
+      </c>
       <c r="J38" t="n">
         <v>939</v>
       </c>
@@ -1916,9 +1948,11 @@
         <v>7867.7567</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
-      </c>
-      <c r="I39" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I39" t="n">
+        <v>943</v>
+      </c>
       <c r="J39" t="n">
         <v>939</v>
       </c>
@@ -1955,9 +1989,11 @@
         <v>7867.7567</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I40" t="n">
+        <v>941</v>
+      </c>
       <c r="J40" t="n">
         <v>939</v>
       </c>
@@ -1994,9 +2030,11 @@
         <v>7864.8567</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I41" t="n">
+        <v>941</v>
+      </c>
       <c r="J41" t="n">
         <v>939</v>
       </c>
@@ -2033,9 +2071,11 @@
         <v>8095.8567</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
-      </c>
-      <c r="I42" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I42" t="n">
+        <v>939</v>
+      </c>
       <c r="J42" t="n">
         <v>939</v>
       </c>
@@ -2072,9 +2112,11 @@
         <v>8095.8567</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
-      </c>
-      <c r="I43" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I43" t="n">
+        <v>941</v>
+      </c>
       <c r="J43" t="n">
         <v>939</v>
       </c>
@@ -2111,9 +2153,11 @@
         <v>8095.8567</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
-      </c>
-      <c r="I44" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I44" t="n">
+        <v>941</v>
+      </c>
       <c r="J44" t="n">
         <v>939</v>
       </c>
@@ -2150,9 +2194,11 @@
         <v>8095.8567</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
-      </c>
-      <c r="I45" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I45" t="n">
+        <v>941</v>
+      </c>
       <c r="J45" t="n">
         <v>939</v>
       </c>
@@ -2189,9 +2235,11 @@
         <v>8089.3567</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
-      </c>
-      <c r="I46" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I46" t="n">
+        <v>941</v>
+      </c>
       <c r="J46" t="n">
         <v>939</v>
       </c>
@@ -2228,9 +2276,11 @@
         <v>8821.1414</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
-      </c>
-      <c r="I47" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I47" t="n">
+        <v>939</v>
+      </c>
       <c r="J47" t="n">
         <v>939</v>
       </c>
@@ -2267,9 +2317,11 @@
         <v>8821.1414</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
-      </c>
-      <c r="I48" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I48" t="n">
+        <v>941</v>
+      </c>
       <c r="J48" t="n">
         <v>939</v>
       </c>
@@ -2306,9 +2358,11 @@
         <v>8821.1414</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
-      </c>
-      <c r="I49" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I49" t="n">
+        <v>941</v>
+      </c>
       <c r="J49" t="n">
         <v>939</v>
       </c>
@@ -2345,9 +2399,11 @@
         <v>8821.1414</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
-      </c>
-      <c r="I50" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I50" t="n">
+        <v>941</v>
+      </c>
       <c r="J50" t="n">
         <v>939</v>
       </c>
@@ -2384,9 +2440,11 @@
         <v>8820.4414</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
-      </c>
-      <c r="I51" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I51" t="n">
+        <v>941</v>
+      </c>
       <c r="J51" t="n">
         <v>939</v>
       </c>
@@ -2423,9 +2481,11 @@
         <v>8819.741399999999</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
-      </c>
-      <c r="I52" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I52" t="n">
+        <v>940</v>
+      </c>
       <c r="J52" t="n">
         <v>939</v>
       </c>
@@ -2462,9 +2522,11 @@
         <v>8819.741399999999</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
-      </c>
-      <c r="I53" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I53" t="n">
+        <v>939</v>
+      </c>
       <c r="J53" t="n">
         <v>939</v>
       </c>
@@ -2501,9 +2563,11 @@
         <v>8819.741399999999</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
-      </c>
-      <c r="I54" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I54" t="n">
+        <v>939</v>
+      </c>
       <c r="J54" t="n">
         <v>939</v>
       </c>
@@ -2540,9 +2604,11 @@
         <v>8766.026399999999</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
-      </c>
-      <c r="I55" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I55" t="n">
+        <v>939</v>
+      </c>
       <c r="J55" t="n">
         <v>939</v>
       </c>
@@ -2579,9 +2645,11 @@
         <v>8766.026399999999</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
-      </c>
-      <c r="I56" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I56" t="n">
+        <v>937</v>
+      </c>
       <c r="J56" t="n">
         <v>939</v>
       </c>
@@ -2618,9 +2686,11 @@
         <v>8766.026399999999</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
-      </c>
-      <c r="I57" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I57" t="n">
+        <v>937</v>
+      </c>
       <c r="J57" t="n">
         <v>939</v>
       </c>
@@ -2657,9 +2727,11 @@
         <v>8766.026399999999</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
-      </c>
-      <c r="I58" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I58" t="n">
+        <v>937</v>
+      </c>
       <c r="J58" t="n">
         <v>939</v>
       </c>
@@ -2696,9 +2768,11 @@
         <v>8766.026399999999</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
-      </c>
-      <c r="I59" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I59" t="n">
+        <v>937</v>
+      </c>
       <c r="J59" t="n">
         <v>939</v>
       </c>
@@ -2735,9 +2809,11 @@
         <v>8766.026399999999</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
-      </c>
-      <c r="I60" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I60" t="n">
+        <v>937</v>
+      </c>
       <c r="J60" t="n">
         <v>939</v>
       </c>
@@ -2774,9 +2850,11 @@
         <v>8766.026399999999</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
-      </c>
-      <c r="I61" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I61" t="n">
+        <v>937</v>
+      </c>
       <c r="J61" t="n">
         <v>939</v>
       </c>
@@ -2813,9 +2891,11 @@
         <v>8918.211399999998</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
-      </c>
-      <c r="I62" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I62" t="n">
+        <v>937</v>
+      </c>
       <c r="J62" t="n">
         <v>939</v>
       </c>
@@ -2852,9 +2932,11 @@
         <v>8918.211399999998</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
-      </c>
-      <c r="I63" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I63" t="n">
+        <v>939</v>
+      </c>
       <c r="J63" t="n">
         <v>939</v>
       </c>
@@ -2891,9 +2973,11 @@
         <v>8364.411399999999</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
-      </c>
-      <c r="I64" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I64" t="n">
+        <v>939</v>
+      </c>
       <c r="J64" t="n">
         <v>939</v>
       </c>
@@ -2930,9 +3014,11 @@
         <v>8367.911399999999</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
-      </c>
-      <c r="I65" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I65" t="n">
+        <v>938</v>
+      </c>
       <c r="J65" t="n">
         <v>939</v>
       </c>
@@ -2969,9 +3055,11 @@
         <v>8367.911399999999</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
-      </c>
-      <c r="I66" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I66" t="n">
+        <v>939</v>
+      </c>
       <c r="J66" t="n">
         <v>939</v>
       </c>
@@ -3008,9 +3096,11 @@
         <v>8367.911399999999</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
-      </c>
-      <c r="I67" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I67" t="n">
+        <v>939</v>
+      </c>
       <c r="J67" t="n">
         <v>939</v>
       </c>
@@ -3047,9 +3137,11 @@
         <v>8367.911399999999</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
-      </c>
-      <c r="I68" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I68" t="n">
+        <v>939</v>
+      </c>
       <c r="J68" t="n">
         <v>939</v>
       </c>
@@ -3086,9 +3178,11 @@
         <v>8877.911399999999</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
-      </c>
-      <c r="I69" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I69" t="n">
+        <v>939</v>
+      </c>
       <c r="J69" t="n">
         <v>939</v>
       </c>
@@ -3125,9 +3219,11 @@
         <v>8877.911399999999</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
-      </c>
-      <c r="I70" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I70" t="n">
+        <v>941</v>
+      </c>
       <c r="J70" t="n">
         <v>939</v>
       </c>
@@ -3164,9 +3260,11 @@
         <v>8877.911399999999</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
-      </c>
-      <c r="I71" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I71" t="n">
+        <v>941</v>
+      </c>
       <c r="J71" t="n">
         <v>939</v>
       </c>
@@ -3203,9 +3301,11 @@
         <v>8877.911399999999</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
-      </c>
-      <c r="I72" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I72" t="n">
+        <v>941</v>
+      </c>
       <c r="J72" t="n">
         <v>939</v>
       </c>
@@ -3242,9 +3342,11 @@
         <v>8877.911399999999</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
-      </c>
-      <c r="I73" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I73" t="n">
+        <v>941</v>
+      </c>
       <c r="J73" t="n">
         <v>939</v>
       </c>
@@ -3281,9 +3383,11 @@
         <v>8877.911399999999</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
-      </c>
-      <c r="I74" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I74" t="n">
+        <v>941</v>
+      </c>
       <c r="J74" t="n">
         <v>939</v>
       </c>
@@ -3320,9 +3424,11 @@
         <v>8877.911399999999</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
-      </c>
-      <c r="I75" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I75" t="n">
+        <v>941</v>
+      </c>
       <c r="J75" t="n">
         <v>939</v>
       </c>
@@ -3359,9 +3465,11 @@
         <v>8877.911399999999</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
-      </c>
-      <c r="I76" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I76" t="n">
+        <v>941</v>
+      </c>
       <c r="J76" t="n">
         <v>939</v>
       </c>
@@ -3398,9 +3506,11 @@
         <v>8877.911399999999</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
-      </c>
-      <c r="I77" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I77" t="n">
+        <v>941</v>
+      </c>
       <c r="J77" t="n">
         <v>939</v>
       </c>
@@ -3437,9 +3547,11 @@
         <v>8870.411399999999</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
-      </c>
-      <c r="I78" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I78" t="n">
+        <v>941</v>
+      </c>
       <c r="J78" t="n">
         <v>939</v>
       </c>
@@ -3476,9 +3588,11 @@
         <v>9126.1114</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
-      </c>
-      <c r="I79" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I79" t="n">
+        <v>939</v>
+      </c>
       <c r="J79" t="n">
         <v>939</v>
       </c>
@@ -3515,9 +3629,11 @@
         <v>9123.511399999999</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
-      </c>
-      <c r="I80" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I80" t="n">
+        <v>941</v>
+      </c>
       <c r="J80" t="n">
         <v>939</v>
       </c>
@@ -3554,9 +3670,11 @@
         <v>9123.511399999999</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
-      </c>
-      <c r="I81" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I81" t="n">
+        <v>939</v>
+      </c>
       <c r="J81" t="n">
         <v>939</v>
       </c>
@@ -3593,9 +3711,11 @@
         <v>9123.511399999999</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
-      </c>
-      <c r="I82" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I82" t="n">
+        <v>939</v>
+      </c>
       <c r="J82" t="n">
         <v>939</v>
       </c>
@@ -3632,9 +3752,11 @@
         <v>9123.511399999999</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
-      </c>
-      <c r="I83" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I83" t="n">
+        <v>939</v>
+      </c>
       <c r="J83" t="n">
         <v>939</v>
       </c>
@@ -3671,9 +3793,11 @@
         <v>9428.511399999999</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
-      </c>
-      <c r="I84" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I84" t="n">
+        <v>939</v>
+      </c>
       <c r="J84" t="n">
         <v>939</v>
       </c>
@@ -3710,9 +3834,11 @@
         <v>9428.511399999999</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
-      </c>
-      <c r="I85" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I85" t="n">
+        <v>941</v>
+      </c>
       <c r="J85" t="n">
         <v>939</v>
       </c>
@@ -3749,9 +3875,11 @@
         <v>9428.511399999999</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
-      </c>
-      <c r="I86" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I86" t="n">
+        <v>941</v>
+      </c>
       <c r="J86" t="n">
         <v>939</v>
       </c>
@@ -3788,9 +3916,11 @@
         <v>9428.511399999999</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
-      </c>
-      <c r="I87" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I87" t="n">
+        <v>941</v>
+      </c>
       <c r="J87" t="n">
         <v>939</v>
       </c>
@@ -3827,9 +3957,11 @@
         <v>9428.511399999999</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
-      </c>
-      <c r="I88" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I88" t="n">
+        <v>941</v>
+      </c>
       <c r="J88" t="n">
         <v>939</v>
       </c>
@@ -3866,9 +3998,11 @@
         <v>9427.311399999999</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
-      </c>
-      <c r="I89" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I89" t="n">
+        <v>941</v>
+      </c>
       <c r="J89" t="n">
         <v>939</v>
       </c>
@@ -3905,9 +4039,11 @@
         <v>9659.311399999999</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
-      </c>
-      <c r="I90" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I90" t="n">
+        <v>939</v>
+      </c>
       <c r="J90" t="n">
         <v>939</v>
       </c>
@@ -3944,9 +4080,11 @@
         <v>9659.311399999999</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
-      </c>
-      <c r="I91" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I91" t="n">
+        <v>941</v>
+      </c>
       <c r="J91" t="n">
         <v>939</v>
       </c>
@@ -3983,9 +4121,11 @@
         <v>9766.311399999999</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
-      </c>
-      <c r="I92" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I92" t="n">
+        <v>941</v>
+      </c>
       <c r="J92" t="n">
         <v>939</v>
       </c>
@@ -4178,9 +4318,11 @@
         <v>9757.511399999999</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
-      </c>
-      <c r="I97" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I97" t="n">
+        <v>943</v>
+      </c>
       <c r="J97" t="n">
         <v>939</v>
       </c>
@@ -4217,9 +4359,11 @@
         <v>10528.5114</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
-      </c>
-      <c r="I98" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I98" t="n">
+        <v>941</v>
+      </c>
       <c r="J98" t="n">
         <v>939</v>
       </c>
@@ -4256,9 +4400,11 @@
         <v>10528.5114</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
-      </c>
-      <c r="I99" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I99" t="n">
+        <v>943</v>
+      </c>
       <c r="J99" t="n">
         <v>939</v>
       </c>
@@ -4295,9 +4441,11 @@
         <v>10521.2114</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
-      </c>
-      <c r="I100" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I100" t="n">
+        <v>943</v>
+      </c>
       <c r="J100" t="n">
         <v>939</v>
       </c>
@@ -4334,9 +4482,11 @@
         <v>10521.2114</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
-      </c>
-      <c r="I101" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I101" t="n">
+        <v>941</v>
+      </c>
       <c r="J101" t="n">
         <v>939</v>
       </c>
@@ -4373,9 +4523,11 @@
         <v>10521.2114</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
-      </c>
-      <c r="I102" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I102" t="n">
+        <v>941</v>
+      </c>
       <c r="J102" t="n">
         <v>939</v>
       </c>
@@ -4412,9 +4564,11 @@
         <v>10521.2114</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
-      </c>
-      <c r="I103" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I103" t="n">
+        <v>941</v>
+      </c>
       <c r="J103" t="n">
         <v>939</v>
       </c>
@@ -4451,9 +4605,11 @@
         <v>10512.5114</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
-      </c>
-      <c r="I104" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I104" t="n">
+        <v>941</v>
+      </c>
       <c r="J104" t="n">
         <v>939</v>
       </c>
@@ -4490,9 +4646,11 @@
         <v>10904.0114</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
-      </c>
-      <c r="I105" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I105" t="n">
+        <v>939</v>
+      </c>
       <c r="J105" t="n">
         <v>939</v>
       </c>
@@ -4529,9 +4687,11 @@
         <v>10896.1114</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
-      </c>
-      <c r="I106" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I106" t="n">
+        <v>941</v>
+      </c>
       <c r="J106" t="n">
         <v>939</v>
       </c>
@@ -4568,9 +4728,11 @@
         <v>11797.6114</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
-      </c>
-      <c r="I107" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I107" t="n">
+        <v>939</v>
+      </c>
       <c r="J107" t="n">
         <v>939</v>
       </c>
@@ -4607,9 +4769,11 @@
         <v>11797.6114</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
-      </c>
-      <c r="I108" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I108" t="n">
+        <v>941</v>
+      </c>
       <c r="J108" t="n">
         <v>939</v>
       </c>
@@ -4646,9 +4810,11 @@
         <v>12130.6114</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
-      </c>
-      <c r="I109" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I109" t="n">
+        <v>941</v>
+      </c>
       <c r="J109" t="n">
         <v>939</v>
       </c>
@@ -4685,9 +4851,11 @@
         <v>12130.6114</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
-      </c>
-      <c r="I110" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I110" t="n">
+        <v>943</v>
+      </c>
       <c r="J110" t="n">
         <v>939</v>
       </c>
@@ -4724,9 +4892,11 @@
         <v>12330.6114</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
-      </c>
-      <c r="I111" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I111" t="n">
+        <v>943</v>
+      </c>
       <c r="J111" t="n">
         <v>939</v>
       </c>
@@ -10769,7 +10939,7 @@
         <v>23274.4313</v>
       </c>
       <c r="H266" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="n">
@@ -10886,7 +11056,7 @@
         <v>23739.90199999999</v>
       </c>
       <c r="H269" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="n">
@@ -10925,7 +11095,7 @@
         <v>23739.90199999999</v>
       </c>
       <c r="H270" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="n">
@@ -10964,7 +11134,7 @@
         <v>23739.90199999999</v>
       </c>
       <c r="H271" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="n">
@@ -11042,7 +11212,7 @@
         <v>23507.70199999999</v>
       </c>
       <c r="H273" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="n">
@@ -11081,7 +11251,7 @@
         <v>22782.50199999999</v>
       </c>
       <c r="H274" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="n">
@@ -11237,7 +11407,7 @@
         <v>23055.102</v>
       </c>
       <c r="H278" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="n">
@@ -11276,7 +11446,7 @@
         <v>23155.102</v>
       </c>
       <c r="H279" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="n">
@@ -11354,7 +11524,7 @@
         <v>23155.102</v>
       </c>
       <c r="H281" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="n">
@@ -11393,7 +11563,7 @@
         <v>23169.002</v>
       </c>
       <c r="H282" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="n">
@@ -11432,7 +11602,7 @@
         <v>23169.002</v>
       </c>
       <c r="H283" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="n">
@@ -11471,7 +11641,7 @@
         <v>23468.002</v>
       </c>
       <c r="H284" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="n">
@@ -11510,7 +11680,7 @@
         <v>23468.002</v>
       </c>
       <c r="H285" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="n">
@@ -11549,7 +11719,7 @@
         <v>23451.602</v>
       </c>
       <c r="H286" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="n">
@@ -11588,7 +11758,7 @@
         <v>23438.90199999999</v>
       </c>
       <c r="H287" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="n">
@@ -11627,9 +11797,11 @@
         <v>24238.90199999999</v>
       </c>
       <c r="H288" t="n">
-        <v>0</v>
-      </c>
-      <c r="I288" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I288" t="n">
+        <v>957</v>
+      </c>
       <c r="J288" t="n">
         <v>939</v>
       </c>
@@ -11668,7 +11840,9 @@
       <c r="H289" t="n">
         <v>1</v>
       </c>
-      <c r="I289" t="inlineStr"/>
+      <c r="I289" t="n">
+        <v>959</v>
+      </c>
       <c r="J289" t="n">
         <v>939</v>
       </c>
@@ -11705,7 +11879,7 @@
         <v>25109.90199999999</v>
       </c>
       <c r="H290" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="n">
@@ -11744,7 +11918,7 @@
         <v>25076.602</v>
       </c>
       <c r="H291" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="n">
@@ -11783,7 +11957,7 @@
         <v>25064.602</v>
       </c>
       <c r="H292" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="n">
@@ -11822,7 +11996,7 @@
         <v>25056.802</v>
       </c>
       <c r="H293" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="n">
@@ -11900,9 +12074,11 @@
         <v>25801.702</v>
       </c>
       <c r="H295" t="n">
-        <v>0</v>
-      </c>
-      <c r="I295" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I295" t="n">
+        <v>955</v>
+      </c>
       <c r="J295" t="n">
         <v>939</v>
       </c>
@@ -11939,9 +12115,11 @@
         <v>25801.702</v>
       </c>
       <c r="H296" t="n">
-        <v>0</v>
-      </c>
-      <c r="I296" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I296" t="n">
+        <v>957</v>
+      </c>
       <c r="J296" t="n">
         <v>939</v>
       </c>
@@ -11978,7 +12156,7 @@
         <v>25801.702</v>
       </c>
       <c r="H297" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="n">
@@ -12017,7 +12195,7 @@
         <v>25801.702</v>
       </c>
       <c r="H298" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="n">
@@ -12056,7 +12234,7 @@
         <v>26131.202</v>
       </c>
       <c r="H299" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="n">
@@ -12134,7 +12312,7 @@
         <v>26134.502</v>
       </c>
       <c r="H301" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="n">
@@ -12329,7 +12507,7 @@
         <v>26464.702</v>
       </c>
       <c r="H306" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="n">
@@ -16970,7 +17148,7 @@
         <v>39625.70788045</v>
       </c>
       <c r="H425" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I425" t="inlineStr"/>
       <c r="J425" t="n">
@@ -16978,11 +17156,11 @@
       </c>
       <c r="K425" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L425" t="n">
-        <v>1.022689030883919</v>
+        <v>1</v>
       </c>
       <c r="M425" t="inlineStr"/>
     </row>
@@ -17009,11 +17187,17 @@
         <v>39725.70788045</v>
       </c>
       <c r="H426" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I426" t="inlineStr"/>
-      <c r="J426" t="inlineStr"/>
-      <c r="K426" t="inlineStr"/>
+      <c r="J426" t="n">
+        <v>939</v>
+      </c>
+      <c r="K426" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L426" t="n">
         <v>1</v>
       </c>
@@ -17042,11 +17226,17 @@
         <v>40521.90788044999</v>
       </c>
       <c r="H427" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I427" t="inlineStr"/>
-      <c r="J427" t="inlineStr"/>
-      <c r="K427" t="inlineStr"/>
+      <c r="J427" t="n">
+        <v>939</v>
+      </c>
+      <c r="K427" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L427" t="n">
         <v>1</v>
       </c>
@@ -17075,11 +17265,17 @@
         <v>40260.40788044999</v>
       </c>
       <c r="H428" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I428" t="inlineStr"/>
-      <c r="J428" t="inlineStr"/>
-      <c r="K428" t="inlineStr"/>
+      <c r="J428" t="n">
+        <v>939</v>
+      </c>
+      <c r="K428" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L428" t="n">
         <v>1</v>
       </c>
@@ -17108,11 +17304,17 @@
         <v>40270.20788045</v>
       </c>
       <c r="H429" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I429" t="inlineStr"/>
-      <c r="J429" t="inlineStr"/>
-      <c r="K429" t="inlineStr"/>
+      <c r="J429" t="n">
+        <v>939</v>
+      </c>
+      <c r="K429" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L429" t="n">
         <v>1</v>
       </c>
@@ -17141,11 +17343,17 @@
         <v>40270.20788045</v>
       </c>
       <c r="H430" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I430" t="inlineStr"/>
-      <c r="J430" t="inlineStr"/>
-      <c r="K430" t="inlineStr"/>
+      <c r="J430" t="n">
+        <v>939</v>
+      </c>
+      <c r="K430" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L430" t="n">
         <v>1</v>
       </c>
@@ -17174,11 +17382,17 @@
         <v>40270.20788045</v>
       </c>
       <c r="H431" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I431" t="inlineStr"/>
-      <c r="J431" t="inlineStr"/>
-      <c r="K431" t="inlineStr"/>
+      <c r="J431" t="n">
+        <v>939</v>
+      </c>
+      <c r="K431" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L431" t="n">
         <v>1</v>
       </c>
@@ -17210,8 +17424,14 @@
         <v>0</v>
       </c>
       <c r="I432" t="inlineStr"/>
-      <c r="J432" t="inlineStr"/>
-      <c r="K432" t="inlineStr"/>
+      <c r="J432" t="n">
+        <v>939</v>
+      </c>
+      <c r="K432" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L432" t="n">
         <v>1</v>
       </c>
@@ -17243,8 +17463,14 @@
         <v>0</v>
       </c>
       <c r="I433" t="inlineStr"/>
-      <c r="J433" t="inlineStr"/>
-      <c r="K433" t="inlineStr"/>
+      <c r="J433" t="n">
+        <v>939</v>
+      </c>
+      <c r="K433" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L433" t="n">
         <v>1</v>
       </c>
@@ -17276,8 +17502,14 @@
         <v>0</v>
       </c>
       <c r="I434" t="inlineStr"/>
-      <c r="J434" t="inlineStr"/>
-      <c r="K434" t="inlineStr"/>
+      <c r="J434" t="n">
+        <v>939</v>
+      </c>
+      <c r="K434" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L434" t="n">
         <v>1</v>
       </c>
@@ -17309,8 +17541,14 @@
         <v>0</v>
       </c>
       <c r="I435" t="inlineStr"/>
-      <c r="J435" t="inlineStr"/>
-      <c r="K435" t="inlineStr"/>
+      <c r="J435" t="n">
+        <v>939</v>
+      </c>
+      <c r="K435" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L435" t="n">
         <v>1</v>
       </c>
@@ -17342,8 +17580,14 @@
         <v>0</v>
       </c>
       <c r="I436" t="inlineStr"/>
-      <c r="J436" t="inlineStr"/>
-      <c r="K436" t="inlineStr"/>
+      <c r="J436" t="n">
+        <v>939</v>
+      </c>
+      <c r="K436" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L436" t="n">
         <v>1</v>
       </c>
@@ -17372,13 +17616,19 @@
         <v>40258.20788045001</v>
       </c>
       <c r="H437" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I437" t="inlineStr"/>
-      <c r="J437" t="inlineStr"/>
-      <c r="K437" t="inlineStr"/>
+      <c r="J437" t="n">
+        <v>939</v>
+      </c>
+      <c r="K437" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L437" t="n">
-        <v>1</v>
+        <v>1.022689030883919</v>
       </c>
       <c r="M437" t="inlineStr"/>
     </row>
@@ -17471,7 +17721,7 @@
         <v>42798.00788045</v>
       </c>
       <c r="H440" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I440" t="inlineStr"/>
       <c r="J440" t="inlineStr"/>
@@ -17504,7 +17754,7 @@
         <v>42798.00788045</v>
       </c>
       <c r="H441" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I441" t="inlineStr"/>
       <c r="J441" t="inlineStr"/>
@@ -17537,7 +17787,7 @@
         <v>43595.20788045</v>
       </c>
       <c r="H442" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I442" t="inlineStr"/>
       <c r="J442" t="inlineStr"/>
@@ -17570,7 +17820,7 @@
         <v>43595.20788045</v>
       </c>
       <c r="H443" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I443" t="inlineStr"/>
       <c r="J443" t="inlineStr"/>
@@ -17603,7 +17853,7 @@
         <v>43595.20788045</v>
       </c>
       <c r="H444" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I444" t="inlineStr"/>
       <c r="J444" t="inlineStr"/>
@@ -17636,7 +17886,7 @@
         <v>43584.60788045</v>
       </c>
       <c r="H445" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I445" t="inlineStr"/>
       <c r="J445" t="inlineStr"/>
@@ -17669,7 +17919,7 @@
         <v>44121.90788045</v>
       </c>
       <c r="H446" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I446" t="inlineStr"/>
       <c r="J446" t="inlineStr"/>
@@ -17702,7 +17952,7 @@
         <v>44111.30788045</v>
       </c>
       <c r="H447" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I447" t="inlineStr"/>
       <c r="J447" t="inlineStr"/>
@@ -17735,7 +17985,7 @@
         <v>44111.30788045</v>
       </c>
       <c r="H448" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I448" t="inlineStr"/>
       <c r="J448" t="inlineStr"/>
@@ -17768,7 +18018,7 @@
         <v>44111.30788045</v>
       </c>
       <c r="H449" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I449" t="inlineStr"/>
       <c r="J449" t="inlineStr"/>
@@ -17801,7 +18051,7 @@
         <v>44361.30788045</v>
       </c>
       <c r="H450" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I450" t="inlineStr"/>
       <c r="J450" t="inlineStr"/>
@@ -17834,7 +18084,7 @@
         <v>44361.30788045</v>
       </c>
       <c r="H451" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I451" t="inlineStr"/>
       <c r="J451" t="inlineStr"/>
@@ -17867,7 +18117,7 @@
         <v>44359.80788045</v>
       </c>
       <c r="H452" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I452" t="inlineStr"/>
       <c r="J452" t="inlineStr"/>
@@ -17900,7 +18150,7 @@
         <v>44359.80788045</v>
       </c>
       <c r="H453" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I453" t="inlineStr"/>
       <c r="J453" t="inlineStr"/>
@@ -17933,7 +18183,7 @@
         <v>44359.80788045</v>
       </c>
       <c r="H454" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I454" t="inlineStr"/>
       <c r="J454" t="inlineStr"/>
@@ -17966,7 +18216,7 @@
         <v>44359.80788045</v>
       </c>
       <c r="H455" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I455" t="inlineStr"/>
       <c r="J455" t="inlineStr"/>
@@ -17999,7 +18249,7 @@
         <v>44359.80788045</v>
       </c>
       <c r="H456" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I456" t="inlineStr"/>
       <c r="J456" t="inlineStr"/>
@@ -18032,7 +18282,7 @@
         <v>44347.70788045001</v>
       </c>
       <c r="H457" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I457" t="inlineStr"/>
       <c r="J457" t="inlineStr"/>
@@ -18065,7 +18315,7 @@
         <v>45804.70788045001</v>
       </c>
       <c r="H458" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I458" t="inlineStr"/>
       <c r="J458" t="inlineStr"/>
@@ -18098,7 +18348,7 @@
         <v>46175.50788045001</v>
       </c>
       <c r="H459" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I459" t="inlineStr"/>
       <c r="J459" t="inlineStr"/>
@@ -18131,7 +18381,7 @@
         <v>46175.50788045001</v>
       </c>
       <c r="H460" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I460" t="inlineStr"/>
       <c r="J460" t="inlineStr"/>
@@ -18164,7 +18414,7 @@
         <v>46153.90788045001</v>
       </c>
       <c r="H461" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I461" t="inlineStr"/>
       <c r="J461" t="inlineStr"/>
@@ -18197,7 +18447,7 @@
         <v>46153.90788045001</v>
       </c>
       <c r="H462" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I462" t="inlineStr"/>
       <c r="J462" t="inlineStr"/>
@@ -18230,7 +18480,7 @@
         <v>46153.90788045001</v>
       </c>
       <c r="H463" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I463" t="inlineStr"/>
       <c r="J463" t="inlineStr"/>
@@ -18263,7 +18513,7 @@
         <v>46153.90788045001</v>
       </c>
       <c r="H464" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I464" t="inlineStr"/>
       <c r="J464" t="inlineStr"/>
@@ -18296,7 +18546,7 @@
         <v>46141.10788045001</v>
       </c>
       <c r="H465" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I465" t="inlineStr"/>
       <c r="J465" t="inlineStr"/>
@@ -18329,7 +18579,7 @@
         <v>46141.10788045001</v>
       </c>
       <c r="H466" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I466" t="inlineStr"/>
       <c r="J466" t="inlineStr"/>
@@ -18362,7 +18612,7 @@
         <v>46141.10788045001</v>
       </c>
       <c r="H467" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I467" t="inlineStr"/>
       <c r="J467" t="inlineStr"/>
@@ -18395,7 +18645,7 @@
         <v>46141.10788045001</v>
       </c>
       <c r="H468" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I468" t="inlineStr"/>
       <c r="J468" t="inlineStr"/>
@@ -18428,7 +18678,7 @@
         <v>46141.10788045001</v>
       </c>
       <c r="H469" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I469" t="inlineStr"/>
       <c r="J469" t="inlineStr"/>
@@ -18461,7 +18711,7 @@
         <v>46141.10788045001</v>
       </c>
       <c r="H470" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I470" t="inlineStr"/>
       <c r="J470" t="inlineStr"/>
@@ -18494,7 +18744,7 @@
         <v>46121.30788045</v>
       </c>
       <c r="H471" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I471" t="inlineStr"/>
       <c r="J471" t="inlineStr"/>
@@ -18527,7 +18777,7 @@
         <v>46121.30788045</v>
       </c>
       <c r="H472" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I472" t="inlineStr"/>
       <c r="J472" t="inlineStr"/>
@@ -18560,7 +18810,7 @@
         <v>46121.30788045</v>
       </c>
       <c r="H473" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I473" t="inlineStr"/>
       <c r="J473" t="inlineStr"/>
@@ -18593,7 +18843,7 @@
         <v>46121.30788045</v>
       </c>
       <c r="H474" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I474" t="inlineStr"/>
       <c r="J474" t="inlineStr"/>
@@ -18626,7 +18876,7 @@
         <v>46121.30788045</v>
       </c>
       <c r="H475" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I475" t="inlineStr"/>
       <c r="J475" t="inlineStr"/>
@@ -18659,7 +18909,7 @@
         <v>46121.30788045</v>
       </c>
       <c r="H476" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I476" t="inlineStr"/>
       <c r="J476" t="inlineStr"/>
@@ -18692,7 +18942,7 @@
         <v>46099.20788045001</v>
       </c>
       <c r="H477" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I477" t="inlineStr"/>
       <c r="J477" t="inlineStr"/>
@@ -18725,7 +18975,7 @@
         <v>46099.20788045001</v>
       </c>
       <c r="H478" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I478" t="inlineStr"/>
       <c r="J478" t="inlineStr"/>
@@ -18758,7 +19008,7 @@
         <v>46105.10788045001</v>
       </c>
       <c r="H479" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I479" t="inlineStr"/>
       <c r="J479" t="inlineStr"/>
@@ -18791,7 +19041,7 @@
         <v>46105.10788045001</v>
       </c>
       <c r="H480" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I480" t="inlineStr"/>
       <c r="J480" t="inlineStr"/>
@@ -18824,7 +19074,7 @@
         <v>46105.10788045001</v>
       </c>
       <c r="H481" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I481" t="inlineStr"/>
       <c r="J481" t="inlineStr"/>
@@ -18857,7 +19107,7 @@
         <v>46270.20788045001</v>
       </c>
       <c r="H482" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I482" t="inlineStr"/>
       <c r="J482" t="inlineStr"/>
@@ -18890,7 +19140,7 @@
         <v>46280.10788045001</v>
       </c>
       <c r="H483" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I483" t="inlineStr"/>
       <c r="J483" t="inlineStr"/>
@@ -18923,7 +19173,7 @@
         <v>46270.00788045001</v>
       </c>
       <c r="H484" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I484" t="inlineStr"/>
       <c r="J484" t="inlineStr"/>
@@ -18956,7 +19206,7 @@
         <v>46270.00788045001</v>
       </c>
       <c r="H485" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I485" t="inlineStr"/>
       <c r="J485" t="inlineStr"/>
@@ -18989,7 +19239,7 @@
         <v>46270.00788045001</v>
       </c>
       <c r="H486" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I486" t="inlineStr"/>
       <c r="J486" t="inlineStr"/>
@@ -19022,7 +19272,7 @@
         <v>46270.00788045001</v>
       </c>
       <c r="H487" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I487" t="inlineStr"/>
       <c r="J487" t="inlineStr"/>
@@ -19055,7 +19305,7 @@
         <v>39310.11168045001</v>
       </c>
       <c r="H488" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I488" t="inlineStr"/>
       <c r="J488" t="inlineStr"/>
@@ -19088,7 +19338,7 @@
         <v>43008.91748045001</v>
       </c>
       <c r="H489" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I489" t="inlineStr"/>
       <c r="J489" t="inlineStr"/>
@@ -19121,7 +19371,7 @@
         <v>31474.44598045001</v>
       </c>
       <c r="H490" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I490" t="inlineStr"/>
       <c r="J490" t="inlineStr"/>
@@ -19154,7 +19404,7 @@
         <v>31572.26218045001</v>
       </c>
       <c r="H491" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I491" t="inlineStr"/>
       <c r="J491" t="inlineStr"/>
@@ -19187,7 +19437,7 @@
         <v>32530.52118045001</v>
       </c>
       <c r="H492" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I492" t="inlineStr"/>
       <c r="J492" t="inlineStr"/>
@@ -19385,7 +19635,7 @@
         <v>32524.92118045001</v>
       </c>
       <c r="H498" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I498" t="inlineStr"/>
       <c r="J498" t="inlineStr"/>
@@ -19418,7 +19668,7 @@
         <v>32524.92118045001</v>
       </c>
       <c r="H499" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I499" t="inlineStr"/>
       <c r="J499" t="inlineStr"/>
@@ -19451,7 +19701,7 @@
         <v>32524.92118045001</v>
       </c>
       <c r="H500" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I500" t="inlineStr"/>
       <c r="J500" t="inlineStr"/>
@@ -19484,7 +19734,7 @@
         <v>32524.92118045001</v>
       </c>
       <c r="H501" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I501" t="inlineStr"/>
       <c r="J501" t="inlineStr"/>
@@ -19616,7 +19866,7 @@
         <v>32507.32118045001</v>
       </c>
       <c r="H505" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I505" t="inlineStr"/>
       <c r="J505" t="inlineStr"/>
@@ -19682,7 +19932,7 @@
         <v>32523.12118045001</v>
       </c>
       <c r="H507" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I507" t="inlineStr"/>
       <c r="J507" t="inlineStr"/>
@@ -19715,7 +19965,7 @@
         <v>33134.62118045001</v>
       </c>
       <c r="H508" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I508" t="inlineStr"/>
       <c r="J508" t="inlineStr"/>
@@ -19748,7 +19998,7 @@
         <v>32996.54618045001</v>
       </c>
       <c r="H509" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I509" t="inlineStr"/>
       <c r="J509" t="inlineStr"/>
@@ -19781,7 +20031,7 @@
         <v>32900.12118045001</v>
       </c>
       <c r="H510" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I510" t="inlineStr"/>
       <c r="J510" t="inlineStr"/>
@@ -19814,7 +20064,7 @@
         <v>32900.12118045001</v>
       </c>
       <c r="H511" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I511" t="inlineStr"/>
       <c r="J511" t="inlineStr"/>
@@ -19847,7 +20097,7 @@
         <v>32889.62118045001</v>
       </c>
       <c r="H512" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I512" t="inlineStr"/>
       <c r="J512" t="inlineStr"/>
@@ -20012,7 +20262,7 @@
         <v>33503.42118045</v>
       </c>
       <c r="H517" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I517" t="inlineStr"/>
       <c r="J517" t="inlineStr"/>
@@ -21827,7 +22077,7 @@
         <v>39879.67659494999</v>
       </c>
       <c r="H572" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I572" t="inlineStr"/>
       <c r="J572" t="inlineStr"/>
@@ -21860,7 +22110,7 @@
         <v>39879.67659494999</v>
       </c>
       <c r="H573" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I573" t="inlineStr"/>
       <c r="J573" t="inlineStr"/>
@@ -21893,7 +22143,7 @@
         <v>39879.67659494999</v>
       </c>
       <c r="H574" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I574" t="inlineStr"/>
       <c r="J574" t="inlineStr"/>
@@ -21926,7 +22176,7 @@
         <v>39879.67659494999</v>
       </c>
       <c r="H575" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I575" t="inlineStr"/>
       <c r="J575" t="inlineStr"/>
@@ -21959,7 +22209,7 @@
         <v>39879.67659494999</v>
       </c>
       <c r="H576" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I576" t="inlineStr"/>
       <c r="J576" t="inlineStr"/>
@@ -21992,7 +22242,7 @@
         <v>39879.67659494999</v>
       </c>
       <c r="H577" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I577" t="inlineStr"/>
       <c r="J577" t="inlineStr"/>
@@ -22025,7 +22275,7 @@
         <v>39879.67659494999</v>
       </c>
       <c r="H578" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I578" t="inlineStr"/>
       <c r="J578" t="inlineStr"/>
@@ -22058,7 +22308,7 @@
         <v>39879.67659494999</v>
       </c>
       <c r="H579" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I579" t="inlineStr"/>
       <c r="J579" t="inlineStr"/>
@@ -22091,7 +22341,7 @@
         <v>37356.56309494999</v>
       </c>
       <c r="H580" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I580" t="inlineStr"/>
       <c r="J580" t="inlineStr"/>
@@ -22124,7 +22374,7 @@
         <v>37363.56309494999</v>
       </c>
       <c r="H581" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I581" t="inlineStr"/>
       <c r="J581" t="inlineStr"/>
@@ -22157,7 +22407,7 @@
         <v>37347.66309494999</v>
       </c>
       <c r="H582" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I582" t="inlineStr"/>
       <c r="J582" t="inlineStr"/>
@@ -22190,7 +22440,7 @@
         <v>38198.46309494999</v>
       </c>
       <c r="H583" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I583" t="inlineStr"/>
       <c r="J583" t="inlineStr"/>
@@ -22223,7 +22473,7 @@
         <v>38188.76309494999</v>
       </c>
       <c r="H584" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I584" t="inlineStr"/>
       <c r="J584" t="inlineStr"/>
@@ -22256,7 +22506,7 @@
         <v>38188.76309494999</v>
       </c>
       <c r="H585" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I585" t="inlineStr"/>
       <c r="J585" t="inlineStr"/>
@@ -22289,7 +22539,7 @@
         <v>38188.76309494999</v>
       </c>
       <c r="H586" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I586" t="inlineStr"/>
       <c r="J586" t="inlineStr"/>
@@ -22322,7 +22572,7 @@
         <v>35557.78269494999</v>
       </c>
       <c r="H587" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I587" t="inlineStr"/>
       <c r="J587" t="inlineStr"/>
@@ -22355,7 +22605,7 @@
         <v>35563.18269495</v>
       </c>
       <c r="H588" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I588" t="inlineStr"/>
       <c r="J588" t="inlineStr"/>
@@ -22388,7 +22638,7 @@
         <v>35763.18269495</v>
       </c>
       <c r="H589" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I589" t="inlineStr"/>
       <c r="J589" t="inlineStr"/>
@@ -22421,7 +22671,7 @@
         <v>35763.18269495</v>
       </c>
       <c r="H590" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I590" t="inlineStr"/>
       <c r="J590" t="inlineStr"/>
@@ -22454,7 +22704,7 @@
         <v>35763.18269495</v>
       </c>
       <c r="H591" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I591" t="inlineStr"/>
       <c r="J591" t="inlineStr"/>
@@ -22487,7 +22737,7 @@
         <v>35763.18269495</v>
       </c>
       <c r="H592" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I592" t="inlineStr"/>
       <c r="J592" t="inlineStr"/>
@@ -22520,7 +22770,7 @@
         <v>35763.18269495</v>
       </c>
       <c r="H593" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I593" t="inlineStr"/>
       <c r="J593" t="inlineStr"/>
@@ -22553,7 +22803,7 @@
         <v>35753.08269495</v>
       </c>
       <c r="H594" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I594" t="inlineStr"/>
       <c r="J594" t="inlineStr"/>
@@ -22586,7 +22836,7 @@
         <v>35753.08269495</v>
       </c>
       <c r="H595" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I595" t="inlineStr"/>
       <c r="J595" t="inlineStr"/>
@@ -22619,7 +22869,7 @@
         <v>35753.08269495</v>
       </c>
       <c r="H596" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I596" t="inlineStr"/>
       <c r="J596" t="inlineStr"/>
@@ -22652,7 +22902,7 @@
         <v>35753.08269495</v>
       </c>
       <c r="H597" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I597" t="inlineStr"/>
       <c r="J597" t="inlineStr"/>
@@ -22685,7 +22935,7 @@
         <v>35753.08269495</v>
       </c>
       <c r="H598" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I598" t="inlineStr"/>
       <c r="J598" t="inlineStr"/>
@@ -22718,7 +22968,7 @@
         <v>36428.88269495</v>
       </c>
       <c r="H599" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I599" t="inlineStr"/>
       <c r="J599" t="inlineStr"/>
@@ -22751,7 +23001,7 @@
         <v>36428.88269495</v>
       </c>
       <c r="H600" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I600" t="inlineStr"/>
       <c r="J600" t="inlineStr"/>
@@ -22784,7 +23034,7 @@
         <v>37518.88269495</v>
       </c>
       <c r="H601" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I601" t="inlineStr"/>
       <c r="J601" t="inlineStr"/>
@@ -22817,7 +23067,7 @@
         <v>37510.48269495</v>
       </c>
       <c r="H602" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I602" t="inlineStr"/>
       <c r="J602" t="inlineStr"/>
@@ -22850,7 +23100,7 @@
         <v>37501.68269495</v>
       </c>
       <c r="H603" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I603" t="inlineStr"/>
       <c r="J603" t="inlineStr"/>
@@ -22883,7 +23133,7 @@
         <v>38541.37699495</v>
       </c>
       <c r="H604" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I604" t="inlineStr"/>
       <c r="J604" t="inlineStr"/>
@@ -22916,7 +23166,7 @@
         <v>38533.37699495</v>
       </c>
       <c r="H605" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I605" t="inlineStr"/>
       <c r="J605" t="inlineStr"/>
@@ -22949,7 +23199,7 @@
         <v>38533.37699495</v>
       </c>
       <c r="H606" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I606" t="inlineStr"/>
       <c r="J606" t="inlineStr"/>
@@ -22982,7 +23232,7 @@
         <v>39156.87699495</v>
       </c>
       <c r="H607" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I607" t="inlineStr"/>
       <c r="J607" t="inlineStr"/>
@@ -23015,7 +23265,7 @@
         <v>39152.37699495</v>
       </c>
       <c r="H608" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I608" t="inlineStr"/>
       <c r="J608" t="inlineStr"/>
@@ -23048,7 +23298,7 @@
         <v>40416.11469495</v>
       </c>
       <c r="H609" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I609" t="inlineStr"/>
       <c r="J609" t="inlineStr"/>
@@ -23081,7 +23331,7 @@
         <v>40416.11469495</v>
       </c>
       <c r="H610" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I610" t="inlineStr"/>
       <c r="J610" t="inlineStr"/>
@@ -23114,7 +23364,7 @@
         <v>40416.11469495</v>
       </c>
       <c r="H611" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I611" t="inlineStr"/>
       <c r="J611" t="inlineStr"/>
@@ -23246,7 +23496,7 @@
         <v>41477.11469495</v>
       </c>
       <c r="H615" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I615" t="inlineStr"/>
       <c r="J615" t="inlineStr"/>
@@ -23279,7 +23529,7 @@
         <v>42577.11469495</v>
       </c>
       <c r="H616" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I616" t="inlineStr"/>
       <c r="J616" t="inlineStr"/>
@@ -23312,7 +23562,7 @@
         <v>42569.41469495</v>
       </c>
       <c r="H617" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I617" t="inlineStr"/>
       <c r="J617" t="inlineStr"/>
@@ -24071,7 +24321,7 @@
         <v>42313.43029494999</v>
       </c>
       <c r="H640" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I640" t="inlineStr"/>
       <c r="J640" t="inlineStr"/>
@@ -24104,7 +24354,7 @@
         <v>42313.43029494999</v>
       </c>
       <c r="H641" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I641" t="inlineStr"/>
       <c r="J641" t="inlineStr"/>
@@ -24137,7 +24387,7 @@
         <v>42313.43029494999</v>
       </c>
       <c r="H642" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I642" t="inlineStr"/>
       <c r="J642" t="inlineStr"/>
@@ -24170,7 +24420,7 @@
         <v>42302.73029494999</v>
       </c>
       <c r="H643" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I643" t="inlineStr"/>
       <c r="J643" t="inlineStr"/>
@@ -24368,7 +24618,7 @@
         <v>41895.53029494999</v>
       </c>
       <c r="H649" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I649" t="inlineStr"/>
       <c r="J649" t="inlineStr"/>
@@ -24401,7 +24651,7 @@
         <v>41895.53029494999</v>
       </c>
       <c r="H650" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I650" t="inlineStr"/>
       <c r="J650" t="inlineStr"/>
@@ -24434,7 +24684,7 @@
         <v>41895.53029494999</v>
       </c>
       <c r="H651" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I651" t="inlineStr"/>
       <c r="J651" t="inlineStr"/>
@@ -24467,7 +24717,7 @@
         <v>44108.13029494999</v>
       </c>
       <c r="H652" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I652" t="inlineStr"/>
       <c r="J652" t="inlineStr"/>
@@ -24500,7 +24750,7 @@
         <v>44091.63029494999</v>
       </c>
       <c r="H653" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I653" t="inlineStr"/>
       <c r="J653" t="inlineStr"/>
@@ -24533,7 +24783,7 @@
         <v>44091.63029494999</v>
       </c>
       <c r="H654" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I654" t="inlineStr"/>
       <c r="J654" t="inlineStr"/>
@@ -24896,7 +25146,7 @@
         <v>44822.83029494998</v>
       </c>
       <c r="H665" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I665" t="inlineStr"/>
       <c r="J665" t="inlineStr"/>
@@ -24929,7 +25179,7 @@
         <v>44804.83029494998</v>
       </c>
       <c r="H666" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I666" t="inlineStr"/>
       <c r="J666" t="inlineStr"/>
@@ -24962,7 +25212,7 @@
         <v>44804.83029494998</v>
       </c>
       <c r="H667" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I667" t="inlineStr"/>
       <c r="J667" t="inlineStr"/>
@@ -25094,7 +25344,7 @@
         <v>44797.23029494999</v>
       </c>
       <c r="H671" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I671" t="inlineStr"/>
       <c r="J671" t="inlineStr"/>
@@ -25193,7 +25443,7 @@
         <v>44800.43029494998</v>
       </c>
       <c r="H674" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I674" t="inlineStr"/>
       <c r="J674" t="inlineStr"/>
@@ -25226,7 +25476,7 @@
         <v>44800.43029494998</v>
       </c>
       <c r="H675" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I675" t="inlineStr"/>
       <c r="J675" t="inlineStr"/>
@@ -25292,7 +25542,7 @@
         <v>44800.43029494998</v>
       </c>
       <c r="H677" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I677" t="inlineStr"/>
       <c r="J677" t="inlineStr"/>
@@ -25523,7 +25773,7 @@
         <v>45326.93029494998</v>
       </c>
       <c r="H684" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I684" t="inlineStr"/>
       <c r="J684" t="inlineStr"/>
@@ -25556,7 +25806,7 @@
         <v>45318.23029494999</v>
       </c>
       <c r="H685" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I685" t="inlineStr"/>
       <c r="J685" t="inlineStr"/>
@@ -25589,7 +25839,7 @@
         <v>45318.23029494999</v>
       </c>
       <c r="H686" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I686" t="inlineStr"/>
       <c r="J686" t="inlineStr"/>
@@ -25622,7 +25872,7 @@
         <v>45318.23029494999</v>
       </c>
       <c r="H687" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I687" t="inlineStr"/>
       <c r="J687" t="inlineStr"/>
@@ -25655,7 +25905,7 @@
         <v>46302.63029494999</v>
       </c>
       <c r="H688" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I688" t="inlineStr"/>
       <c r="J688" t="inlineStr"/>
@@ -25688,7 +25938,7 @@
         <v>46302.63029494999</v>
       </c>
       <c r="H689" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I689" t="inlineStr"/>
       <c r="J689" t="inlineStr"/>
@@ -25721,7 +25971,7 @@
         <v>46302.63029494999</v>
       </c>
       <c r="H690" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I690" t="inlineStr"/>
       <c r="J690" t="inlineStr"/>
@@ -25754,7 +26004,7 @@
         <v>46302.63029494999</v>
       </c>
       <c r="H691" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I691" t="inlineStr"/>
       <c r="J691" t="inlineStr"/>
@@ -25820,7 +26070,7 @@
         <v>46408.43029494999</v>
       </c>
       <c r="H693" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I693" t="inlineStr"/>
       <c r="J693" t="inlineStr"/>
@@ -25853,7 +26103,7 @@
         <v>46408.43029494999</v>
       </c>
       <c r="H694" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I694" t="inlineStr"/>
       <c r="J694" t="inlineStr"/>
@@ -25886,7 +26136,7 @@
         <v>46408.43029494999</v>
       </c>
       <c r="H695" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I695" t="inlineStr"/>
       <c r="J695" t="inlineStr"/>
@@ -25919,7 +26169,7 @@
         <v>46939.43029494999</v>
       </c>
       <c r="H696" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I696" t="inlineStr"/>
       <c r="J696" t="inlineStr"/>
@@ -25952,7 +26202,7 @@
         <v>46939.43029494999</v>
       </c>
       <c r="H697" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I697" t="inlineStr"/>
       <c r="J697" t="inlineStr"/>
@@ -25985,7 +26235,7 @@
         <v>47756.63029494999</v>
       </c>
       <c r="H698" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I698" t="inlineStr"/>
       <c r="J698" t="inlineStr"/>
@@ -26018,7 +26268,7 @@
         <v>47751.03029494999</v>
       </c>
       <c r="H699" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I699" t="inlineStr"/>
       <c r="J699" t="inlineStr"/>
@@ -26051,7 +26301,7 @@
         <v>47751.03029494999</v>
       </c>
       <c r="H700" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I700" t="inlineStr"/>
       <c r="J700" t="inlineStr"/>
@@ -26084,7 +26334,7 @@
         <v>47751.03029494999</v>
       </c>
       <c r="H701" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I701" t="inlineStr"/>
       <c r="J701" t="inlineStr"/>
@@ -26117,7 +26367,7 @@
         <v>47751.03029494999</v>
       </c>
       <c r="H702" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I702" t="inlineStr"/>
       <c r="J702" t="inlineStr"/>
@@ -26150,7 +26400,7 @@
         <v>47751.03029494999</v>
       </c>
       <c r="H703" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I703" t="inlineStr"/>
       <c r="J703" t="inlineStr"/>
@@ -26183,7 +26433,7 @@
         <v>47751.03029494999</v>
       </c>
       <c r="H704" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I704" t="inlineStr"/>
       <c r="J704" t="inlineStr"/>
@@ -26216,7 +26466,7 @@
         <v>47751.03029494999</v>
       </c>
       <c r="H705" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I705" t="inlineStr"/>
       <c r="J705" t="inlineStr"/>
@@ -26249,7 +26499,7 @@
         <v>47749.93029494999</v>
       </c>
       <c r="H706" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I706" t="inlineStr"/>
       <c r="J706" t="inlineStr"/>
@@ -26282,7 +26532,7 @@
         <v>48260.63029494999</v>
       </c>
       <c r="H707" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I707" t="inlineStr"/>
       <c r="J707" t="inlineStr"/>
@@ -26315,7 +26565,7 @@
         <v>47237.53029494999</v>
       </c>
       <c r="H708" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I708" t="inlineStr"/>
       <c r="J708" t="inlineStr"/>
@@ -26348,7 +26598,7 @@
         <v>47922.57479494999</v>
       </c>
       <c r="H709" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I709" t="inlineStr"/>
       <c r="J709" t="inlineStr"/>
@@ -26381,7 +26631,7 @@
         <v>47912.67479494999</v>
       </c>
       <c r="H710" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I710" t="inlineStr"/>
       <c r="J710" t="inlineStr"/>
@@ -26414,7 +26664,7 @@
         <v>47912.67479494999</v>
       </c>
       <c r="H711" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I711" t="inlineStr"/>
       <c r="J711" t="inlineStr"/>
@@ -26447,7 +26697,7 @@
         <v>47912.67479494999</v>
       </c>
       <c r="H712" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I712" t="inlineStr"/>
       <c r="J712" t="inlineStr"/>
@@ -26480,7 +26730,7 @@
         <v>47912.67479494999</v>
       </c>
       <c r="H713" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I713" t="inlineStr"/>
       <c r="J713" t="inlineStr"/>
@@ -26513,7 +26763,7 @@
         <v>47912.67479494999</v>
       </c>
       <c r="H714" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I714" t="inlineStr"/>
       <c r="J714" t="inlineStr"/>
@@ -26546,7 +26796,7 @@
         <v>47912.67479494999</v>
       </c>
       <c r="H715" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I715" t="inlineStr"/>
       <c r="J715" t="inlineStr"/>
@@ -26579,7 +26829,7 @@
         <v>47912.67479494999</v>
       </c>
       <c r="H716" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I716" t="inlineStr"/>
       <c r="J716" t="inlineStr"/>
@@ -26612,7 +26862,7 @@
         <v>47912.67479494999</v>
       </c>
       <c r="H717" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I717" t="inlineStr"/>
       <c r="J717" t="inlineStr"/>
@@ -26645,7 +26895,7 @@
         <v>47912.67479494999</v>
       </c>
       <c r="H718" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I718" t="inlineStr"/>
       <c r="J718" t="inlineStr"/>
@@ -26678,7 +26928,7 @@
         <v>47912.67479494999</v>
       </c>
       <c r="H719" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I719" t="inlineStr"/>
       <c r="J719" t="inlineStr"/>
@@ -26711,7 +26961,7 @@
         <v>48018.67479494999</v>
       </c>
       <c r="H720" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I720" t="inlineStr"/>
       <c r="J720" t="inlineStr"/>
@@ -26744,7 +26994,7 @@
         <v>48018.67479494999</v>
       </c>
       <c r="H721" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I721" t="inlineStr"/>
       <c r="J721" t="inlineStr"/>
@@ -26777,7 +27027,7 @@
         <v>48018.67479494999</v>
       </c>
       <c r="H722" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I722" t="inlineStr"/>
       <c r="J722" t="inlineStr"/>
@@ -26810,7 +27060,7 @@
         <v>47710.17479494999</v>
       </c>
       <c r="H723" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I723" t="inlineStr"/>
       <c r="J723" t="inlineStr"/>
@@ -26843,7 +27093,7 @@
         <v>47722.27479494999</v>
       </c>
       <c r="H724" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I724" t="inlineStr"/>
       <c r="J724" t="inlineStr"/>
@@ -26876,7 +27126,7 @@
         <v>47722.27479494999</v>
       </c>
       <c r="H725" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I725" t="inlineStr"/>
       <c r="J725" t="inlineStr"/>
@@ -26909,7 +27159,7 @@
         <v>47722.27479494999</v>
       </c>
       <c r="H726" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I726" t="inlineStr"/>
       <c r="J726" t="inlineStr"/>
@@ -26942,7 +27192,7 @@
         <v>47722.27479494999</v>
       </c>
       <c r="H727" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I727" t="inlineStr"/>
       <c r="J727" t="inlineStr"/>
@@ -26975,7 +27225,7 @@
         <v>47722.27479494999</v>
       </c>
       <c r="H728" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I728" t="inlineStr"/>
       <c r="J728" t="inlineStr"/>
@@ -27008,7 +27258,7 @@
         <v>47722.27479494999</v>
       </c>
       <c r="H729" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I729" t="inlineStr"/>
       <c r="J729" t="inlineStr"/>
@@ -27041,7 +27291,7 @@
         <v>47722.27479494999</v>
       </c>
       <c r="H730" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I730" t="inlineStr"/>
       <c r="J730" t="inlineStr"/>
@@ -27074,7 +27324,7 @@
         <v>47722.27479494999</v>
       </c>
       <c r="H731" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I731" t="inlineStr"/>
       <c r="J731" t="inlineStr"/>
@@ -27107,7 +27357,7 @@
         <v>47722.27479494999</v>
       </c>
       <c r="H732" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I732" t="inlineStr"/>
       <c r="J732" t="inlineStr"/>
@@ -27140,7 +27390,7 @@
         <v>47722.27479494999</v>
       </c>
       <c r="H733" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I733" t="inlineStr"/>
       <c r="J733" t="inlineStr"/>
@@ -27173,7 +27423,7 @@
         <v>47964.27479494999</v>
       </c>
       <c r="H734" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I734" t="inlineStr"/>
       <c r="J734" t="inlineStr"/>
@@ -27206,7 +27456,7 @@
         <v>47862.77479494999</v>
       </c>
       <c r="H735" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I735" t="inlineStr"/>
       <c r="J735" t="inlineStr"/>
@@ -27239,7 +27489,7 @@
         <v>47862.77479494999</v>
       </c>
       <c r="H736" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I736" t="inlineStr"/>
       <c r="J736" t="inlineStr"/>
@@ -27272,7 +27522,7 @@
         <v>47862.77479494999</v>
       </c>
       <c r="H737" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I737" t="inlineStr"/>
       <c r="J737" t="inlineStr"/>
@@ -27305,7 +27555,7 @@
         <v>47862.77479494999</v>
       </c>
       <c r="H738" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I738" t="inlineStr"/>
       <c r="J738" t="inlineStr"/>
@@ -27338,7 +27588,7 @@
         <v>47846.97479494999</v>
       </c>
       <c r="H739" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I739" t="inlineStr"/>
       <c r="J739" t="inlineStr"/>
@@ -27371,7 +27621,7 @@
         <v>47846.97479494999</v>
       </c>
       <c r="H740" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I740" t="inlineStr"/>
       <c r="J740" t="inlineStr"/>
@@ -27404,7 +27654,7 @@
         <v>47831.17479494998</v>
       </c>
       <c r="H741" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I741" t="inlineStr"/>
       <c r="J741" t="inlineStr"/>
@@ -27437,7 +27687,7 @@
         <v>47831.17479494998</v>
       </c>
       <c r="H742" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I742" t="inlineStr"/>
       <c r="J742" t="inlineStr"/>
@@ -27470,7 +27720,7 @@
         <v>47831.17479494998</v>
       </c>
       <c r="H743" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I743" t="inlineStr"/>
       <c r="J743" t="inlineStr"/>
@@ -27503,7 +27753,7 @@
         <v>47831.17479494998</v>
       </c>
       <c r="H744" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I744" t="inlineStr"/>
       <c r="J744" t="inlineStr"/>
@@ -27536,7 +27786,7 @@
         <v>47831.17479494998</v>
       </c>
       <c r="H745" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I745" t="inlineStr"/>
       <c r="J745" t="inlineStr"/>
@@ -27569,7 +27819,7 @@
         <v>47831.17479494998</v>
       </c>
       <c r="H746" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I746" t="inlineStr"/>
       <c r="J746" t="inlineStr"/>
@@ -27602,7 +27852,7 @@
         <v>48101.17479494998</v>
       </c>
       <c r="H747" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I747" t="inlineStr"/>
       <c r="J747" t="inlineStr"/>
@@ -27635,7 +27885,7 @@
         <v>48101.17479494998</v>
       </c>
       <c r="H748" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I748" t="inlineStr"/>
       <c r="J748" t="inlineStr"/>
@@ -27668,7 +27918,7 @@
         <v>48719.37479494998</v>
       </c>
       <c r="H749" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I749" t="inlineStr"/>
       <c r="J749" t="inlineStr"/>
@@ -27701,7 +27951,7 @@
         <v>49723.57479494998</v>
       </c>
       <c r="H750" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I750" t="inlineStr"/>
       <c r="J750" t="inlineStr"/>
@@ -27734,7 +27984,7 @@
         <v>49699.37479494998</v>
       </c>
       <c r="H751" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I751" t="inlineStr"/>
       <c r="J751" t="inlineStr"/>
@@ -27767,7 +28017,7 @@
         <v>49699.37479494998</v>
       </c>
       <c r="H752" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I752" t="inlineStr"/>
       <c r="J752" t="inlineStr"/>
@@ -27800,7 +28050,7 @@
         <v>49699.37479494998</v>
       </c>
       <c r="H753" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I753" t="inlineStr"/>
       <c r="J753" t="inlineStr"/>
@@ -27833,7 +28083,7 @@
         <v>49699.37479494998</v>
       </c>
       <c r="H754" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I754" t="inlineStr"/>
       <c r="J754" t="inlineStr"/>
@@ -27866,7 +28116,7 @@
         <v>49974.67479494998</v>
       </c>
       <c r="H755" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I755" t="inlineStr"/>
       <c r="J755" t="inlineStr"/>
@@ -27899,7 +28149,7 @@
         <v>49974.67479494998</v>
       </c>
       <c r="H756" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I756" t="inlineStr"/>
       <c r="J756" t="inlineStr"/>
@@ -27932,7 +28182,7 @@
         <v>49974.67479494998</v>
       </c>
       <c r="H757" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I757" t="inlineStr"/>
       <c r="J757" t="inlineStr"/>
@@ -27965,7 +28215,7 @@
         <v>49974.67479494998</v>
       </c>
       <c r="H758" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I758" t="inlineStr"/>
       <c r="J758" t="inlineStr"/>
@@ -27998,7 +28248,7 @@
         <v>49974.67479494998</v>
       </c>
       <c r="H759" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I759" t="inlineStr"/>
       <c r="J759" t="inlineStr"/>
@@ -28031,7 +28281,7 @@
         <v>49974.67479494998</v>
       </c>
       <c r="H760" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I760" t="inlineStr"/>
       <c r="J760" t="inlineStr"/>
@@ -28064,7 +28314,7 @@
         <v>49974.67479494998</v>
       </c>
       <c r="H761" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I761" t="inlineStr"/>
       <c r="J761" t="inlineStr"/>
@@ -28097,7 +28347,7 @@
         <v>49974.67479494998</v>
       </c>
       <c r="H762" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I762" t="inlineStr"/>
       <c r="J762" t="inlineStr"/>
@@ -28130,7 +28380,7 @@
         <v>49974.67479494998</v>
       </c>
       <c r="H763" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I763" t="inlineStr"/>
       <c r="J763" t="inlineStr"/>
@@ -28163,7 +28413,7 @@
         <v>49958.67479494998</v>
       </c>
       <c r="H764" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I764" t="inlineStr"/>
       <c r="J764" t="inlineStr"/>
@@ -28196,7 +28446,7 @@
         <v>50558.67479494998</v>
       </c>
       <c r="H765" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I765" t="inlineStr"/>
       <c r="J765" t="inlineStr"/>
@@ -28229,7 +28479,7 @@
         <v>50558.67479494998</v>
       </c>
       <c r="H766" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I766" t="inlineStr"/>
       <c r="J766" t="inlineStr"/>
@@ -28328,7 +28578,7 @@
         <v>50558.67479494998</v>
       </c>
       <c r="H769" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I769" t="inlineStr"/>
       <c r="J769" t="inlineStr"/>
@@ -28361,7 +28611,7 @@
         <v>50403.77479494998</v>
       </c>
       <c r="H770" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I770" t="inlineStr"/>
       <c r="J770" t="inlineStr"/>
@@ -28394,7 +28644,7 @@
         <v>50414.67479494998</v>
       </c>
       <c r="H771" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I771" t="inlineStr"/>
       <c r="J771" t="inlineStr"/>
@@ -28427,7 +28677,7 @@
         <v>50434.17479494998</v>
       </c>
       <c r="H772" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I772" t="inlineStr"/>
       <c r="J772" t="inlineStr"/>
@@ -28460,7 +28710,7 @@
         <v>52434.08169494999</v>
       </c>
       <c r="H773" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I773" t="inlineStr"/>
       <c r="J773" t="inlineStr"/>
@@ -28493,7 +28743,7 @@
         <v>51853.73659494999</v>
       </c>
       <c r="H774" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I774" t="inlineStr"/>
       <c r="J774" t="inlineStr"/>
@@ -28526,7 +28776,7 @@
         <v>51853.73659494999</v>
       </c>
       <c r="H775" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I775" t="inlineStr"/>
       <c r="J775" t="inlineStr"/>
@@ -28559,7 +28809,7 @@
         <v>51845.83659494999</v>
       </c>
       <c r="H776" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I776" t="inlineStr"/>
       <c r="J776" t="inlineStr"/>
@@ -28592,7 +28842,7 @@
         <v>51845.83659494999</v>
       </c>
       <c r="H777" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I777" t="inlineStr"/>
       <c r="J777" t="inlineStr"/>
@@ -28625,7 +28875,7 @@
         <v>51845.83659494999</v>
       </c>
       <c r="H778" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I778" t="inlineStr"/>
       <c r="J778" t="inlineStr"/>
@@ -28658,7 +28908,7 @@
         <v>51845.83659494999</v>
       </c>
       <c r="H779" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I779" t="inlineStr"/>
       <c r="J779" t="inlineStr"/>
@@ -28691,7 +28941,7 @@
         <v>51845.83659494999</v>
       </c>
       <c r="H780" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I780" t="inlineStr"/>
       <c r="J780" t="inlineStr"/>
@@ -28724,7 +28974,7 @@
         <v>51845.83659494999</v>
       </c>
       <c r="H781" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I781" t="inlineStr"/>
       <c r="J781" t="inlineStr"/>
@@ -28757,7 +29007,7 @@
         <v>51845.83659494999</v>
       </c>
       <c r="H782" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I782" t="inlineStr"/>
       <c r="J782" t="inlineStr"/>
@@ -28790,7 +29040,7 @@
         <v>51845.83659494999</v>
       </c>
       <c r="H783" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I783" t="inlineStr"/>
       <c r="J783" t="inlineStr"/>
@@ -28823,7 +29073,7 @@
         <v>52353.23659494999</v>
       </c>
       <c r="H784" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I784" t="inlineStr"/>
       <c r="J784" t="inlineStr"/>
@@ -28856,7 +29106,7 @@
         <v>52353.23659494999</v>
       </c>
       <c r="H785" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I785" t="inlineStr"/>
       <c r="J785" t="inlineStr"/>
@@ -28889,7 +29139,7 @@
         <v>52434.82319494999</v>
       </c>
       <c r="H786" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I786" t="inlineStr"/>
       <c r="J786" t="inlineStr"/>
@@ -28922,7 +29172,7 @@
         <v>52434.82319494999</v>
       </c>
       <c r="H787" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I787" t="inlineStr"/>
       <c r="J787" t="inlineStr"/>
@@ -28955,7 +29205,7 @@
         <v>52434.82319494999</v>
       </c>
       <c r="H788" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I788" t="inlineStr"/>
       <c r="J788" t="inlineStr"/>
@@ -28988,7 +29238,7 @@
         <v>52434.82319494999</v>
       </c>
       <c r="H789" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I789" t="inlineStr"/>
       <c r="J789" t="inlineStr"/>
@@ -29021,7 +29271,7 @@
         <v>52021.72319494999</v>
       </c>
       <c r="H790" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I790" t="inlineStr"/>
       <c r="J790" t="inlineStr"/>
@@ -29054,7 +29304,7 @@
         <v>52021.72319494999</v>
       </c>
       <c r="H791" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I791" t="inlineStr"/>
       <c r="J791" t="inlineStr"/>
@@ -29087,7 +29337,7 @@
         <v>52288.25399494999</v>
       </c>
       <c r="H792" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I792" t="inlineStr"/>
       <c r="J792" t="inlineStr"/>
@@ -29120,7 +29370,7 @@
         <v>52288.25399494999</v>
       </c>
       <c r="H793" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I793" t="inlineStr"/>
       <c r="J793" t="inlineStr"/>
@@ -29153,7 +29403,7 @@
         <v>52288.25399494999</v>
       </c>
       <c r="H794" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I794" t="inlineStr"/>
       <c r="J794" t="inlineStr"/>
@@ -29186,7 +29436,7 @@
         <v>52288.25399494999</v>
       </c>
       <c r="H795" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I795" t="inlineStr"/>
       <c r="J795" t="inlineStr"/>
@@ -29219,7 +29469,7 @@
         <v>52396.17509494999</v>
       </c>
       <c r="H796" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I796" t="inlineStr"/>
       <c r="J796" t="inlineStr"/>
@@ -29252,7 +29502,7 @@
         <v>52396.17509494999</v>
       </c>
       <c r="H797" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I797" t="inlineStr"/>
       <c r="J797" t="inlineStr"/>
@@ -29285,7 +29535,7 @@
         <v>52384.67509494999</v>
       </c>
       <c r="H798" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I798" t="inlineStr"/>
       <c r="J798" t="inlineStr"/>
@@ -29318,7 +29568,7 @@
         <v>52384.67509494999</v>
       </c>
       <c r="H799" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I799" t="inlineStr"/>
       <c r="J799" t="inlineStr"/>
@@ -29351,7 +29601,7 @@
         <v>52384.67509494999</v>
       </c>
       <c r="H800" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I800" t="inlineStr"/>
       <c r="J800" t="inlineStr"/>
@@ -29384,7 +29634,7 @@
         <v>52384.67509494999</v>
       </c>
       <c r="H801" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I801" t="inlineStr"/>
       <c r="J801" t="inlineStr"/>
@@ -29417,7 +29667,7 @@
         <v>52352.01659494999</v>
       </c>
       <c r="H802" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I802" t="inlineStr"/>
       <c r="J802" t="inlineStr"/>
@@ -29450,7 +29700,7 @@
         <v>52645.25809494999</v>
       </c>
       <c r="H803" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I803" t="inlineStr"/>
       <c r="J803" t="inlineStr"/>
@@ -29483,7 +29733,7 @@
         <v>52634.55809494999</v>
       </c>
       <c r="H804" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I804" t="inlineStr"/>
       <c r="J804" t="inlineStr"/>
@@ -29516,7 +29766,7 @@
         <v>52634.55809494999</v>
       </c>
       <c r="H805" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I805" t="inlineStr"/>
       <c r="J805" t="inlineStr"/>
@@ -29549,7 +29799,7 @@
         <v>52634.55809494999</v>
       </c>
       <c r="H806" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I806" t="inlineStr"/>
       <c r="J806" t="inlineStr"/>
@@ -29582,7 +29832,7 @@
         <v>52634.55809494999</v>
       </c>
       <c r="H807" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I807" t="inlineStr"/>
       <c r="J807" t="inlineStr"/>
@@ -29615,7 +29865,7 @@
         <v>52634.55809494999</v>
       </c>
       <c r="H808" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I808" t="inlineStr"/>
       <c r="J808" t="inlineStr"/>
@@ -29648,7 +29898,7 @@
         <v>52201.97999494999</v>
       </c>
       <c r="H809" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I809" t="inlineStr"/>
       <c r="J809" t="inlineStr"/>
@@ -29681,7 +29931,7 @@
         <v>52204.97999494999</v>
       </c>
       <c r="H810" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I810" t="inlineStr"/>
       <c r="J810" t="inlineStr"/>
@@ -29714,7 +29964,7 @@
         <v>52204.97999494999</v>
       </c>
       <c r="H811" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I811" t="inlineStr"/>
       <c r="J811" t="inlineStr"/>
@@ -29747,7 +29997,7 @@
         <v>52204.97999494999</v>
       </c>
       <c r="H812" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I812" t="inlineStr"/>
       <c r="J812" t="inlineStr"/>
@@ -29780,7 +30030,7 @@
         <v>52200.17999494999</v>
       </c>
       <c r="H813" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I813" t="inlineStr"/>
       <c r="J813" t="inlineStr"/>
@@ -29813,7 +30063,7 @@
         <v>52547.17999494999</v>
       </c>
       <c r="H814" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I814" t="inlineStr"/>
       <c r="J814" t="inlineStr"/>
@@ -29846,7 +30096,7 @@
         <v>52547.17999494999</v>
       </c>
       <c r="H815" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I815" t="inlineStr"/>
       <c r="J815" t="inlineStr"/>
@@ -29879,7 +30129,7 @@
         <v>52547.17999494999</v>
       </c>
       <c r="H816" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I816" t="inlineStr"/>
       <c r="J816" t="inlineStr"/>
@@ -29912,7 +30162,7 @@
         <v>52547.17999494999</v>
       </c>
       <c r="H817" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I817" t="inlineStr"/>
       <c r="J817" t="inlineStr"/>
@@ -29945,7 +30195,7 @@
         <v>52480.11439494999</v>
       </c>
       <c r="H818" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I818" t="inlineStr"/>
       <c r="J818" t="inlineStr"/>
@@ -29978,7 +30228,7 @@
         <v>52470.51439494999</v>
       </c>
       <c r="H819" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I819" t="inlineStr"/>
       <c r="J819" t="inlineStr"/>
@@ -30011,7 +30261,7 @@
         <v>50826.93459494999</v>
       </c>
       <c r="H820" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I820" t="inlineStr"/>
       <c r="J820" t="inlineStr"/>
@@ -30044,7 +30294,7 @@
         <v>50416.50749494999</v>
       </c>
       <c r="H821" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I821" t="inlineStr"/>
       <c r="J821" t="inlineStr"/>
@@ -30077,7 +30327,7 @@
         <v>50416.50749494999</v>
       </c>
       <c r="H822" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I822" t="inlineStr"/>
       <c r="J822" t="inlineStr"/>
@@ -30110,7 +30360,7 @@
         <v>51383.60749494999</v>
       </c>
       <c r="H823" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I823" t="inlineStr"/>
       <c r="J823" t="inlineStr"/>
@@ -30143,7 +30393,7 @@
         <v>51383.60749494999</v>
       </c>
       <c r="H824" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I824" t="inlineStr"/>
       <c r="J824" t="inlineStr"/>
@@ -30176,7 +30426,7 @@
         <v>51817.27759494999</v>
       </c>
       <c r="H825" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I825" t="inlineStr"/>
       <c r="J825" t="inlineStr"/>
@@ -30209,7 +30459,7 @@
         <v>51817.27759494999</v>
       </c>
       <c r="H826" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I826" t="inlineStr"/>
       <c r="J826" t="inlineStr"/>
@@ -30242,7 +30492,7 @@
         <v>51817.27759494999</v>
       </c>
       <c r="H827" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I827" t="inlineStr"/>
       <c r="J827" t="inlineStr"/>
@@ -30275,7 +30525,7 @@
         <v>51817.27759494999</v>
       </c>
       <c r="H828" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I828" t="inlineStr"/>
       <c r="J828" t="inlineStr"/>
@@ -30308,7 +30558,7 @@
         <v>51817.27759494999</v>
       </c>
       <c r="H829" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I829" t="inlineStr"/>
       <c r="J829" t="inlineStr"/>
@@ -30374,7 +30624,7 @@
         <v>52497.27759494999</v>
       </c>
       <c r="H831" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I831" t="inlineStr"/>
       <c r="J831" t="inlineStr"/>
@@ -30407,7 +30657,7 @@
         <v>52958.17759494999</v>
       </c>
       <c r="H832" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I832" t="inlineStr"/>
       <c r="J832" t="inlineStr"/>
@@ -30440,7 +30690,7 @@
         <v>51895.97759495</v>
       </c>
       <c r="H833" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I833" t="inlineStr"/>
       <c r="J833" t="inlineStr"/>
@@ -30506,7 +30756,7 @@
         <v>52723.72269495</v>
       </c>
       <c r="H835" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I835" t="inlineStr"/>
       <c r="J835" t="inlineStr"/>
@@ -30539,7 +30789,7 @@
         <v>52843.17249495</v>
       </c>
       <c r="H836" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I836" t="inlineStr"/>
       <c r="J836" t="inlineStr"/>
@@ -30572,7 +30822,7 @@
         <v>52843.17249495</v>
       </c>
       <c r="H837" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I837" t="inlineStr"/>
       <c r="J837" t="inlineStr"/>
@@ -30605,7 +30855,7 @@
         <v>52832.17249495</v>
       </c>
       <c r="H838" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I838" t="inlineStr"/>
       <c r="J838" t="inlineStr"/>
@@ -30671,7 +30921,7 @@
         <v>52832.17249495</v>
       </c>
       <c r="H840" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I840" t="inlineStr"/>
       <c r="J840" t="inlineStr"/>
@@ -30704,7 +30954,7 @@
         <v>54115.17249495</v>
       </c>
       <c r="H841" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I841" t="inlineStr"/>
       <c r="J841" t="inlineStr"/>
@@ -30737,7 +30987,7 @@
         <v>54115.17249495</v>
       </c>
       <c r="H842" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I842" t="inlineStr"/>
       <c r="J842" t="inlineStr"/>
@@ -30770,7 +31020,7 @@
         <v>54115.17249495</v>
       </c>
       <c r="H843" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I843" t="inlineStr"/>
       <c r="J843" t="inlineStr"/>
@@ -30803,7 +31053,7 @@
         <v>53200.77249495</v>
       </c>
       <c r="H844" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I844" t="inlineStr"/>
       <c r="J844" t="inlineStr"/>
@@ -30869,7 +31119,7 @@
         <v>52445.06849495</v>
       </c>
       <c r="H846" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I846" t="inlineStr"/>
       <c r="J846" t="inlineStr"/>
@@ -30902,7 +31152,7 @@
         <v>52445.06849495</v>
       </c>
       <c r="H847" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I847" t="inlineStr"/>
       <c r="J847" t="inlineStr"/>
@@ -30935,7 +31185,7 @@
         <v>52445.06849495</v>
       </c>
       <c r="H848" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I848" t="inlineStr"/>
       <c r="J848" t="inlineStr"/>
@@ -30968,7 +31218,7 @@
         <v>52445.06849495</v>
       </c>
       <c r="H849" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I849" t="inlineStr"/>
       <c r="J849" t="inlineStr"/>
@@ -31001,7 +31251,7 @@
         <v>52445.06849495</v>
       </c>
       <c r="H850" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I850" t="inlineStr"/>
       <c r="J850" t="inlineStr"/>
@@ -31034,7 +31284,7 @@
         <v>50899.83369495</v>
       </c>
       <c r="H851" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I851" t="inlineStr"/>
       <c r="J851" t="inlineStr"/>
@@ -31067,7 +31317,7 @@
         <v>50899.83369495</v>
       </c>
       <c r="H852" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I852" t="inlineStr"/>
       <c r="J852" t="inlineStr"/>
@@ -31100,7 +31350,7 @@
         <v>50899.83369495</v>
       </c>
       <c r="H853" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I853" t="inlineStr"/>
       <c r="J853" t="inlineStr"/>
@@ -31133,7 +31383,7 @@
         <v>50899.83369495</v>
       </c>
       <c r="H854" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I854" t="inlineStr"/>
       <c r="J854" t="inlineStr"/>
@@ -31166,7 +31416,7 @@
         <v>50899.83369495</v>
       </c>
       <c r="H855" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I855" t="inlineStr"/>
       <c r="J855" t="inlineStr"/>
@@ -31199,7 +31449,7 @@
         <v>50933.97369495</v>
       </c>
       <c r="H856" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I856" t="inlineStr"/>
       <c r="J856" t="inlineStr"/>
@@ -31232,7 +31482,7 @@
         <v>50927.87369495</v>
       </c>
       <c r="H857" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I857" t="inlineStr"/>
       <c r="J857" t="inlineStr"/>
@@ -31265,7 +31515,7 @@
         <v>50927.87369495</v>
       </c>
       <c r="H858" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I858" t="inlineStr"/>
       <c r="J858" t="inlineStr"/>
@@ -31298,7 +31548,7 @@
         <v>50927.87369495</v>
       </c>
       <c r="H859" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I859" t="inlineStr"/>
       <c r="J859" t="inlineStr"/>
@@ -31331,7 +31581,7 @@
         <v>50914.84969495</v>
       </c>
       <c r="H860" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I860" t="inlineStr"/>
       <c r="J860" t="inlineStr"/>
@@ -31364,7 +31614,7 @@
         <v>50914.84969495</v>
       </c>
       <c r="H861" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I861" t="inlineStr"/>
       <c r="J861" t="inlineStr"/>
@@ -31397,7 +31647,7 @@
         <v>51113.22569495</v>
       </c>
       <c r="H862" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I862" t="inlineStr"/>
       <c r="J862" t="inlineStr"/>
@@ -31430,7 +31680,7 @@
         <v>51113.22569495</v>
       </c>
       <c r="H863" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I863" t="inlineStr"/>
       <c r="J863" t="inlineStr"/>
@@ -31463,7 +31713,7 @@
         <v>51502.72569495</v>
       </c>
       <c r="H864" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I864" t="inlineStr"/>
       <c r="J864" t="inlineStr"/>
@@ -31496,7 +31746,7 @@
         <v>51472.96419495</v>
       </c>
       <c r="H865" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I865" t="inlineStr"/>
       <c r="J865" t="inlineStr"/>
@@ -31529,7 +31779,7 @@
         <v>51472.96419495</v>
       </c>
       <c r="H866" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I866" t="inlineStr"/>
       <c r="J866" t="inlineStr"/>
@@ -31562,7 +31812,7 @@
         <v>51472.96419495</v>
       </c>
       <c r="H867" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I867" t="inlineStr"/>
       <c r="J867" t="inlineStr"/>
@@ -32024,7 +32274,7 @@
         <v>51678.83699495</v>
       </c>
       <c r="H881" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I881" t="inlineStr"/>
       <c r="J881" t="inlineStr"/>
@@ -32057,7 +32307,7 @@
         <v>51678.83699495</v>
       </c>
       <c r="H882" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I882" t="inlineStr"/>
       <c r="J882" t="inlineStr"/>
@@ -32090,7 +32340,7 @@
         <v>51678.83699495</v>
       </c>
       <c r="H883" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I883" t="inlineStr"/>
       <c r="J883" t="inlineStr"/>
@@ -32123,7 +32373,7 @@
         <v>52189.93699495</v>
       </c>
       <c r="H884" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I884" t="inlineStr"/>
       <c r="J884" t="inlineStr"/>
@@ -32156,7 +32406,7 @@
         <v>52175.03699495</v>
       </c>
       <c r="H885" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I885" t="inlineStr"/>
       <c r="J885" t="inlineStr"/>
@@ -32189,7 +32439,7 @@
         <v>52175.03699495</v>
       </c>
       <c r="H886" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I886" t="inlineStr"/>
       <c r="J886" t="inlineStr"/>
@@ -32222,7 +32472,7 @@
         <v>52156.03699495</v>
       </c>
       <c r="H887" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I887" t="inlineStr"/>
       <c r="J887" t="inlineStr"/>
@@ -32255,7 +32505,7 @@
         <v>52156.03699495</v>
       </c>
       <c r="H888" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I888" t="inlineStr"/>
       <c r="J888" t="inlineStr"/>
@@ -32288,7 +32538,7 @@
         <v>52156.03699495</v>
       </c>
       <c r="H889" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I889" t="inlineStr"/>
       <c r="J889" t="inlineStr"/>
@@ -32321,7 +32571,7 @@
         <v>52156.03699495</v>
       </c>
       <c r="H890" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I890" t="inlineStr"/>
       <c r="J890" t="inlineStr"/>
@@ -32354,7 +32604,7 @@
         <v>52156.03699495</v>
       </c>
       <c r="H891" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I891" t="inlineStr"/>
       <c r="J891" t="inlineStr"/>
@@ -32387,7 +32637,7 @@
         <v>52156.03699495</v>
       </c>
       <c r="H892" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I892" t="inlineStr"/>
       <c r="J892" t="inlineStr"/>
@@ -32420,7 +32670,7 @@
         <v>52447.65369495</v>
       </c>
       <c r="H893" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I893" t="inlineStr"/>
       <c r="J893" t="inlineStr"/>
@@ -32453,7 +32703,7 @@
         <v>52217.27039495</v>
       </c>
       <c r="H894" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I894" t="inlineStr"/>
       <c r="J894" t="inlineStr"/>
@@ -32486,7 +32736,7 @@
         <v>52217.27039495</v>
       </c>
       <c r="H895" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I895" t="inlineStr"/>
       <c r="J895" t="inlineStr"/>
@@ -32519,7 +32769,7 @@
         <v>52217.27039495</v>
       </c>
       <c r="H896" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I896" t="inlineStr"/>
       <c r="J896" t="inlineStr"/>
@@ -32552,7 +32802,7 @@
         <v>52217.27039495</v>
       </c>
       <c r="H897" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I897" t="inlineStr"/>
       <c r="J897" t="inlineStr"/>
@@ -32585,7 +32835,7 @@
         <v>52217.27039495</v>
       </c>
       <c r="H898" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I898" t="inlineStr"/>
       <c r="J898" t="inlineStr"/>
@@ -32618,7 +32868,7 @@
         <v>52407.27039495</v>
       </c>
       <c r="H899" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I899" t="inlineStr"/>
       <c r="J899" t="inlineStr"/>
@@ -32651,7 +32901,7 @@
         <v>53187.48719495</v>
       </c>
       <c r="H900" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I900" t="inlineStr"/>
       <c r="J900" t="inlineStr"/>
@@ -32684,7 +32934,7 @@
         <v>53243.22799495</v>
       </c>
       <c r="H901" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I901" t="inlineStr"/>
       <c r="J901" t="inlineStr"/>
@@ -32717,7 +32967,7 @@
         <v>53238.12799495</v>
       </c>
       <c r="H902" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I902" t="inlineStr"/>
       <c r="J902" t="inlineStr"/>
@@ -32750,7 +33000,7 @@
         <v>53238.12799495</v>
       </c>
       <c r="H903" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I903" t="inlineStr"/>
       <c r="J903" t="inlineStr"/>
@@ -32783,7 +33033,7 @@
         <v>53771.52799495</v>
       </c>
       <c r="H904" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I904" t="inlineStr"/>
       <c r="J904" t="inlineStr"/>
@@ -32816,7 +33066,7 @@
         <v>53758.46229495</v>
       </c>
       <c r="H905" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I905" t="inlineStr"/>
       <c r="J905" t="inlineStr"/>
@@ -32849,7 +33099,7 @@
         <v>53754.86229495001</v>
       </c>
       <c r="H906" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I906" t="inlineStr"/>
       <c r="J906" t="inlineStr"/>
@@ -33146,7 +33396,7 @@
         <v>55000.66229495001</v>
       </c>
       <c r="H915" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I915" t="inlineStr"/>
       <c r="J915" t="inlineStr"/>
@@ -33245,7 +33495,7 @@
         <v>55206.26229495001</v>
       </c>
       <c r="H918" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I918" t="inlineStr"/>
       <c r="J918" t="inlineStr"/>
@@ -33278,7 +33528,7 @@
         <v>55187.66229495001</v>
       </c>
       <c r="H919" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I919" t="inlineStr"/>
       <c r="J919" t="inlineStr"/>
@@ -33311,7 +33561,7 @@
         <v>55861.66229495001</v>
       </c>
       <c r="H920" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I920" t="inlineStr"/>
       <c r="J920" t="inlineStr"/>
@@ -33344,7 +33594,7 @@
         <v>55861.66229495001</v>
       </c>
       <c r="H921" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I921" t="inlineStr"/>
       <c r="J921" t="inlineStr"/>
@@ -33377,7 +33627,7 @@
         <v>56023.56229495001</v>
       </c>
       <c r="H922" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I922" t="inlineStr"/>
       <c r="J922" t="inlineStr"/>
@@ -33410,7 +33660,7 @@
         <v>56512.52289495001</v>
       </c>
       <c r="H923" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I923" t="inlineStr"/>
       <c r="J923" t="inlineStr"/>
@@ -33443,7 +33693,7 @@
         <v>56512.52289495001</v>
       </c>
       <c r="H924" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I924" t="inlineStr"/>
       <c r="J924" t="inlineStr"/>
@@ -33476,7 +33726,7 @@
         <v>56512.52289495001</v>
       </c>
       <c r="H925" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I925" t="inlineStr"/>
       <c r="J925" t="inlineStr"/>
@@ -33509,7 +33759,7 @@
         <v>55844.52289495001</v>
       </c>
       <c r="H926" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I926" t="inlineStr"/>
       <c r="J926" t="inlineStr"/>
@@ -33542,7 +33792,7 @@
         <v>55844.52289495001</v>
       </c>
       <c r="H927" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I927" t="inlineStr"/>
       <c r="J927" t="inlineStr"/>
@@ -33575,7 +33825,7 @@
         <v>56022.59789495001</v>
       </c>
       <c r="H928" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I928" t="inlineStr"/>
       <c r="J928" t="inlineStr"/>
@@ -33608,7 +33858,7 @@
         <v>56022.59789495001</v>
       </c>
       <c r="H929" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I929" t="inlineStr"/>
       <c r="J929" t="inlineStr"/>
@@ -33641,7 +33891,7 @@
         <v>56723.59789495001</v>
       </c>
       <c r="H930" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I930" t="inlineStr"/>
       <c r="J930" t="inlineStr"/>
@@ -33674,7 +33924,7 @@
         <v>57571.59789495001</v>
       </c>
       <c r="H931" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I931" t="inlineStr"/>
       <c r="J931" t="inlineStr"/>
@@ -33707,7 +33957,7 @@
         <v>57571.59789495001</v>
       </c>
       <c r="H932" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I932" t="inlineStr"/>
       <c r="J932" t="inlineStr"/>
@@ -33740,7 +33990,7 @@
         <v>57826.69789495</v>
       </c>
       <c r="H933" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I933" t="inlineStr"/>
       <c r="J933" t="inlineStr"/>
@@ -33773,7 +34023,7 @@
         <v>57826.69789495</v>
       </c>
       <c r="H934" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I934" t="inlineStr"/>
       <c r="J934" t="inlineStr"/>
@@ -33784,6 +34034,6 @@
       <c r="M934" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-15 BackTest BHP.xlsx
+++ b/BackTest/2020-01-15 BackTest BHP.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -841,11 +841,9 @@
         <v>5592.3717</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
-      </c>
-      <c r="I12" t="n">
-        <v>941</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="n">
         <v>939</v>
       </c>
@@ -882,11 +880,9 @@
         <v>5591.6717</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
-      </c>
-      <c r="I13" t="n">
-        <v>941</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="n">
         <v>939</v>
       </c>
@@ -923,11 +919,9 @@
         <v>5591.6717</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
-      </c>
-      <c r="I14" t="n">
-        <v>939</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I14" t="inlineStr"/>
       <c r="J14" t="n">
         <v>939</v>
       </c>
@@ -964,11 +958,9 @@
         <v>5932.6717</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
-      </c>
-      <c r="I15" t="n">
-        <v>939</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="n">
         <v>939</v>
       </c>
@@ -1005,11 +997,9 @@
         <v>5932.6717</v>
       </c>
       <c r="H16" t="n">
-        <v>1</v>
-      </c>
-      <c r="I16" t="n">
-        <v>941</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="n">
         <v>939</v>
       </c>
@@ -1046,11 +1036,9 @@
         <v>5932.6717</v>
       </c>
       <c r="H17" t="n">
-        <v>1</v>
-      </c>
-      <c r="I17" t="n">
-        <v>941</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I17" t="inlineStr"/>
       <c r="J17" t="n">
         <v>939</v>
       </c>
@@ -1087,11 +1075,9 @@
         <v>5927.7717</v>
       </c>
       <c r="H18" t="n">
-        <v>1</v>
-      </c>
-      <c r="I18" t="n">
-        <v>941</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I18" t="inlineStr"/>
       <c r="J18" t="n">
         <v>939</v>
       </c>
@@ -1128,11 +1114,9 @@
         <v>5927.7717</v>
       </c>
       <c r="H19" t="n">
-        <v>1</v>
-      </c>
-      <c r="I19" t="n">
-        <v>939</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I19" t="inlineStr"/>
       <c r="J19" t="n">
         <v>939</v>
       </c>
@@ -1169,11 +1153,9 @@
         <v>5927.7717</v>
       </c>
       <c r="H20" t="n">
-        <v>1</v>
-      </c>
-      <c r="I20" t="n">
-        <v>939</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I20" t="inlineStr"/>
       <c r="J20" t="n">
         <v>939</v>
       </c>
@@ -1210,11 +1192,9 @@
         <v>5924.871700000001</v>
       </c>
       <c r="H21" t="n">
-        <v>1</v>
-      </c>
-      <c r="I21" t="n">
-        <v>939</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I21" t="inlineStr"/>
       <c r="J21" t="n">
         <v>939</v>
       </c>
@@ -1251,11 +1231,9 @@
         <v>5924.871700000001</v>
       </c>
       <c r="H22" t="n">
-        <v>1</v>
-      </c>
-      <c r="I22" t="n">
-        <v>937</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I22" t="inlineStr"/>
       <c r="J22" t="n">
         <v>939</v>
       </c>
@@ -1333,11 +1311,9 @@
         <v>6488.3567</v>
       </c>
       <c r="H24" t="n">
-        <v>1</v>
-      </c>
-      <c r="I24" t="n">
-        <v>939</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I24" t="inlineStr"/>
       <c r="J24" t="n">
         <v>939</v>
       </c>
@@ -1374,11 +1350,9 @@
         <v>6488.3567</v>
       </c>
       <c r="H25" t="n">
-        <v>1</v>
-      </c>
-      <c r="I25" t="n">
-        <v>939</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I25" t="inlineStr"/>
       <c r="J25" t="n">
         <v>939</v>
       </c>
@@ -1415,11 +1389,9 @@
         <v>6488.3567</v>
       </c>
       <c r="H26" t="n">
-        <v>1</v>
-      </c>
-      <c r="I26" t="n">
-        <v>939</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I26" t="inlineStr"/>
       <c r="J26" t="n">
         <v>939</v>
       </c>
@@ -1456,11 +1428,9 @@
         <v>7062.6567</v>
       </c>
       <c r="H27" t="n">
-        <v>1</v>
-      </c>
-      <c r="I27" t="n">
-        <v>939</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I27" t="inlineStr"/>
       <c r="J27" t="n">
         <v>939</v>
       </c>
@@ -1497,11 +1467,9 @@
         <v>7062.6567</v>
       </c>
       <c r="H28" t="n">
-        <v>1</v>
-      </c>
-      <c r="I28" t="n">
-        <v>941</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I28" t="inlineStr"/>
       <c r="J28" t="n">
         <v>939</v>
       </c>
@@ -1538,11 +1506,9 @@
         <v>7062.6567</v>
       </c>
       <c r="H29" t="n">
-        <v>1</v>
-      </c>
-      <c r="I29" t="n">
-        <v>941</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I29" t="inlineStr"/>
       <c r="J29" t="n">
         <v>939</v>
       </c>
@@ -1579,11 +1545,9 @@
         <v>7053.5567</v>
       </c>
       <c r="H30" t="n">
-        <v>1</v>
-      </c>
-      <c r="I30" t="n">
-        <v>941</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I30" t="inlineStr"/>
       <c r="J30" t="n">
         <v>939</v>
       </c>
@@ -1620,11 +1584,9 @@
         <v>7053.5567</v>
       </c>
       <c r="H31" t="n">
-        <v>1</v>
-      </c>
-      <c r="I31" t="n">
-        <v>939</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I31" t="inlineStr"/>
       <c r="J31" t="n">
         <v>939</v>
       </c>
@@ -1661,11 +1623,9 @@
         <v>7062.6567</v>
       </c>
       <c r="H32" t="n">
-        <v>1</v>
-      </c>
-      <c r="I32" t="n">
-        <v>939</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I32" t="inlineStr"/>
       <c r="J32" t="n">
         <v>939</v>
       </c>
@@ -1702,11 +1662,9 @@
         <v>7173.5567</v>
       </c>
       <c r="H33" t="n">
-        <v>1</v>
-      </c>
-      <c r="I33" t="n">
-        <v>941</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I33" t="inlineStr"/>
       <c r="J33" t="n">
         <v>939</v>
       </c>
@@ -1743,11 +1701,9 @@
         <v>7167.0567</v>
       </c>
       <c r="H34" t="n">
-        <v>1</v>
-      </c>
-      <c r="I34" t="n">
-        <v>943</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I34" t="inlineStr"/>
       <c r="J34" t="n">
         <v>939</v>
       </c>
@@ -1784,11 +1740,9 @@
         <v>7167.0567</v>
       </c>
       <c r="H35" t="n">
-        <v>1</v>
-      </c>
-      <c r="I35" t="n">
-        <v>941</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I35" t="inlineStr"/>
       <c r="J35" t="n">
         <v>939</v>
       </c>
@@ -1825,11 +1779,9 @@
         <v>7167.0567</v>
       </c>
       <c r="H36" t="n">
-        <v>1</v>
-      </c>
-      <c r="I36" t="n">
-        <v>941</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I36" t="inlineStr"/>
       <c r="J36" t="n">
         <v>939</v>
       </c>
@@ -1866,11 +1818,9 @@
         <v>7167.0567</v>
       </c>
       <c r="H37" t="n">
-        <v>1</v>
-      </c>
-      <c r="I37" t="n">
-        <v>941</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I37" t="inlineStr"/>
       <c r="J37" t="n">
         <v>939</v>
       </c>
@@ -1907,11 +1857,9 @@
         <v>7877.0567</v>
       </c>
       <c r="H38" t="n">
-        <v>1</v>
-      </c>
-      <c r="I38" t="n">
-        <v>941</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I38" t="inlineStr"/>
       <c r="J38" t="n">
         <v>939</v>
       </c>
@@ -1948,11 +1896,9 @@
         <v>7867.7567</v>
       </c>
       <c r="H39" t="n">
-        <v>1</v>
-      </c>
-      <c r="I39" t="n">
-        <v>943</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I39" t="inlineStr"/>
       <c r="J39" t="n">
         <v>939</v>
       </c>
@@ -1989,11 +1935,9 @@
         <v>7867.7567</v>
       </c>
       <c r="H40" t="n">
-        <v>1</v>
-      </c>
-      <c r="I40" t="n">
-        <v>941</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I40" t="inlineStr"/>
       <c r="J40" t="n">
         <v>939</v>
       </c>
@@ -2030,11 +1974,9 @@
         <v>7864.8567</v>
       </c>
       <c r="H41" t="n">
-        <v>1</v>
-      </c>
-      <c r="I41" t="n">
-        <v>941</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I41" t="inlineStr"/>
       <c r="J41" t="n">
         <v>939</v>
       </c>
@@ -2071,11 +2013,9 @@
         <v>8095.8567</v>
       </c>
       <c r="H42" t="n">
-        <v>1</v>
-      </c>
-      <c r="I42" t="n">
-        <v>939</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I42" t="inlineStr"/>
       <c r="J42" t="n">
         <v>939</v>
       </c>
@@ -2112,11 +2052,9 @@
         <v>8095.8567</v>
       </c>
       <c r="H43" t="n">
-        <v>1</v>
-      </c>
-      <c r="I43" t="n">
-        <v>941</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I43" t="inlineStr"/>
       <c r="J43" t="n">
         <v>939</v>
       </c>
@@ -2153,11 +2091,9 @@
         <v>8095.8567</v>
       </c>
       <c r="H44" t="n">
-        <v>1</v>
-      </c>
-      <c r="I44" t="n">
-        <v>941</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I44" t="inlineStr"/>
       <c r="J44" t="n">
         <v>939</v>
       </c>
@@ -2194,11 +2130,9 @@
         <v>8095.8567</v>
       </c>
       <c r="H45" t="n">
-        <v>1</v>
-      </c>
-      <c r="I45" t="n">
-        <v>941</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I45" t="inlineStr"/>
       <c r="J45" t="n">
         <v>939</v>
       </c>
@@ -2235,11 +2169,9 @@
         <v>8089.3567</v>
       </c>
       <c r="H46" t="n">
-        <v>1</v>
-      </c>
-      <c r="I46" t="n">
-        <v>941</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I46" t="inlineStr"/>
       <c r="J46" t="n">
         <v>939</v>
       </c>
@@ -2276,11 +2208,9 @@
         <v>8821.1414</v>
       </c>
       <c r="H47" t="n">
-        <v>1</v>
-      </c>
-      <c r="I47" t="n">
-        <v>939</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I47" t="inlineStr"/>
       <c r="J47" t="n">
         <v>939</v>
       </c>
@@ -2317,11 +2247,9 @@
         <v>8821.1414</v>
       </c>
       <c r="H48" t="n">
-        <v>1</v>
-      </c>
-      <c r="I48" t="n">
-        <v>941</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I48" t="inlineStr"/>
       <c r="J48" t="n">
         <v>939</v>
       </c>
@@ -2358,11 +2286,9 @@
         <v>8821.1414</v>
       </c>
       <c r="H49" t="n">
-        <v>1</v>
-      </c>
-      <c r="I49" t="n">
-        <v>941</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I49" t="inlineStr"/>
       <c r="J49" t="n">
         <v>939</v>
       </c>
@@ -2399,11 +2325,9 @@
         <v>8821.1414</v>
       </c>
       <c r="H50" t="n">
-        <v>1</v>
-      </c>
-      <c r="I50" t="n">
-        <v>941</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I50" t="inlineStr"/>
       <c r="J50" t="n">
         <v>939</v>
       </c>
@@ -2440,11 +2364,9 @@
         <v>8820.4414</v>
       </c>
       <c r="H51" t="n">
-        <v>1</v>
-      </c>
-      <c r="I51" t="n">
-        <v>941</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I51" t="inlineStr"/>
       <c r="J51" t="n">
         <v>939</v>
       </c>
@@ -2481,11 +2403,9 @@
         <v>8819.741399999999</v>
       </c>
       <c r="H52" t="n">
-        <v>1</v>
-      </c>
-      <c r="I52" t="n">
-        <v>940</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I52" t="inlineStr"/>
       <c r="J52" t="n">
         <v>939</v>
       </c>
@@ -2522,11 +2442,9 @@
         <v>8819.741399999999</v>
       </c>
       <c r="H53" t="n">
-        <v>1</v>
-      </c>
-      <c r="I53" t="n">
-        <v>939</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I53" t="inlineStr"/>
       <c r="J53" t="n">
         <v>939</v>
       </c>
@@ -2563,11 +2481,9 @@
         <v>8819.741399999999</v>
       </c>
       <c r="H54" t="n">
-        <v>1</v>
-      </c>
-      <c r="I54" t="n">
-        <v>939</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I54" t="inlineStr"/>
       <c r="J54" t="n">
         <v>939</v>
       </c>
@@ -2604,11 +2520,9 @@
         <v>8766.026399999999</v>
       </c>
       <c r="H55" t="n">
-        <v>1</v>
-      </c>
-      <c r="I55" t="n">
-        <v>939</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I55" t="inlineStr"/>
       <c r="J55" t="n">
         <v>939</v>
       </c>
@@ -2645,11 +2559,9 @@
         <v>8766.026399999999</v>
       </c>
       <c r="H56" t="n">
-        <v>1</v>
-      </c>
-      <c r="I56" t="n">
-        <v>937</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I56" t="inlineStr"/>
       <c r="J56" t="n">
         <v>939</v>
       </c>
@@ -2686,11 +2598,9 @@
         <v>8766.026399999999</v>
       </c>
       <c r="H57" t="n">
-        <v>1</v>
-      </c>
-      <c r="I57" t="n">
-        <v>937</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I57" t="inlineStr"/>
       <c r="J57" t="n">
         <v>939</v>
       </c>
@@ -2727,11 +2637,9 @@
         <v>8766.026399999999</v>
       </c>
       <c r="H58" t="n">
-        <v>1</v>
-      </c>
-      <c r="I58" t="n">
-        <v>937</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I58" t="inlineStr"/>
       <c r="J58" t="n">
         <v>939</v>
       </c>
@@ -2768,11 +2676,9 @@
         <v>8766.026399999999</v>
       </c>
       <c r="H59" t="n">
-        <v>1</v>
-      </c>
-      <c r="I59" t="n">
-        <v>937</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I59" t="inlineStr"/>
       <c r="J59" t="n">
         <v>939</v>
       </c>
@@ -2809,11 +2715,9 @@
         <v>8766.026399999999</v>
       </c>
       <c r="H60" t="n">
-        <v>1</v>
-      </c>
-      <c r="I60" t="n">
-        <v>937</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I60" t="inlineStr"/>
       <c r="J60" t="n">
         <v>939</v>
       </c>
@@ -2850,11 +2754,9 @@
         <v>8766.026399999999</v>
       </c>
       <c r="H61" t="n">
-        <v>1</v>
-      </c>
-      <c r="I61" t="n">
-        <v>937</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I61" t="inlineStr"/>
       <c r="J61" t="n">
         <v>939</v>
       </c>
@@ -2891,11 +2793,9 @@
         <v>8918.211399999998</v>
       </c>
       <c r="H62" t="n">
-        <v>1</v>
-      </c>
-      <c r="I62" t="n">
-        <v>937</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I62" t="inlineStr"/>
       <c r="J62" t="n">
         <v>939</v>
       </c>
@@ -2932,11 +2832,9 @@
         <v>8918.211399999998</v>
       </c>
       <c r="H63" t="n">
-        <v>1</v>
-      </c>
-      <c r="I63" t="n">
-        <v>939</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I63" t="inlineStr"/>
       <c r="J63" t="n">
         <v>939</v>
       </c>
@@ -2973,11 +2871,9 @@
         <v>8364.411399999999</v>
       </c>
       <c r="H64" t="n">
-        <v>1</v>
-      </c>
-      <c r="I64" t="n">
-        <v>939</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I64" t="inlineStr"/>
       <c r="J64" t="n">
         <v>939</v>
       </c>
@@ -3014,11 +2910,9 @@
         <v>8367.911399999999</v>
       </c>
       <c r="H65" t="n">
-        <v>1</v>
-      </c>
-      <c r="I65" t="n">
-        <v>938</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I65" t="inlineStr"/>
       <c r="J65" t="n">
         <v>939</v>
       </c>
@@ -3055,11 +2949,9 @@
         <v>8367.911399999999</v>
       </c>
       <c r="H66" t="n">
-        <v>1</v>
-      </c>
-      <c r="I66" t="n">
-        <v>939</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I66" t="inlineStr"/>
       <c r="J66" t="n">
         <v>939</v>
       </c>
@@ -3096,11 +2988,9 @@
         <v>8367.911399999999</v>
       </c>
       <c r="H67" t="n">
-        <v>1</v>
-      </c>
-      <c r="I67" t="n">
-        <v>939</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I67" t="inlineStr"/>
       <c r="J67" t="n">
         <v>939</v>
       </c>
@@ -3137,11 +3027,9 @@
         <v>8367.911399999999</v>
       </c>
       <c r="H68" t="n">
-        <v>1</v>
-      </c>
-      <c r="I68" t="n">
-        <v>939</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I68" t="inlineStr"/>
       <c r="J68" t="n">
         <v>939</v>
       </c>
@@ -3178,11 +3066,9 @@
         <v>8877.911399999999</v>
       </c>
       <c r="H69" t="n">
-        <v>1</v>
-      </c>
-      <c r="I69" t="n">
-        <v>939</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I69" t="inlineStr"/>
       <c r="J69" t="n">
         <v>939</v>
       </c>
@@ -3219,11 +3105,9 @@
         <v>8877.911399999999</v>
       </c>
       <c r="H70" t="n">
-        <v>1</v>
-      </c>
-      <c r="I70" t="n">
-        <v>941</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I70" t="inlineStr"/>
       <c r="J70" t="n">
         <v>939</v>
       </c>
@@ -3260,11 +3144,9 @@
         <v>8877.911399999999</v>
       </c>
       <c r="H71" t="n">
-        <v>1</v>
-      </c>
-      <c r="I71" t="n">
-        <v>941</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I71" t="inlineStr"/>
       <c r="J71" t="n">
         <v>939</v>
       </c>
@@ -3301,11 +3183,9 @@
         <v>8877.911399999999</v>
       </c>
       <c r="H72" t="n">
-        <v>1</v>
-      </c>
-      <c r="I72" t="n">
-        <v>941</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I72" t="inlineStr"/>
       <c r="J72" t="n">
         <v>939</v>
       </c>
@@ -3342,11 +3222,9 @@
         <v>8877.911399999999</v>
       </c>
       <c r="H73" t="n">
-        <v>1</v>
-      </c>
-      <c r="I73" t="n">
-        <v>941</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I73" t="inlineStr"/>
       <c r="J73" t="n">
         <v>939</v>
       </c>
@@ -3383,11 +3261,9 @@
         <v>8877.911399999999</v>
       </c>
       <c r="H74" t="n">
-        <v>1</v>
-      </c>
-      <c r="I74" t="n">
-        <v>941</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I74" t="inlineStr"/>
       <c r="J74" t="n">
         <v>939</v>
       </c>
@@ -3424,11 +3300,9 @@
         <v>8877.911399999999</v>
       </c>
       <c r="H75" t="n">
-        <v>1</v>
-      </c>
-      <c r="I75" t="n">
-        <v>941</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I75" t="inlineStr"/>
       <c r="J75" t="n">
         <v>939</v>
       </c>
@@ -3465,11 +3339,9 @@
         <v>8877.911399999999</v>
       </c>
       <c r="H76" t="n">
-        <v>1</v>
-      </c>
-      <c r="I76" t="n">
-        <v>941</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I76" t="inlineStr"/>
       <c r="J76" t="n">
         <v>939</v>
       </c>
@@ -3506,11 +3378,9 @@
         <v>8877.911399999999</v>
       </c>
       <c r="H77" t="n">
-        <v>1</v>
-      </c>
-      <c r="I77" t="n">
-        <v>941</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I77" t="inlineStr"/>
       <c r="J77" t="n">
         <v>939</v>
       </c>
@@ -3547,11 +3417,9 @@
         <v>8870.411399999999</v>
       </c>
       <c r="H78" t="n">
-        <v>1</v>
-      </c>
-      <c r="I78" t="n">
-        <v>941</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I78" t="inlineStr"/>
       <c r="J78" t="n">
         <v>939</v>
       </c>
@@ -3588,11 +3456,9 @@
         <v>9126.1114</v>
       </c>
       <c r="H79" t="n">
-        <v>1</v>
-      </c>
-      <c r="I79" t="n">
-        <v>939</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I79" t="inlineStr"/>
       <c r="J79" t="n">
         <v>939</v>
       </c>
@@ -3629,11 +3495,9 @@
         <v>9123.511399999999</v>
       </c>
       <c r="H80" t="n">
-        <v>1</v>
-      </c>
-      <c r="I80" t="n">
-        <v>941</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I80" t="inlineStr"/>
       <c r="J80" t="n">
         <v>939</v>
       </c>
@@ -3670,11 +3534,9 @@
         <v>9123.511399999999</v>
       </c>
       <c r="H81" t="n">
-        <v>1</v>
-      </c>
-      <c r="I81" t="n">
-        <v>939</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I81" t="inlineStr"/>
       <c r="J81" t="n">
         <v>939</v>
       </c>
@@ -3711,11 +3573,9 @@
         <v>9123.511399999999</v>
       </c>
       <c r="H82" t="n">
-        <v>1</v>
-      </c>
-      <c r="I82" t="n">
-        <v>939</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I82" t="inlineStr"/>
       <c r="J82" t="n">
         <v>939</v>
       </c>
@@ -3752,11 +3612,9 @@
         <v>9123.511399999999</v>
       </c>
       <c r="H83" t="n">
-        <v>1</v>
-      </c>
-      <c r="I83" t="n">
-        <v>939</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I83" t="inlineStr"/>
       <c r="J83" t="n">
         <v>939</v>
       </c>
@@ -3793,11 +3651,9 @@
         <v>9428.511399999999</v>
       </c>
       <c r="H84" t="n">
-        <v>1</v>
-      </c>
-      <c r="I84" t="n">
-        <v>939</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I84" t="inlineStr"/>
       <c r="J84" t="n">
         <v>939</v>
       </c>
@@ -3834,11 +3690,9 @@
         <v>9428.511399999999</v>
       </c>
       <c r="H85" t="n">
-        <v>1</v>
-      </c>
-      <c r="I85" t="n">
-        <v>941</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I85" t="inlineStr"/>
       <c r="J85" t="n">
         <v>939</v>
       </c>
@@ -3875,11 +3729,9 @@
         <v>9428.511399999999</v>
       </c>
       <c r="H86" t="n">
-        <v>1</v>
-      </c>
-      <c r="I86" t="n">
-        <v>941</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I86" t="inlineStr"/>
       <c r="J86" t="n">
         <v>939</v>
       </c>
@@ -3916,11 +3768,9 @@
         <v>9428.511399999999</v>
       </c>
       <c r="H87" t="n">
-        <v>1</v>
-      </c>
-      <c r="I87" t="n">
-        <v>941</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I87" t="inlineStr"/>
       <c r="J87" t="n">
         <v>939</v>
       </c>
@@ -3957,11 +3807,9 @@
         <v>9428.511399999999</v>
       </c>
       <c r="H88" t="n">
-        <v>1</v>
-      </c>
-      <c r="I88" t="n">
-        <v>941</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I88" t="inlineStr"/>
       <c r="J88" t="n">
         <v>939</v>
       </c>
@@ -3998,11 +3846,9 @@
         <v>9427.311399999999</v>
       </c>
       <c r="H89" t="n">
-        <v>1</v>
-      </c>
-      <c r="I89" t="n">
-        <v>941</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I89" t="inlineStr"/>
       <c r="J89" t="n">
         <v>939</v>
       </c>
@@ -4039,11 +3885,9 @@
         <v>9659.311399999999</v>
       </c>
       <c r="H90" t="n">
-        <v>1</v>
-      </c>
-      <c r="I90" t="n">
-        <v>939</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I90" t="inlineStr"/>
       <c r="J90" t="n">
         <v>939</v>
       </c>
@@ -4080,11 +3924,9 @@
         <v>9659.311399999999</v>
       </c>
       <c r="H91" t="n">
-        <v>1</v>
-      </c>
-      <c r="I91" t="n">
-        <v>941</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I91" t="inlineStr"/>
       <c r="J91" t="n">
         <v>939</v>
       </c>
@@ -4121,11 +3963,9 @@
         <v>9766.311399999999</v>
       </c>
       <c r="H92" t="n">
-        <v>1</v>
-      </c>
-      <c r="I92" t="n">
-        <v>941</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I92" t="inlineStr"/>
       <c r="J92" t="n">
         <v>939</v>
       </c>
@@ -4318,11 +4158,9 @@
         <v>9757.511399999999</v>
       </c>
       <c r="H97" t="n">
-        <v>1</v>
-      </c>
-      <c r="I97" t="n">
-        <v>943</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I97" t="inlineStr"/>
       <c r="J97" t="n">
         <v>939</v>
       </c>
@@ -4359,11 +4197,9 @@
         <v>10528.5114</v>
       </c>
       <c r="H98" t="n">
-        <v>1</v>
-      </c>
-      <c r="I98" t="n">
-        <v>941</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I98" t="inlineStr"/>
       <c r="J98" t="n">
         <v>939</v>
       </c>
@@ -4400,11 +4236,9 @@
         <v>10528.5114</v>
       </c>
       <c r="H99" t="n">
-        <v>1</v>
-      </c>
-      <c r="I99" t="n">
-        <v>943</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I99" t="inlineStr"/>
       <c r="J99" t="n">
         <v>939</v>
       </c>
@@ -4441,11 +4275,9 @@
         <v>10521.2114</v>
       </c>
       <c r="H100" t="n">
-        <v>1</v>
-      </c>
-      <c r="I100" t="n">
-        <v>943</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I100" t="inlineStr"/>
       <c r="J100" t="n">
         <v>939</v>
       </c>
@@ -4482,11 +4314,9 @@
         <v>10521.2114</v>
       </c>
       <c r="H101" t="n">
-        <v>1</v>
-      </c>
-      <c r="I101" t="n">
-        <v>941</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I101" t="inlineStr"/>
       <c r="J101" t="n">
         <v>939</v>
       </c>
@@ -4523,11 +4353,9 @@
         <v>10521.2114</v>
       </c>
       <c r="H102" t="n">
-        <v>1</v>
-      </c>
-      <c r="I102" t="n">
-        <v>941</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I102" t="inlineStr"/>
       <c r="J102" t="n">
         <v>939</v>
       </c>
@@ -4564,11 +4392,9 @@
         <v>10521.2114</v>
       </c>
       <c r="H103" t="n">
-        <v>1</v>
-      </c>
-      <c r="I103" t="n">
-        <v>941</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I103" t="inlineStr"/>
       <c r="J103" t="n">
         <v>939</v>
       </c>
@@ -4605,11 +4431,9 @@
         <v>10512.5114</v>
       </c>
       <c r="H104" t="n">
-        <v>1</v>
-      </c>
-      <c r="I104" t="n">
-        <v>941</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I104" t="inlineStr"/>
       <c r="J104" t="n">
         <v>939</v>
       </c>
@@ -4646,11 +4470,9 @@
         <v>10904.0114</v>
       </c>
       <c r="H105" t="n">
-        <v>1</v>
-      </c>
-      <c r="I105" t="n">
-        <v>939</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I105" t="inlineStr"/>
       <c r="J105" t="n">
         <v>939</v>
       </c>
@@ -4687,11 +4509,9 @@
         <v>10896.1114</v>
       </c>
       <c r="H106" t="n">
-        <v>1</v>
-      </c>
-      <c r="I106" t="n">
-        <v>941</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I106" t="inlineStr"/>
       <c r="J106" t="n">
         <v>939</v>
       </c>
@@ -4728,11 +4548,9 @@
         <v>11797.6114</v>
       </c>
       <c r="H107" t="n">
-        <v>1</v>
-      </c>
-      <c r="I107" t="n">
-        <v>939</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I107" t="inlineStr"/>
       <c r="J107" t="n">
         <v>939</v>
       </c>
@@ -4769,11 +4587,9 @@
         <v>11797.6114</v>
       </c>
       <c r="H108" t="n">
-        <v>1</v>
-      </c>
-      <c r="I108" t="n">
-        <v>941</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I108" t="inlineStr"/>
       <c r="J108" t="n">
         <v>939</v>
       </c>
@@ -4810,11 +4626,9 @@
         <v>12130.6114</v>
       </c>
       <c r="H109" t="n">
-        <v>1</v>
-      </c>
-      <c r="I109" t="n">
-        <v>941</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I109" t="inlineStr"/>
       <c r="J109" t="n">
         <v>939</v>
       </c>
@@ -4851,11 +4665,9 @@
         <v>12130.6114</v>
       </c>
       <c r="H110" t="n">
-        <v>1</v>
-      </c>
-      <c r="I110" t="n">
-        <v>943</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I110" t="inlineStr"/>
       <c r="J110" t="n">
         <v>939</v>
       </c>
@@ -4892,11 +4704,9 @@
         <v>12330.6114</v>
       </c>
       <c r="H111" t="n">
-        <v>1</v>
-      </c>
-      <c r="I111" t="n">
-        <v>943</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I111" t="inlineStr"/>
       <c r="J111" t="n">
         <v>939</v>
       </c>
@@ -11602,7 +11412,7 @@
         <v>23169.002</v>
       </c>
       <c r="H283" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="n">
@@ -11610,11 +11420,11 @@
       </c>
       <c r="K283" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="L283" t="n">
-        <v>1</v>
+        <v>1.016299254526092</v>
       </c>
       <c r="M283" t="inlineStr"/>
     </row>
@@ -11641,17 +11451,11 @@
         <v>23468.002</v>
       </c>
       <c r="H284" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I284" t="inlineStr"/>
-      <c r="J284" t="n">
-        <v>939</v>
-      </c>
-      <c r="K284" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J284" t="inlineStr"/>
+      <c r="K284" t="inlineStr"/>
       <c r="L284" t="n">
         <v>1</v>
       </c>
@@ -11680,17 +11484,11 @@
         <v>23468.002</v>
       </c>
       <c r="H285" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I285" t="inlineStr"/>
-      <c r="J285" t="n">
-        <v>939</v>
-      </c>
-      <c r="K285" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J285" t="inlineStr"/>
+      <c r="K285" t="inlineStr"/>
       <c r="L285" t="n">
         <v>1</v>
       </c>
@@ -11719,17 +11517,11 @@
         <v>23451.602</v>
       </c>
       <c r="H286" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I286" t="inlineStr"/>
-      <c r="J286" t="n">
-        <v>939</v>
-      </c>
-      <c r="K286" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J286" t="inlineStr"/>
+      <c r="K286" t="inlineStr"/>
       <c r="L286" t="n">
         <v>1</v>
       </c>
@@ -11758,17 +11550,11 @@
         <v>23438.90199999999</v>
       </c>
       <c r="H287" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I287" t="inlineStr"/>
-      <c r="J287" t="n">
-        <v>939</v>
-      </c>
-      <c r="K287" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J287" t="inlineStr"/>
+      <c r="K287" t="inlineStr"/>
       <c r="L287" t="n">
         <v>1</v>
       </c>
@@ -11797,19 +11583,11 @@
         <v>24238.90199999999</v>
       </c>
       <c r="H288" t="n">
-        <v>1</v>
-      </c>
-      <c r="I288" t="n">
-        <v>957</v>
-      </c>
-      <c r="J288" t="n">
-        <v>939</v>
-      </c>
-      <c r="K288" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I288" t="inlineStr"/>
+      <c r="J288" t="inlineStr"/>
+      <c r="K288" t="inlineStr"/>
       <c r="L288" t="n">
         <v>1</v>
       </c>
@@ -11838,19 +11616,11 @@
         <v>24238.90199999999</v>
       </c>
       <c r="H289" t="n">
-        <v>1</v>
-      </c>
-      <c r="I289" t="n">
-        <v>959</v>
-      </c>
-      <c r="J289" t="n">
-        <v>939</v>
-      </c>
-      <c r="K289" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I289" t="inlineStr"/>
+      <c r="J289" t="inlineStr"/>
+      <c r="K289" t="inlineStr"/>
       <c r="L289" t="n">
         <v>1</v>
       </c>
@@ -11879,17 +11649,11 @@
         <v>25109.90199999999</v>
       </c>
       <c r="H290" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I290" t="inlineStr"/>
-      <c r="J290" t="n">
-        <v>939</v>
-      </c>
-      <c r="K290" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J290" t="inlineStr"/>
+      <c r="K290" t="inlineStr"/>
       <c r="L290" t="n">
         <v>1</v>
       </c>
@@ -11918,17 +11682,11 @@
         <v>25076.602</v>
       </c>
       <c r="H291" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I291" t="inlineStr"/>
-      <c r="J291" t="n">
-        <v>939</v>
-      </c>
-      <c r="K291" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J291" t="inlineStr"/>
+      <c r="K291" t="inlineStr"/>
       <c r="L291" t="n">
         <v>1</v>
       </c>
@@ -11957,17 +11715,11 @@
         <v>25064.602</v>
       </c>
       <c r="H292" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I292" t="inlineStr"/>
-      <c r="J292" t="n">
-        <v>939</v>
-      </c>
-      <c r="K292" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J292" t="inlineStr"/>
+      <c r="K292" t="inlineStr"/>
       <c r="L292" t="n">
         <v>1</v>
       </c>
@@ -11996,17 +11748,11 @@
         <v>25056.802</v>
       </c>
       <c r="H293" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I293" t="inlineStr"/>
-      <c r="J293" t="n">
-        <v>939</v>
-      </c>
-      <c r="K293" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J293" t="inlineStr"/>
+      <c r="K293" t="inlineStr"/>
       <c r="L293" t="n">
         <v>1</v>
       </c>
@@ -12035,17 +11781,11 @@
         <v>25056.802</v>
       </c>
       <c r="H294" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I294" t="inlineStr"/>
-      <c r="J294" t="n">
-        <v>939</v>
-      </c>
-      <c r="K294" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J294" t="inlineStr"/>
+      <c r="K294" t="inlineStr"/>
       <c r="L294" t="n">
         <v>1</v>
       </c>
@@ -12074,19 +11814,11 @@
         <v>25801.702</v>
       </c>
       <c r="H295" t="n">
-        <v>1</v>
-      </c>
-      <c r="I295" t="n">
-        <v>955</v>
-      </c>
-      <c r="J295" t="n">
-        <v>939</v>
-      </c>
-      <c r="K295" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I295" t="inlineStr"/>
+      <c r="J295" t="inlineStr"/>
+      <c r="K295" t="inlineStr"/>
       <c r="L295" t="n">
         <v>1</v>
       </c>
@@ -12115,19 +11847,11 @@
         <v>25801.702</v>
       </c>
       <c r="H296" t="n">
-        <v>1</v>
-      </c>
-      <c r="I296" t="n">
-        <v>957</v>
-      </c>
-      <c r="J296" t="n">
-        <v>939</v>
-      </c>
-      <c r="K296" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I296" t="inlineStr"/>
+      <c r="J296" t="inlineStr"/>
+      <c r="K296" t="inlineStr"/>
       <c r="L296" t="n">
         <v>1</v>
       </c>
@@ -12156,17 +11880,11 @@
         <v>25801.702</v>
       </c>
       <c r="H297" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I297" t="inlineStr"/>
-      <c r="J297" t="n">
-        <v>939</v>
-      </c>
-      <c r="K297" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J297" t="inlineStr"/>
+      <c r="K297" t="inlineStr"/>
       <c r="L297" t="n">
         <v>1</v>
       </c>
@@ -12195,17 +11913,11 @@
         <v>25801.702</v>
       </c>
       <c r="H298" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I298" t="inlineStr"/>
-      <c r="J298" t="n">
-        <v>939</v>
-      </c>
-      <c r="K298" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J298" t="inlineStr"/>
+      <c r="K298" t="inlineStr"/>
       <c r="L298" t="n">
         <v>1</v>
       </c>
@@ -12237,14 +11949,8 @@
         <v>0</v>
       </c>
       <c r="I299" t="inlineStr"/>
-      <c r="J299" t="n">
-        <v>939</v>
-      </c>
-      <c r="K299" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J299" t="inlineStr"/>
+      <c r="K299" t="inlineStr"/>
       <c r="L299" t="n">
         <v>1</v>
       </c>
@@ -12276,14 +11982,8 @@
         <v>0</v>
       </c>
       <c r="I300" t="inlineStr"/>
-      <c r="J300" t="n">
-        <v>939</v>
-      </c>
-      <c r="K300" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J300" t="inlineStr"/>
+      <c r="K300" t="inlineStr"/>
       <c r="L300" t="n">
         <v>1</v>
       </c>
@@ -12315,14 +12015,8 @@
         <v>0</v>
       </c>
       <c r="I301" t="inlineStr"/>
-      <c r="J301" t="n">
-        <v>939</v>
-      </c>
-      <c r="K301" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J301" t="inlineStr"/>
+      <c r="K301" t="inlineStr"/>
       <c r="L301" t="n">
         <v>1</v>
       </c>
@@ -12354,14 +12048,8 @@
         <v>0</v>
       </c>
       <c r="I302" t="inlineStr"/>
-      <c r="J302" t="n">
-        <v>939</v>
-      </c>
-      <c r="K302" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J302" t="inlineStr"/>
+      <c r="K302" t="inlineStr"/>
       <c r="L302" t="n">
         <v>1</v>
       </c>
@@ -12393,14 +12081,8 @@
         <v>0</v>
       </c>
       <c r="I303" t="inlineStr"/>
-      <c r="J303" t="n">
-        <v>939</v>
-      </c>
-      <c r="K303" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J303" t="inlineStr"/>
+      <c r="K303" t="inlineStr"/>
       <c r="L303" t="n">
         <v>1</v>
       </c>
@@ -12432,14 +12114,8 @@
         <v>0</v>
       </c>
       <c r="I304" t="inlineStr"/>
-      <c r="J304" t="n">
-        <v>939</v>
-      </c>
-      <c r="K304" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J304" t="inlineStr"/>
+      <c r="K304" t="inlineStr"/>
       <c r="L304" t="n">
         <v>1</v>
       </c>
@@ -12471,14 +12147,8 @@
         <v>0</v>
       </c>
       <c r="I305" t="inlineStr"/>
-      <c r="J305" t="n">
-        <v>939</v>
-      </c>
-      <c r="K305" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J305" t="inlineStr"/>
+      <c r="K305" t="inlineStr"/>
       <c r="L305" t="n">
         <v>1</v>
       </c>
@@ -12510,14 +12180,8 @@
         <v>0</v>
       </c>
       <c r="I306" t="inlineStr"/>
-      <c r="J306" t="n">
-        <v>939</v>
-      </c>
-      <c r="K306" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J306" t="inlineStr"/>
+      <c r="K306" t="inlineStr"/>
       <c r="L306" t="n">
         <v>1</v>
       </c>
@@ -12549,14 +12213,8 @@
         <v>0</v>
       </c>
       <c r="I307" t="inlineStr"/>
-      <c r="J307" t="n">
-        <v>939</v>
-      </c>
-      <c r="K307" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J307" t="inlineStr"/>
+      <c r="K307" t="inlineStr"/>
       <c r="L307" t="n">
         <v>1</v>
       </c>
@@ -12588,14 +12246,8 @@
         <v>0</v>
       </c>
       <c r="I308" t="inlineStr"/>
-      <c r="J308" t="n">
-        <v>939</v>
-      </c>
-      <c r="K308" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J308" t="inlineStr"/>
+      <c r="K308" t="inlineStr"/>
       <c r="L308" t="n">
         <v>1</v>
       </c>
@@ -12627,14 +12279,8 @@
         <v>0</v>
       </c>
       <c r="I309" t="inlineStr"/>
-      <c r="J309" t="n">
-        <v>939</v>
-      </c>
-      <c r="K309" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J309" t="inlineStr"/>
+      <c r="K309" t="inlineStr"/>
       <c r="L309" t="n">
         <v>1</v>
       </c>
@@ -12666,14 +12312,8 @@
         <v>0</v>
       </c>
       <c r="I310" t="inlineStr"/>
-      <c r="J310" t="n">
-        <v>939</v>
-      </c>
-      <c r="K310" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J310" t="inlineStr"/>
+      <c r="K310" t="inlineStr"/>
       <c r="L310" t="n">
         <v>1</v>
       </c>
@@ -12705,14 +12345,8 @@
         <v>0</v>
       </c>
       <c r="I311" t="inlineStr"/>
-      <c r="J311" t="n">
-        <v>939</v>
-      </c>
-      <c r="K311" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J311" t="inlineStr"/>
+      <c r="K311" t="inlineStr"/>
       <c r="L311" t="n">
         <v>1</v>
       </c>
@@ -12744,14 +12378,8 @@
         <v>0</v>
       </c>
       <c r="I312" t="inlineStr"/>
-      <c r="J312" t="n">
-        <v>939</v>
-      </c>
-      <c r="K312" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J312" t="inlineStr"/>
+      <c r="K312" t="inlineStr"/>
       <c r="L312" t="n">
         <v>1</v>
       </c>
@@ -12783,14 +12411,8 @@
         <v>0</v>
       </c>
       <c r="I313" t="inlineStr"/>
-      <c r="J313" t="n">
-        <v>939</v>
-      </c>
-      <c r="K313" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J313" t="inlineStr"/>
+      <c r="K313" t="inlineStr"/>
       <c r="L313" t="n">
         <v>1</v>
       </c>
@@ -12822,14 +12444,8 @@
         <v>0</v>
       </c>
       <c r="I314" t="inlineStr"/>
-      <c r="J314" t="n">
-        <v>939</v>
-      </c>
-      <c r="K314" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J314" t="inlineStr"/>
+      <c r="K314" t="inlineStr"/>
       <c r="L314" t="n">
         <v>1</v>
       </c>
@@ -12861,14 +12477,8 @@
         <v>0</v>
       </c>
       <c r="I315" t="inlineStr"/>
-      <c r="J315" t="n">
-        <v>939</v>
-      </c>
-      <c r="K315" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J315" t="inlineStr"/>
+      <c r="K315" t="inlineStr"/>
       <c r="L315" t="n">
         <v>1</v>
       </c>
@@ -12900,14 +12510,8 @@
         <v>0</v>
       </c>
       <c r="I316" t="inlineStr"/>
-      <c r="J316" t="n">
-        <v>939</v>
-      </c>
-      <c r="K316" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J316" t="inlineStr"/>
+      <c r="K316" t="inlineStr"/>
       <c r="L316" t="n">
         <v>1</v>
       </c>
@@ -12939,14 +12543,8 @@
         <v>0</v>
       </c>
       <c r="I317" t="inlineStr"/>
-      <c r="J317" t="n">
-        <v>939</v>
-      </c>
-      <c r="K317" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J317" t="inlineStr"/>
+      <c r="K317" t="inlineStr"/>
       <c r="L317" t="n">
         <v>1</v>
       </c>
@@ -12978,14 +12576,8 @@
         <v>0</v>
       </c>
       <c r="I318" t="inlineStr"/>
-      <c r="J318" t="n">
-        <v>939</v>
-      </c>
-      <c r="K318" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J318" t="inlineStr"/>
+      <c r="K318" t="inlineStr"/>
       <c r="L318" t="n">
         <v>1</v>
       </c>
@@ -13017,14 +12609,8 @@
         <v>0</v>
       </c>
       <c r="I319" t="inlineStr"/>
-      <c r="J319" t="n">
-        <v>939</v>
-      </c>
-      <c r="K319" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J319" t="inlineStr"/>
+      <c r="K319" t="inlineStr"/>
       <c r="L319" t="n">
         <v>1</v>
       </c>
@@ -13056,14 +12642,8 @@
         <v>0</v>
       </c>
       <c r="I320" t="inlineStr"/>
-      <c r="J320" t="n">
-        <v>939</v>
-      </c>
-      <c r="K320" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J320" t="inlineStr"/>
+      <c r="K320" t="inlineStr"/>
       <c r="L320" t="n">
         <v>1</v>
       </c>
@@ -13095,14 +12675,8 @@
         <v>0</v>
       </c>
       <c r="I321" t="inlineStr"/>
-      <c r="J321" t="n">
-        <v>939</v>
-      </c>
-      <c r="K321" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J321" t="inlineStr"/>
+      <c r="K321" t="inlineStr"/>
       <c r="L321" t="n">
         <v>1</v>
       </c>
@@ -13134,14 +12708,8 @@
         <v>0</v>
       </c>
       <c r="I322" t="inlineStr"/>
-      <c r="J322" t="n">
-        <v>939</v>
-      </c>
-      <c r="K322" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J322" t="inlineStr"/>
+      <c r="K322" t="inlineStr"/>
       <c r="L322" t="n">
         <v>1</v>
       </c>
@@ -13173,14 +12741,8 @@
         <v>0</v>
       </c>
       <c r="I323" t="inlineStr"/>
-      <c r="J323" t="n">
-        <v>939</v>
-      </c>
-      <c r="K323" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J323" t="inlineStr"/>
+      <c r="K323" t="inlineStr"/>
       <c r="L323" t="n">
         <v>1</v>
       </c>
@@ -13212,14 +12774,8 @@
         <v>0</v>
       </c>
       <c r="I324" t="inlineStr"/>
-      <c r="J324" t="n">
-        <v>939</v>
-      </c>
-      <c r="K324" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J324" t="inlineStr"/>
+      <c r="K324" t="inlineStr"/>
       <c r="L324" t="n">
         <v>1</v>
       </c>
@@ -13251,14 +12807,8 @@
         <v>0</v>
       </c>
       <c r="I325" t="inlineStr"/>
-      <c r="J325" t="n">
-        <v>939</v>
-      </c>
-      <c r="K325" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J325" t="inlineStr"/>
+      <c r="K325" t="inlineStr"/>
       <c r="L325" t="n">
         <v>1</v>
       </c>
@@ -13290,14 +12840,8 @@
         <v>0</v>
       </c>
       <c r="I326" t="inlineStr"/>
-      <c r="J326" t="n">
-        <v>939</v>
-      </c>
-      <c r="K326" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J326" t="inlineStr"/>
+      <c r="K326" t="inlineStr"/>
       <c r="L326" t="n">
         <v>1</v>
       </c>
@@ -13329,14 +12873,8 @@
         <v>0</v>
       </c>
       <c r="I327" t="inlineStr"/>
-      <c r="J327" t="n">
-        <v>939</v>
-      </c>
-      <c r="K327" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J327" t="inlineStr"/>
+      <c r="K327" t="inlineStr"/>
       <c r="L327" t="n">
         <v>1</v>
       </c>
@@ -13368,14 +12906,8 @@
         <v>0</v>
       </c>
       <c r="I328" t="inlineStr"/>
-      <c r="J328" t="n">
-        <v>939</v>
-      </c>
-      <c r="K328" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J328" t="inlineStr"/>
+      <c r="K328" t="inlineStr"/>
       <c r="L328" t="n">
         <v>1</v>
       </c>
@@ -13407,14 +12939,8 @@
         <v>0</v>
       </c>
       <c r="I329" t="inlineStr"/>
-      <c r="J329" t="n">
-        <v>939</v>
-      </c>
-      <c r="K329" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J329" t="inlineStr"/>
+      <c r="K329" t="inlineStr"/>
       <c r="L329" t="n">
         <v>1</v>
       </c>
@@ -13446,14 +12972,8 @@
         <v>0</v>
       </c>
       <c r="I330" t="inlineStr"/>
-      <c r="J330" t="n">
-        <v>939</v>
-      </c>
-      <c r="K330" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J330" t="inlineStr"/>
+      <c r="K330" t="inlineStr"/>
       <c r="L330" t="n">
         <v>1</v>
       </c>
@@ -13485,14 +13005,8 @@
         <v>0</v>
       </c>
       <c r="I331" t="inlineStr"/>
-      <c r="J331" t="n">
-        <v>939</v>
-      </c>
-      <c r="K331" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J331" t="inlineStr"/>
+      <c r="K331" t="inlineStr"/>
       <c r="L331" t="n">
         <v>1</v>
       </c>
@@ -13524,14 +13038,8 @@
         <v>0</v>
       </c>
       <c r="I332" t="inlineStr"/>
-      <c r="J332" t="n">
-        <v>939</v>
-      </c>
-      <c r="K332" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J332" t="inlineStr"/>
+      <c r="K332" t="inlineStr"/>
       <c r="L332" t="n">
         <v>1</v>
       </c>
@@ -13563,14 +13071,8 @@
         <v>0</v>
       </c>
       <c r="I333" t="inlineStr"/>
-      <c r="J333" t="n">
-        <v>939</v>
-      </c>
-      <c r="K333" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J333" t="inlineStr"/>
+      <c r="K333" t="inlineStr"/>
       <c r="L333" t="n">
         <v>1</v>
       </c>
@@ -13602,14 +13104,8 @@
         <v>0</v>
       </c>
       <c r="I334" t="inlineStr"/>
-      <c r="J334" t="n">
-        <v>939</v>
-      </c>
-      <c r="K334" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J334" t="inlineStr"/>
+      <c r="K334" t="inlineStr"/>
       <c r="L334" t="n">
         <v>1</v>
       </c>
@@ -13641,14 +13137,8 @@
         <v>0</v>
       </c>
       <c r="I335" t="inlineStr"/>
-      <c r="J335" t="n">
-        <v>939</v>
-      </c>
-      <c r="K335" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J335" t="inlineStr"/>
+      <c r="K335" t="inlineStr"/>
       <c r="L335" t="n">
         <v>1</v>
       </c>
@@ -13680,14 +13170,8 @@
         <v>0</v>
       </c>
       <c r="I336" t="inlineStr"/>
-      <c r="J336" t="n">
-        <v>939</v>
-      </c>
-      <c r="K336" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J336" t="inlineStr"/>
+      <c r="K336" t="inlineStr"/>
       <c r="L336" t="n">
         <v>1</v>
       </c>
@@ -13719,14 +13203,8 @@
         <v>0</v>
       </c>
       <c r="I337" t="inlineStr"/>
-      <c r="J337" t="n">
-        <v>939</v>
-      </c>
-      <c r="K337" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J337" t="inlineStr"/>
+      <c r="K337" t="inlineStr"/>
       <c r="L337" t="n">
         <v>1</v>
       </c>
@@ -13758,14 +13236,8 @@
         <v>0</v>
       </c>
       <c r="I338" t="inlineStr"/>
-      <c r="J338" t="n">
-        <v>939</v>
-      </c>
-      <c r="K338" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J338" t="inlineStr"/>
+      <c r="K338" t="inlineStr"/>
       <c r="L338" t="n">
         <v>1</v>
       </c>
@@ -13797,14 +13269,8 @@
         <v>0</v>
       </c>
       <c r="I339" t="inlineStr"/>
-      <c r="J339" t="n">
-        <v>939</v>
-      </c>
-      <c r="K339" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J339" t="inlineStr"/>
+      <c r="K339" t="inlineStr"/>
       <c r="L339" t="n">
         <v>1</v>
       </c>
@@ -13836,14 +13302,8 @@
         <v>0</v>
       </c>
       <c r="I340" t="inlineStr"/>
-      <c r="J340" t="n">
-        <v>939</v>
-      </c>
-      <c r="K340" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J340" t="inlineStr"/>
+      <c r="K340" t="inlineStr"/>
       <c r="L340" t="n">
         <v>1</v>
       </c>
@@ -13875,14 +13335,8 @@
         <v>0</v>
       </c>
       <c r="I341" t="inlineStr"/>
-      <c r="J341" t="n">
-        <v>939</v>
-      </c>
-      <c r="K341" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J341" t="inlineStr"/>
+      <c r="K341" t="inlineStr"/>
       <c r="L341" t="n">
         <v>1</v>
       </c>
@@ -13914,14 +13368,8 @@
         <v>0</v>
       </c>
       <c r="I342" t="inlineStr"/>
-      <c r="J342" t="n">
-        <v>939</v>
-      </c>
-      <c r="K342" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J342" t="inlineStr"/>
+      <c r="K342" t="inlineStr"/>
       <c r="L342" t="n">
         <v>1</v>
       </c>
@@ -13953,14 +13401,8 @@
         <v>0</v>
       </c>
       <c r="I343" t="inlineStr"/>
-      <c r="J343" t="n">
-        <v>939</v>
-      </c>
-      <c r="K343" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J343" t="inlineStr"/>
+      <c r="K343" t="inlineStr"/>
       <c r="L343" t="n">
         <v>1</v>
       </c>
@@ -13992,14 +13434,8 @@
         <v>0</v>
       </c>
       <c r="I344" t="inlineStr"/>
-      <c r="J344" t="n">
-        <v>939</v>
-      </c>
-      <c r="K344" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J344" t="inlineStr"/>
+      <c r="K344" t="inlineStr"/>
       <c r="L344" t="n">
         <v>1</v>
       </c>
@@ -14031,14 +13467,8 @@
         <v>0</v>
       </c>
       <c r="I345" t="inlineStr"/>
-      <c r="J345" t="n">
-        <v>939</v>
-      </c>
-      <c r="K345" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J345" t="inlineStr"/>
+      <c r="K345" t="inlineStr"/>
       <c r="L345" t="n">
         <v>1</v>
       </c>
@@ -14070,14 +13500,8 @@
         <v>0</v>
       </c>
       <c r="I346" t="inlineStr"/>
-      <c r="J346" t="n">
-        <v>939</v>
-      </c>
-      <c r="K346" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J346" t="inlineStr"/>
+      <c r="K346" t="inlineStr"/>
       <c r="L346" t="n">
         <v>1</v>
       </c>
@@ -14109,14 +13533,8 @@
         <v>0</v>
       </c>
       <c r="I347" t="inlineStr"/>
-      <c r="J347" t="n">
-        <v>939</v>
-      </c>
-      <c r="K347" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J347" t="inlineStr"/>
+      <c r="K347" t="inlineStr"/>
       <c r="L347" t="n">
         <v>1</v>
       </c>
@@ -14148,14 +13566,8 @@
         <v>0</v>
       </c>
       <c r="I348" t="inlineStr"/>
-      <c r="J348" t="n">
-        <v>939</v>
-      </c>
-      <c r="K348" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J348" t="inlineStr"/>
+      <c r="K348" t="inlineStr"/>
       <c r="L348" t="n">
         <v>1</v>
       </c>
@@ -14187,14 +13599,8 @@
         <v>0</v>
       </c>
       <c r="I349" t="inlineStr"/>
-      <c r="J349" t="n">
-        <v>939</v>
-      </c>
-      <c r="K349" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J349" t="inlineStr"/>
+      <c r="K349" t="inlineStr"/>
       <c r="L349" t="n">
         <v>1</v>
       </c>
@@ -14226,14 +13632,8 @@
         <v>0</v>
       </c>
       <c r="I350" t="inlineStr"/>
-      <c r="J350" t="n">
-        <v>939</v>
-      </c>
-      <c r="K350" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J350" t="inlineStr"/>
+      <c r="K350" t="inlineStr"/>
       <c r="L350" t="n">
         <v>1</v>
       </c>
@@ -14265,14 +13665,8 @@
         <v>0</v>
       </c>
       <c r="I351" t="inlineStr"/>
-      <c r="J351" t="n">
-        <v>939</v>
-      </c>
-      <c r="K351" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J351" t="inlineStr"/>
+      <c r="K351" t="inlineStr"/>
       <c r="L351" t="n">
         <v>1</v>
       </c>
@@ -14304,14 +13698,8 @@
         <v>0</v>
       </c>
       <c r="I352" t="inlineStr"/>
-      <c r="J352" t="n">
-        <v>939</v>
-      </c>
-      <c r="K352" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J352" t="inlineStr"/>
+      <c r="K352" t="inlineStr"/>
       <c r="L352" t="n">
         <v>1</v>
       </c>
@@ -14343,14 +13731,8 @@
         <v>0</v>
       </c>
       <c r="I353" t="inlineStr"/>
-      <c r="J353" t="n">
-        <v>939</v>
-      </c>
-      <c r="K353" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J353" t="inlineStr"/>
+      <c r="K353" t="inlineStr"/>
       <c r="L353" t="n">
         <v>1</v>
       </c>
@@ -14382,14 +13764,8 @@
         <v>0</v>
       </c>
       <c r="I354" t="inlineStr"/>
-      <c r="J354" t="n">
-        <v>939</v>
-      </c>
-      <c r="K354" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J354" t="inlineStr"/>
+      <c r="K354" t="inlineStr"/>
       <c r="L354" t="n">
         <v>1</v>
       </c>
@@ -14421,14 +13797,8 @@
         <v>0</v>
       </c>
       <c r="I355" t="inlineStr"/>
-      <c r="J355" t="n">
-        <v>939</v>
-      </c>
-      <c r="K355" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J355" t="inlineStr"/>
+      <c r="K355" t="inlineStr"/>
       <c r="L355" t="n">
         <v>1</v>
       </c>
@@ -14460,14 +13830,8 @@
         <v>0</v>
       </c>
       <c r="I356" t="inlineStr"/>
-      <c r="J356" t="n">
-        <v>939</v>
-      </c>
-      <c r="K356" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J356" t="inlineStr"/>
+      <c r="K356" t="inlineStr"/>
       <c r="L356" t="n">
         <v>1</v>
       </c>
@@ -14499,14 +13863,8 @@
         <v>0</v>
       </c>
       <c r="I357" t="inlineStr"/>
-      <c r="J357" t="n">
-        <v>939</v>
-      </c>
-      <c r="K357" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J357" t="inlineStr"/>
+      <c r="K357" t="inlineStr"/>
       <c r="L357" t="n">
         <v>1</v>
       </c>
@@ -14538,14 +13896,8 @@
         <v>0</v>
       </c>
       <c r="I358" t="inlineStr"/>
-      <c r="J358" t="n">
-        <v>939</v>
-      </c>
-      <c r="K358" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J358" t="inlineStr"/>
+      <c r="K358" t="inlineStr"/>
       <c r="L358" t="n">
         <v>1</v>
       </c>
@@ -14577,14 +13929,8 @@
         <v>0</v>
       </c>
       <c r="I359" t="inlineStr"/>
-      <c r="J359" t="n">
-        <v>939</v>
-      </c>
-      <c r="K359" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J359" t="inlineStr"/>
+      <c r="K359" t="inlineStr"/>
       <c r="L359" t="n">
         <v>1</v>
       </c>
@@ -14616,14 +13962,8 @@
         <v>0</v>
       </c>
       <c r="I360" t="inlineStr"/>
-      <c r="J360" t="n">
-        <v>939</v>
-      </c>
-      <c r="K360" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J360" t="inlineStr"/>
+      <c r="K360" t="inlineStr"/>
       <c r="L360" t="n">
         <v>1</v>
       </c>
@@ -14655,14 +13995,8 @@
         <v>0</v>
       </c>
       <c r="I361" t="inlineStr"/>
-      <c r="J361" t="n">
-        <v>939</v>
-      </c>
-      <c r="K361" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J361" t="inlineStr"/>
+      <c r="K361" t="inlineStr"/>
       <c r="L361" t="n">
         <v>1</v>
       </c>
@@ -14694,14 +14028,8 @@
         <v>0</v>
       </c>
       <c r="I362" t="inlineStr"/>
-      <c r="J362" t="n">
-        <v>939</v>
-      </c>
-      <c r="K362" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J362" t="inlineStr"/>
+      <c r="K362" t="inlineStr"/>
       <c r="L362" t="n">
         <v>1</v>
       </c>
@@ -14733,14 +14061,8 @@
         <v>0</v>
       </c>
       <c r="I363" t="inlineStr"/>
-      <c r="J363" t="n">
-        <v>939</v>
-      </c>
-      <c r="K363" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J363" t="inlineStr"/>
+      <c r="K363" t="inlineStr"/>
       <c r="L363" t="n">
         <v>1</v>
       </c>
@@ -14772,14 +14094,8 @@
         <v>0</v>
       </c>
       <c r="I364" t="inlineStr"/>
-      <c r="J364" t="n">
-        <v>939</v>
-      </c>
-      <c r="K364" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J364" t="inlineStr"/>
+      <c r="K364" t="inlineStr"/>
       <c r="L364" t="n">
         <v>1</v>
       </c>
@@ -14811,14 +14127,8 @@
         <v>0</v>
       </c>
       <c r="I365" t="inlineStr"/>
-      <c r="J365" t="n">
-        <v>939</v>
-      </c>
-      <c r="K365" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J365" t="inlineStr"/>
+      <c r="K365" t="inlineStr"/>
       <c r="L365" t="n">
         <v>1</v>
       </c>
@@ -14850,14 +14160,8 @@
         <v>0</v>
       </c>
       <c r="I366" t="inlineStr"/>
-      <c r="J366" t="n">
-        <v>939</v>
-      </c>
-      <c r="K366" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J366" t="inlineStr"/>
+      <c r="K366" t="inlineStr"/>
       <c r="L366" t="n">
         <v>1</v>
       </c>
@@ -14889,14 +14193,8 @@
         <v>0</v>
       </c>
       <c r="I367" t="inlineStr"/>
-      <c r="J367" t="n">
-        <v>939</v>
-      </c>
-      <c r="K367" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J367" t="inlineStr"/>
+      <c r="K367" t="inlineStr"/>
       <c r="L367" t="n">
         <v>1</v>
       </c>
@@ -14928,14 +14226,8 @@
         <v>0</v>
       </c>
       <c r="I368" t="inlineStr"/>
-      <c r="J368" t="n">
-        <v>939</v>
-      </c>
-      <c r="K368" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J368" t="inlineStr"/>
+      <c r="K368" t="inlineStr"/>
       <c r="L368" t="n">
         <v>1</v>
       </c>
@@ -14967,14 +14259,8 @@
         <v>0</v>
       </c>
       <c r="I369" t="inlineStr"/>
-      <c r="J369" t="n">
-        <v>939</v>
-      </c>
-      <c r="K369" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J369" t="inlineStr"/>
+      <c r="K369" t="inlineStr"/>
       <c r="L369" t="n">
         <v>1</v>
       </c>
@@ -15006,14 +14292,8 @@
         <v>0</v>
       </c>
       <c r="I370" t="inlineStr"/>
-      <c r="J370" t="n">
-        <v>939</v>
-      </c>
-      <c r="K370" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J370" t="inlineStr"/>
+      <c r="K370" t="inlineStr"/>
       <c r="L370" t="n">
         <v>1</v>
       </c>
@@ -15045,14 +14325,8 @@
         <v>0</v>
       </c>
       <c r="I371" t="inlineStr"/>
-      <c r="J371" t="n">
-        <v>939</v>
-      </c>
-      <c r="K371" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J371" t="inlineStr"/>
+      <c r="K371" t="inlineStr"/>
       <c r="L371" t="n">
         <v>1</v>
       </c>
@@ -15084,14 +14358,8 @@
         <v>0</v>
       </c>
       <c r="I372" t="inlineStr"/>
-      <c r="J372" t="n">
-        <v>939</v>
-      </c>
-      <c r="K372" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J372" t="inlineStr"/>
+      <c r="K372" t="inlineStr"/>
       <c r="L372" t="n">
         <v>1</v>
       </c>
@@ -15123,14 +14391,8 @@
         <v>0</v>
       </c>
       <c r="I373" t="inlineStr"/>
-      <c r="J373" t="n">
-        <v>939</v>
-      </c>
-      <c r="K373" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J373" t="inlineStr"/>
+      <c r="K373" t="inlineStr"/>
       <c r="L373" t="n">
         <v>1</v>
       </c>
@@ -15162,14 +14424,8 @@
         <v>0</v>
       </c>
       <c r="I374" t="inlineStr"/>
-      <c r="J374" t="n">
-        <v>939</v>
-      </c>
-      <c r="K374" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J374" t="inlineStr"/>
+      <c r="K374" t="inlineStr"/>
       <c r="L374" t="n">
         <v>1</v>
       </c>
@@ -15201,14 +14457,8 @@
         <v>0</v>
       </c>
       <c r="I375" t="inlineStr"/>
-      <c r="J375" t="n">
-        <v>939</v>
-      </c>
-      <c r="K375" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J375" t="inlineStr"/>
+      <c r="K375" t="inlineStr"/>
       <c r="L375" t="n">
         <v>1</v>
       </c>
@@ -15240,14 +14490,8 @@
         <v>0</v>
       </c>
       <c r="I376" t="inlineStr"/>
-      <c r="J376" t="n">
-        <v>939</v>
-      </c>
-      <c r="K376" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J376" t="inlineStr"/>
+      <c r="K376" t="inlineStr"/>
       <c r="L376" t="n">
         <v>1</v>
       </c>
@@ -15279,14 +14523,8 @@
         <v>0</v>
       </c>
       <c r="I377" t="inlineStr"/>
-      <c r="J377" t="n">
-        <v>939</v>
-      </c>
-      <c r="K377" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J377" t="inlineStr"/>
+      <c r="K377" t="inlineStr"/>
       <c r="L377" t="n">
         <v>1</v>
       </c>
@@ -15318,14 +14556,8 @@
         <v>0</v>
       </c>
       <c r="I378" t="inlineStr"/>
-      <c r="J378" t="n">
-        <v>939</v>
-      </c>
-      <c r="K378" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J378" t="inlineStr"/>
+      <c r="K378" t="inlineStr"/>
       <c r="L378" t="n">
         <v>1</v>
       </c>
@@ -15357,14 +14589,8 @@
         <v>0</v>
       </c>
       <c r="I379" t="inlineStr"/>
-      <c r="J379" t="n">
-        <v>939</v>
-      </c>
-      <c r="K379" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J379" t="inlineStr"/>
+      <c r="K379" t="inlineStr"/>
       <c r="L379" t="n">
         <v>1</v>
       </c>
@@ -15396,14 +14622,8 @@
         <v>0</v>
       </c>
       <c r="I380" t="inlineStr"/>
-      <c r="J380" t="n">
-        <v>939</v>
-      </c>
-      <c r="K380" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J380" t="inlineStr"/>
+      <c r="K380" t="inlineStr"/>
       <c r="L380" t="n">
         <v>1</v>
       </c>
@@ -15435,14 +14655,8 @@
         <v>0</v>
       </c>
       <c r="I381" t="inlineStr"/>
-      <c r="J381" t="n">
-        <v>939</v>
-      </c>
-      <c r="K381" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J381" t="inlineStr"/>
+      <c r="K381" t="inlineStr"/>
       <c r="L381" t="n">
         <v>1</v>
       </c>
@@ -15474,14 +14688,8 @@
         <v>0</v>
       </c>
       <c r="I382" t="inlineStr"/>
-      <c r="J382" t="n">
-        <v>939</v>
-      </c>
-      <c r="K382" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J382" t="inlineStr"/>
+      <c r="K382" t="inlineStr"/>
       <c r="L382" t="n">
         <v>1</v>
       </c>
@@ -15513,14 +14721,8 @@
         <v>0</v>
       </c>
       <c r="I383" t="inlineStr"/>
-      <c r="J383" t="n">
-        <v>939</v>
-      </c>
-      <c r="K383" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J383" t="inlineStr"/>
+      <c r="K383" t="inlineStr"/>
       <c r="L383" t="n">
         <v>1</v>
       </c>
@@ -15552,14 +14754,8 @@
         <v>0</v>
       </c>
       <c r="I384" t="inlineStr"/>
-      <c r="J384" t="n">
-        <v>939</v>
-      </c>
-      <c r="K384" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J384" t="inlineStr"/>
+      <c r="K384" t="inlineStr"/>
       <c r="L384" t="n">
         <v>1</v>
       </c>
@@ -15591,14 +14787,8 @@
         <v>0</v>
       </c>
       <c r="I385" t="inlineStr"/>
-      <c r="J385" t="n">
-        <v>939</v>
-      </c>
-      <c r="K385" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J385" t="inlineStr"/>
+      <c r="K385" t="inlineStr"/>
       <c r="L385" t="n">
         <v>1</v>
       </c>
@@ -15630,14 +14820,8 @@
         <v>0</v>
       </c>
       <c r="I386" t="inlineStr"/>
-      <c r="J386" t="n">
-        <v>939</v>
-      </c>
-      <c r="K386" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J386" t="inlineStr"/>
+      <c r="K386" t="inlineStr"/>
       <c r="L386" t="n">
         <v>1</v>
       </c>
@@ -15669,14 +14853,8 @@
         <v>0</v>
       </c>
       <c r="I387" t="inlineStr"/>
-      <c r="J387" t="n">
-        <v>939</v>
-      </c>
-      <c r="K387" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J387" t="inlineStr"/>
+      <c r="K387" t="inlineStr"/>
       <c r="L387" t="n">
         <v>1</v>
       </c>
@@ -15708,14 +14886,8 @@
         <v>0</v>
       </c>
       <c r="I388" t="inlineStr"/>
-      <c r="J388" t="n">
-        <v>939</v>
-      </c>
-      <c r="K388" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J388" t="inlineStr"/>
+      <c r="K388" t="inlineStr"/>
       <c r="L388" t="n">
         <v>1</v>
       </c>
@@ -15747,14 +14919,8 @@
         <v>0</v>
       </c>
       <c r="I389" t="inlineStr"/>
-      <c r="J389" t="n">
-        <v>939</v>
-      </c>
-      <c r="K389" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J389" t="inlineStr"/>
+      <c r="K389" t="inlineStr"/>
       <c r="L389" t="n">
         <v>1</v>
       </c>
@@ -15786,14 +14952,8 @@
         <v>0</v>
       </c>
       <c r="I390" t="inlineStr"/>
-      <c r="J390" t="n">
-        <v>939</v>
-      </c>
-      <c r="K390" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J390" t="inlineStr"/>
+      <c r="K390" t="inlineStr"/>
       <c r="L390" t="n">
         <v>1</v>
       </c>
@@ -15825,14 +14985,8 @@
         <v>0</v>
       </c>
       <c r="I391" t="inlineStr"/>
-      <c r="J391" t="n">
-        <v>939</v>
-      </c>
-      <c r="K391" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J391" t="inlineStr"/>
+      <c r="K391" t="inlineStr"/>
       <c r="L391" t="n">
         <v>1</v>
       </c>
@@ -15864,14 +15018,8 @@
         <v>0</v>
       </c>
       <c r="I392" t="inlineStr"/>
-      <c r="J392" t="n">
-        <v>939</v>
-      </c>
-      <c r="K392" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J392" t="inlineStr"/>
+      <c r="K392" t="inlineStr"/>
       <c r="L392" t="n">
         <v>1</v>
       </c>
@@ -15903,14 +15051,8 @@
         <v>0</v>
       </c>
       <c r="I393" t="inlineStr"/>
-      <c r="J393" t="n">
-        <v>939</v>
-      </c>
-      <c r="K393" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J393" t="inlineStr"/>
+      <c r="K393" t="inlineStr"/>
       <c r="L393" t="n">
         <v>1</v>
       </c>
@@ -15942,14 +15084,8 @@
         <v>0</v>
       </c>
       <c r="I394" t="inlineStr"/>
-      <c r="J394" t="n">
-        <v>939</v>
-      </c>
-      <c r="K394" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J394" t="inlineStr"/>
+      <c r="K394" t="inlineStr"/>
       <c r="L394" t="n">
         <v>1</v>
       </c>
@@ -15981,14 +15117,8 @@
         <v>0</v>
       </c>
       <c r="I395" t="inlineStr"/>
-      <c r="J395" t="n">
-        <v>939</v>
-      </c>
-      <c r="K395" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J395" t="inlineStr"/>
+      <c r="K395" t="inlineStr"/>
       <c r="L395" t="n">
         <v>1</v>
       </c>
@@ -16020,14 +15150,8 @@
         <v>0</v>
       </c>
       <c r="I396" t="inlineStr"/>
-      <c r="J396" t="n">
-        <v>939</v>
-      </c>
-      <c r="K396" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J396" t="inlineStr"/>
+      <c r="K396" t="inlineStr"/>
       <c r="L396" t="n">
         <v>1</v>
       </c>
@@ -16059,14 +15183,8 @@
         <v>0</v>
       </c>
       <c r="I397" t="inlineStr"/>
-      <c r="J397" t="n">
-        <v>939</v>
-      </c>
-      <c r="K397" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J397" t="inlineStr"/>
+      <c r="K397" t="inlineStr"/>
       <c r="L397" t="n">
         <v>1</v>
       </c>
@@ -16098,14 +15216,8 @@
         <v>0</v>
       </c>
       <c r="I398" t="inlineStr"/>
-      <c r="J398" t="n">
-        <v>939</v>
-      </c>
-      <c r="K398" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J398" t="inlineStr"/>
+      <c r="K398" t="inlineStr"/>
       <c r="L398" t="n">
         <v>1</v>
       </c>
@@ -16137,14 +15249,8 @@
         <v>0</v>
       </c>
       <c r="I399" t="inlineStr"/>
-      <c r="J399" t="n">
-        <v>939</v>
-      </c>
-      <c r="K399" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J399" t="inlineStr"/>
+      <c r="K399" t="inlineStr"/>
       <c r="L399" t="n">
         <v>1</v>
       </c>
@@ -16176,14 +15282,8 @@
         <v>0</v>
       </c>
       <c r="I400" t="inlineStr"/>
-      <c r="J400" t="n">
-        <v>939</v>
-      </c>
-      <c r="K400" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J400" t="inlineStr"/>
+      <c r="K400" t="inlineStr"/>
       <c r="L400" t="n">
         <v>1</v>
       </c>
@@ -16215,14 +15315,8 @@
         <v>0</v>
       </c>
       <c r="I401" t="inlineStr"/>
-      <c r="J401" t="n">
-        <v>939</v>
-      </c>
-      <c r="K401" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J401" t="inlineStr"/>
+      <c r="K401" t="inlineStr"/>
       <c r="L401" t="n">
         <v>1</v>
       </c>
@@ -16254,14 +15348,8 @@
         <v>0</v>
       </c>
       <c r="I402" t="inlineStr"/>
-      <c r="J402" t="n">
-        <v>939</v>
-      </c>
-      <c r="K402" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J402" t="inlineStr"/>
+      <c r="K402" t="inlineStr"/>
       <c r="L402" t="n">
         <v>1</v>
       </c>
@@ -16293,14 +15381,8 @@
         <v>0</v>
       </c>
       <c r="I403" t="inlineStr"/>
-      <c r="J403" t="n">
-        <v>939</v>
-      </c>
-      <c r="K403" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J403" t="inlineStr"/>
+      <c r="K403" t="inlineStr"/>
       <c r="L403" t="n">
         <v>1</v>
       </c>
@@ -16332,14 +15414,8 @@
         <v>0</v>
       </c>
       <c r="I404" t="inlineStr"/>
-      <c r="J404" t="n">
-        <v>939</v>
-      </c>
-      <c r="K404" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J404" t="inlineStr"/>
+      <c r="K404" t="inlineStr"/>
       <c r="L404" t="n">
         <v>1</v>
       </c>
@@ -16371,14 +15447,8 @@
         <v>0</v>
       </c>
       <c r="I405" t="inlineStr"/>
-      <c r="J405" t="n">
-        <v>939</v>
-      </c>
-      <c r="K405" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J405" t="inlineStr"/>
+      <c r="K405" t="inlineStr"/>
       <c r="L405" t="n">
         <v>1</v>
       </c>
@@ -16410,14 +15480,8 @@
         <v>0</v>
       </c>
       <c r="I406" t="inlineStr"/>
-      <c r="J406" t="n">
-        <v>939</v>
-      </c>
-      <c r="K406" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J406" t="inlineStr"/>
+      <c r="K406" t="inlineStr"/>
       <c r="L406" t="n">
         <v>1</v>
       </c>
@@ -16449,14 +15513,8 @@
         <v>0</v>
       </c>
       <c r="I407" t="inlineStr"/>
-      <c r="J407" t="n">
-        <v>939</v>
-      </c>
-      <c r="K407" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J407" t="inlineStr"/>
+      <c r="K407" t="inlineStr"/>
       <c r="L407" t="n">
         <v>1</v>
       </c>
@@ -16488,14 +15546,8 @@
         <v>0</v>
       </c>
       <c r="I408" t="inlineStr"/>
-      <c r="J408" t="n">
-        <v>939</v>
-      </c>
-      <c r="K408" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J408" t="inlineStr"/>
+      <c r="K408" t="inlineStr"/>
       <c r="L408" t="n">
         <v>1</v>
       </c>
@@ -16527,14 +15579,8 @@
         <v>0</v>
       </c>
       <c r="I409" t="inlineStr"/>
-      <c r="J409" t="n">
-        <v>939</v>
-      </c>
-      <c r="K409" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J409" t="inlineStr"/>
+      <c r="K409" t="inlineStr"/>
       <c r="L409" t="n">
         <v>1</v>
       </c>
@@ -16566,14 +15612,8 @@
         <v>0</v>
       </c>
       <c r="I410" t="inlineStr"/>
-      <c r="J410" t="n">
-        <v>939</v>
-      </c>
-      <c r="K410" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J410" t="inlineStr"/>
+      <c r="K410" t="inlineStr"/>
       <c r="L410" t="n">
         <v>1</v>
       </c>
@@ -16605,14 +15645,8 @@
         <v>0</v>
       </c>
       <c r="I411" t="inlineStr"/>
-      <c r="J411" t="n">
-        <v>939</v>
-      </c>
-      <c r="K411" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J411" t="inlineStr"/>
+      <c r="K411" t="inlineStr"/>
       <c r="L411" t="n">
         <v>1</v>
       </c>
@@ -16644,14 +15678,8 @@
         <v>0</v>
       </c>
       <c r="I412" t="inlineStr"/>
-      <c r="J412" t="n">
-        <v>939</v>
-      </c>
-      <c r="K412" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J412" t="inlineStr"/>
+      <c r="K412" t="inlineStr"/>
       <c r="L412" t="n">
         <v>1</v>
       </c>
@@ -16683,14 +15711,8 @@
         <v>0</v>
       </c>
       <c r="I413" t="inlineStr"/>
-      <c r="J413" t="n">
-        <v>939</v>
-      </c>
-      <c r="K413" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J413" t="inlineStr"/>
+      <c r="K413" t="inlineStr"/>
       <c r="L413" t="n">
         <v>1</v>
       </c>
@@ -16722,14 +15744,8 @@
         <v>0</v>
       </c>
       <c r="I414" t="inlineStr"/>
-      <c r="J414" t="n">
-        <v>939</v>
-      </c>
-      <c r="K414" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J414" t="inlineStr"/>
+      <c r="K414" t="inlineStr"/>
       <c r="L414" t="n">
         <v>1</v>
       </c>
@@ -16761,14 +15777,8 @@
         <v>0</v>
       </c>
       <c r="I415" t="inlineStr"/>
-      <c r="J415" t="n">
-        <v>939</v>
-      </c>
-      <c r="K415" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J415" t="inlineStr"/>
+      <c r="K415" t="inlineStr"/>
       <c r="L415" t="n">
         <v>1</v>
       </c>
@@ -16800,14 +15810,8 @@
         <v>0</v>
       </c>
       <c r="I416" t="inlineStr"/>
-      <c r="J416" t="n">
-        <v>939</v>
-      </c>
-      <c r="K416" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J416" t="inlineStr"/>
+      <c r="K416" t="inlineStr"/>
       <c r="L416" t="n">
         <v>1</v>
       </c>
@@ -16839,14 +15843,8 @@
         <v>0</v>
       </c>
       <c r="I417" t="inlineStr"/>
-      <c r="J417" t="n">
-        <v>939</v>
-      </c>
-      <c r="K417" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J417" t="inlineStr"/>
+      <c r="K417" t="inlineStr"/>
       <c r="L417" t="n">
         <v>1</v>
       </c>
@@ -16878,14 +15876,8 @@
         <v>0</v>
       </c>
       <c r="I418" t="inlineStr"/>
-      <c r="J418" t="n">
-        <v>939</v>
-      </c>
-      <c r="K418" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J418" t="inlineStr"/>
+      <c r="K418" t="inlineStr"/>
       <c r="L418" t="n">
         <v>1</v>
       </c>
@@ -16917,14 +15909,8 @@
         <v>0</v>
       </c>
       <c r="I419" t="inlineStr"/>
-      <c r="J419" t="n">
-        <v>939</v>
-      </c>
-      <c r="K419" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J419" t="inlineStr"/>
+      <c r="K419" t="inlineStr"/>
       <c r="L419" t="n">
         <v>1</v>
       </c>
@@ -16956,14 +15942,8 @@
         <v>0</v>
       </c>
       <c r="I420" t="inlineStr"/>
-      <c r="J420" t="n">
-        <v>939</v>
-      </c>
-      <c r="K420" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J420" t="inlineStr"/>
+      <c r="K420" t="inlineStr"/>
       <c r="L420" t="n">
         <v>1</v>
       </c>
@@ -16995,14 +15975,8 @@
         <v>0</v>
       </c>
       <c r="I421" t="inlineStr"/>
-      <c r="J421" t="n">
-        <v>939</v>
-      </c>
-      <c r="K421" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J421" t="inlineStr"/>
+      <c r="K421" t="inlineStr"/>
       <c r="L421" t="n">
         <v>1</v>
       </c>
@@ -17034,14 +16008,8 @@
         <v>0</v>
       </c>
       <c r="I422" t="inlineStr"/>
-      <c r="J422" t="n">
-        <v>939</v>
-      </c>
-      <c r="K422" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J422" t="inlineStr"/>
+      <c r="K422" t="inlineStr"/>
       <c r="L422" t="n">
         <v>1</v>
       </c>
@@ -17073,14 +16041,8 @@
         <v>0</v>
       </c>
       <c r="I423" t="inlineStr"/>
-      <c r="J423" t="n">
-        <v>939</v>
-      </c>
-      <c r="K423" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J423" t="inlineStr"/>
+      <c r="K423" t="inlineStr"/>
       <c r="L423" t="n">
         <v>1</v>
       </c>
@@ -17112,14 +16074,8 @@
         <v>0</v>
       </c>
       <c r="I424" t="inlineStr"/>
-      <c r="J424" t="n">
-        <v>939</v>
-      </c>
-      <c r="K424" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J424" t="inlineStr"/>
+      <c r="K424" t="inlineStr"/>
       <c r="L424" t="n">
         <v>1</v>
       </c>
@@ -17151,14 +16107,8 @@
         <v>0</v>
       </c>
       <c r="I425" t="inlineStr"/>
-      <c r="J425" t="n">
-        <v>939</v>
-      </c>
-      <c r="K425" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J425" t="inlineStr"/>
+      <c r="K425" t="inlineStr"/>
       <c r="L425" t="n">
         <v>1</v>
       </c>
@@ -17190,14 +16140,8 @@
         <v>0</v>
       </c>
       <c r="I426" t="inlineStr"/>
-      <c r="J426" t="n">
-        <v>939</v>
-      </c>
-      <c r="K426" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J426" t="inlineStr"/>
+      <c r="K426" t="inlineStr"/>
       <c r="L426" t="n">
         <v>1</v>
       </c>
@@ -17229,14 +16173,8 @@
         <v>0</v>
       </c>
       <c r="I427" t="inlineStr"/>
-      <c r="J427" t="n">
-        <v>939</v>
-      </c>
-      <c r="K427" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J427" t="inlineStr"/>
+      <c r="K427" t="inlineStr"/>
       <c r="L427" t="n">
         <v>1</v>
       </c>
@@ -17268,14 +16206,8 @@
         <v>0</v>
       </c>
       <c r="I428" t="inlineStr"/>
-      <c r="J428" t="n">
-        <v>939</v>
-      </c>
-      <c r="K428" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J428" t="inlineStr"/>
+      <c r="K428" t="inlineStr"/>
       <c r="L428" t="n">
         <v>1</v>
       </c>
@@ -17307,14 +16239,8 @@
         <v>0</v>
       </c>
       <c r="I429" t="inlineStr"/>
-      <c r="J429" t="n">
-        <v>939</v>
-      </c>
-      <c r="K429" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J429" t="inlineStr"/>
+      <c r="K429" t="inlineStr"/>
       <c r="L429" t="n">
         <v>1</v>
       </c>
@@ -17346,14 +16272,8 @@
         <v>0</v>
       </c>
       <c r="I430" t="inlineStr"/>
-      <c r="J430" t="n">
-        <v>939</v>
-      </c>
-      <c r="K430" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J430" t="inlineStr"/>
+      <c r="K430" t="inlineStr"/>
       <c r="L430" t="n">
         <v>1</v>
       </c>
@@ -17385,14 +16305,8 @@
         <v>0</v>
       </c>
       <c r="I431" t="inlineStr"/>
-      <c r="J431" t="n">
-        <v>939</v>
-      </c>
-      <c r="K431" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J431" t="inlineStr"/>
+      <c r="K431" t="inlineStr"/>
       <c r="L431" t="n">
         <v>1</v>
       </c>
@@ -17424,14 +16338,8 @@
         <v>0</v>
       </c>
       <c r="I432" t="inlineStr"/>
-      <c r="J432" t="n">
-        <v>939</v>
-      </c>
-      <c r="K432" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J432" t="inlineStr"/>
+      <c r="K432" t="inlineStr"/>
       <c r="L432" t="n">
         <v>1</v>
       </c>
@@ -17463,14 +16371,8 @@
         <v>0</v>
       </c>
       <c r="I433" t="inlineStr"/>
-      <c r="J433" t="n">
-        <v>939</v>
-      </c>
-      <c r="K433" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J433" t="inlineStr"/>
+      <c r="K433" t="inlineStr"/>
       <c r="L433" t="n">
         <v>1</v>
       </c>
@@ -17502,14 +16404,8 @@
         <v>0</v>
       </c>
       <c r="I434" t="inlineStr"/>
-      <c r="J434" t="n">
-        <v>939</v>
-      </c>
-      <c r="K434" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J434" t="inlineStr"/>
+      <c r="K434" t="inlineStr"/>
       <c r="L434" t="n">
         <v>1</v>
       </c>
@@ -17541,14 +16437,8 @@
         <v>0</v>
       </c>
       <c r="I435" t="inlineStr"/>
-      <c r="J435" t="n">
-        <v>939</v>
-      </c>
-      <c r="K435" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J435" t="inlineStr"/>
+      <c r="K435" t="inlineStr"/>
       <c r="L435" t="n">
         <v>1</v>
       </c>
@@ -17580,14 +16470,8 @@
         <v>0</v>
       </c>
       <c r="I436" t="inlineStr"/>
-      <c r="J436" t="n">
-        <v>939</v>
-      </c>
-      <c r="K436" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J436" t="inlineStr"/>
+      <c r="K436" t="inlineStr"/>
       <c r="L436" t="n">
         <v>1</v>
       </c>
@@ -17616,19 +16500,13 @@
         <v>40258.20788045001</v>
       </c>
       <c r="H437" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I437" t="inlineStr"/>
-      <c r="J437" t="n">
-        <v>939</v>
-      </c>
-      <c r="K437" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J437" t="inlineStr"/>
+      <c r="K437" t="inlineStr"/>
       <c r="L437" t="n">
-        <v>1.022689030883919</v>
+        <v>1</v>
       </c>
       <c r="M437" t="inlineStr"/>
     </row>
@@ -17721,7 +16599,7 @@
         <v>42798.00788045</v>
       </c>
       <c r="H440" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I440" t="inlineStr"/>
       <c r="J440" t="inlineStr"/>
@@ -17754,7 +16632,7 @@
         <v>42798.00788045</v>
       </c>
       <c r="H441" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I441" t="inlineStr"/>
       <c r="J441" t="inlineStr"/>
@@ -17787,7 +16665,7 @@
         <v>43595.20788045</v>
       </c>
       <c r="H442" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I442" t="inlineStr"/>
       <c r="J442" t="inlineStr"/>
@@ -17820,7 +16698,7 @@
         <v>43595.20788045</v>
       </c>
       <c r="H443" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I443" t="inlineStr"/>
       <c r="J443" t="inlineStr"/>
@@ -17853,7 +16731,7 @@
         <v>43595.20788045</v>
       </c>
       <c r="H444" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I444" t="inlineStr"/>
       <c r="J444" t="inlineStr"/>
@@ -17886,7 +16764,7 @@
         <v>43584.60788045</v>
       </c>
       <c r="H445" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I445" t="inlineStr"/>
       <c r="J445" t="inlineStr"/>
@@ -17919,7 +16797,7 @@
         <v>44121.90788045</v>
       </c>
       <c r="H446" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I446" t="inlineStr"/>
       <c r="J446" t="inlineStr"/>
@@ -17952,7 +16830,7 @@
         <v>44111.30788045</v>
       </c>
       <c r="H447" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I447" t="inlineStr"/>
       <c r="J447" t="inlineStr"/>
@@ -17985,7 +16863,7 @@
         <v>44111.30788045</v>
       </c>
       <c r="H448" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I448" t="inlineStr"/>
       <c r="J448" t="inlineStr"/>
@@ -18018,7 +16896,7 @@
         <v>44111.30788045</v>
       </c>
       <c r="H449" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I449" t="inlineStr"/>
       <c r="J449" t="inlineStr"/>
@@ -18051,7 +16929,7 @@
         <v>44361.30788045</v>
       </c>
       <c r="H450" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I450" t="inlineStr"/>
       <c r="J450" t="inlineStr"/>
@@ -18084,7 +16962,7 @@
         <v>44361.30788045</v>
       </c>
       <c r="H451" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I451" t="inlineStr"/>
       <c r="J451" t="inlineStr"/>
@@ -18117,7 +16995,7 @@
         <v>44359.80788045</v>
       </c>
       <c r="H452" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I452" t="inlineStr"/>
       <c r="J452" t="inlineStr"/>
@@ -18150,7 +17028,7 @@
         <v>44359.80788045</v>
       </c>
       <c r="H453" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I453" t="inlineStr"/>
       <c r="J453" t="inlineStr"/>
@@ -18183,7 +17061,7 @@
         <v>44359.80788045</v>
       </c>
       <c r="H454" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I454" t="inlineStr"/>
       <c r="J454" t="inlineStr"/>
@@ -18216,7 +17094,7 @@
         <v>44359.80788045</v>
       </c>
       <c r="H455" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I455" t="inlineStr"/>
       <c r="J455" t="inlineStr"/>
@@ -18249,7 +17127,7 @@
         <v>44359.80788045</v>
       </c>
       <c r="H456" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I456" t="inlineStr"/>
       <c r="J456" t="inlineStr"/>
@@ -18282,7 +17160,7 @@
         <v>44347.70788045001</v>
       </c>
       <c r="H457" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I457" t="inlineStr"/>
       <c r="J457" t="inlineStr"/>
@@ -18315,7 +17193,7 @@
         <v>45804.70788045001</v>
       </c>
       <c r="H458" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I458" t="inlineStr"/>
       <c r="J458" t="inlineStr"/>
@@ -18348,7 +17226,7 @@
         <v>46175.50788045001</v>
       </c>
       <c r="H459" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I459" t="inlineStr"/>
       <c r="J459" t="inlineStr"/>
@@ -18381,7 +17259,7 @@
         <v>46175.50788045001</v>
       </c>
       <c r="H460" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I460" t="inlineStr"/>
       <c r="J460" t="inlineStr"/>
@@ -18414,7 +17292,7 @@
         <v>46153.90788045001</v>
       </c>
       <c r="H461" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I461" t="inlineStr"/>
       <c r="J461" t="inlineStr"/>
@@ -18447,7 +17325,7 @@
         <v>46153.90788045001</v>
       </c>
       <c r="H462" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I462" t="inlineStr"/>
       <c r="J462" t="inlineStr"/>
@@ -18480,7 +17358,7 @@
         <v>46153.90788045001</v>
       </c>
       <c r="H463" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I463" t="inlineStr"/>
       <c r="J463" t="inlineStr"/>
@@ -18513,7 +17391,7 @@
         <v>46153.90788045001</v>
       </c>
       <c r="H464" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I464" t="inlineStr"/>
       <c r="J464" t="inlineStr"/>
@@ -18546,7 +17424,7 @@
         <v>46141.10788045001</v>
       </c>
       <c r="H465" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I465" t="inlineStr"/>
       <c r="J465" t="inlineStr"/>
@@ -18579,7 +17457,7 @@
         <v>46141.10788045001</v>
       </c>
       <c r="H466" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I466" t="inlineStr"/>
       <c r="J466" t="inlineStr"/>
@@ -18612,7 +17490,7 @@
         <v>46141.10788045001</v>
       </c>
       <c r="H467" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I467" t="inlineStr"/>
       <c r="J467" t="inlineStr"/>
@@ -18645,7 +17523,7 @@
         <v>46141.10788045001</v>
       </c>
       <c r="H468" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I468" t="inlineStr"/>
       <c r="J468" t="inlineStr"/>
@@ -18678,7 +17556,7 @@
         <v>46141.10788045001</v>
       </c>
       <c r="H469" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I469" t="inlineStr"/>
       <c r="J469" t="inlineStr"/>
@@ -18711,7 +17589,7 @@
         <v>46141.10788045001</v>
       </c>
       <c r="H470" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I470" t="inlineStr"/>
       <c r="J470" t="inlineStr"/>
@@ -18744,7 +17622,7 @@
         <v>46121.30788045</v>
       </c>
       <c r="H471" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I471" t="inlineStr"/>
       <c r="J471" t="inlineStr"/>
@@ -18777,7 +17655,7 @@
         <v>46121.30788045</v>
       </c>
       <c r="H472" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I472" t="inlineStr"/>
       <c r="J472" t="inlineStr"/>
@@ -18810,7 +17688,7 @@
         <v>46121.30788045</v>
       </c>
       <c r="H473" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I473" t="inlineStr"/>
       <c r="J473" t="inlineStr"/>
@@ -18843,7 +17721,7 @@
         <v>46121.30788045</v>
       </c>
       <c r="H474" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I474" t="inlineStr"/>
       <c r="J474" t="inlineStr"/>
@@ -18876,7 +17754,7 @@
         <v>46121.30788045</v>
       </c>
       <c r="H475" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I475" t="inlineStr"/>
       <c r="J475" t="inlineStr"/>
@@ -18909,7 +17787,7 @@
         <v>46121.30788045</v>
       </c>
       <c r="H476" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I476" t="inlineStr"/>
       <c r="J476" t="inlineStr"/>
@@ -18942,7 +17820,7 @@
         <v>46099.20788045001</v>
       </c>
       <c r="H477" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I477" t="inlineStr"/>
       <c r="J477" t="inlineStr"/>
@@ -18975,7 +17853,7 @@
         <v>46099.20788045001</v>
       </c>
       <c r="H478" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I478" t="inlineStr"/>
       <c r="J478" t="inlineStr"/>
@@ -19008,7 +17886,7 @@
         <v>46105.10788045001</v>
       </c>
       <c r="H479" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I479" t="inlineStr"/>
       <c r="J479" t="inlineStr"/>
@@ -19041,7 +17919,7 @@
         <v>46105.10788045001</v>
       </c>
       <c r="H480" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I480" t="inlineStr"/>
       <c r="J480" t="inlineStr"/>
@@ -19074,7 +17952,7 @@
         <v>46105.10788045001</v>
       </c>
       <c r="H481" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I481" t="inlineStr"/>
       <c r="J481" t="inlineStr"/>
@@ -19107,7 +17985,7 @@
         <v>46270.20788045001</v>
       </c>
       <c r="H482" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I482" t="inlineStr"/>
       <c r="J482" t="inlineStr"/>
@@ -19140,7 +18018,7 @@
         <v>46280.10788045001</v>
       </c>
       <c r="H483" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I483" t="inlineStr"/>
       <c r="J483" t="inlineStr"/>
@@ -19173,7 +18051,7 @@
         <v>46270.00788045001</v>
       </c>
       <c r="H484" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I484" t="inlineStr"/>
       <c r="J484" t="inlineStr"/>
@@ -19206,7 +18084,7 @@
         <v>46270.00788045001</v>
       </c>
       <c r="H485" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I485" t="inlineStr"/>
       <c r="J485" t="inlineStr"/>
@@ -19239,7 +18117,7 @@
         <v>46270.00788045001</v>
       </c>
       <c r="H486" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I486" t="inlineStr"/>
       <c r="J486" t="inlineStr"/>
@@ -19272,7 +18150,7 @@
         <v>46270.00788045001</v>
       </c>
       <c r="H487" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I487" t="inlineStr"/>
       <c r="J487" t="inlineStr"/>
@@ -19305,7 +18183,7 @@
         <v>39310.11168045001</v>
       </c>
       <c r="H488" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I488" t="inlineStr"/>
       <c r="J488" t="inlineStr"/>
@@ -19338,7 +18216,7 @@
         <v>43008.91748045001</v>
       </c>
       <c r="H489" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I489" t="inlineStr"/>
       <c r="J489" t="inlineStr"/>
@@ -19371,7 +18249,7 @@
         <v>31474.44598045001</v>
       </c>
       <c r="H490" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I490" t="inlineStr"/>
       <c r="J490" t="inlineStr"/>
@@ -19404,7 +18282,7 @@
         <v>31572.26218045001</v>
       </c>
       <c r="H491" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I491" t="inlineStr"/>
       <c r="J491" t="inlineStr"/>
@@ -19437,7 +18315,7 @@
         <v>32530.52118045001</v>
       </c>
       <c r="H492" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I492" t="inlineStr"/>
       <c r="J492" t="inlineStr"/>
@@ -19635,7 +18513,7 @@
         <v>32524.92118045001</v>
       </c>
       <c r="H498" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I498" t="inlineStr"/>
       <c r="J498" t="inlineStr"/>
@@ -19668,7 +18546,7 @@
         <v>32524.92118045001</v>
       </c>
       <c r="H499" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I499" t="inlineStr"/>
       <c r="J499" t="inlineStr"/>
@@ -19701,7 +18579,7 @@
         <v>32524.92118045001</v>
       </c>
       <c r="H500" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I500" t="inlineStr"/>
       <c r="J500" t="inlineStr"/>
@@ -19734,7 +18612,7 @@
         <v>32524.92118045001</v>
       </c>
       <c r="H501" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I501" t="inlineStr"/>
       <c r="J501" t="inlineStr"/>
@@ -19866,7 +18744,7 @@
         <v>32507.32118045001</v>
       </c>
       <c r="H505" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I505" t="inlineStr"/>
       <c r="J505" t="inlineStr"/>
@@ -19932,7 +18810,7 @@
         <v>32523.12118045001</v>
       </c>
       <c r="H507" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I507" t="inlineStr"/>
       <c r="J507" t="inlineStr"/>
@@ -19965,7 +18843,7 @@
         <v>33134.62118045001</v>
       </c>
       <c r="H508" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I508" t="inlineStr"/>
       <c r="J508" t="inlineStr"/>
@@ -19998,7 +18876,7 @@
         <v>32996.54618045001</v>
       </c>
       <c r="H509" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I509" t="inlineStr"/>
       <c r="J509" t="inlineStr"/>
@@ -20031,7 +18909,7 @@
         <v>32900.12118045001</v>
       </c>
       <c r="H510" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I510" t="inlineStr"/>
       <c r="J510" t="inlineStr"/>
@@ -20064,7 +18942,7 @@
         <v>32900.12118045001</v>
       </c>
       <c r="H511" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I511" t="inlineStr"/>
       <c r="J511" t="inlineStr"/>
@@ -20097,7 +18975,7 @@
         <v>32889.62118045001</v>
       </c>
       <c r="H512" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I512" t="inlineStr"/>
       <c r="J512" t="inlineStr"/>
@@ -20262,7 +19140,7 @@
         <v>33503.42118045</v>
       </c>
       <c r="H517" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I517" t="inlineStr"/>
       <c r="J517" t="inlineStr"/>
@@ -22077,7 +20955,7 @@
         <v>39879.67659494999</v>
       </c>
       <c r="H572" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I572" t="inlineStr"/>
       <c r="J572" t="inlineStr"/>
@@ -22110,7 +20988,7 @@
         <v>39879.67659494999</v>
       </c>
       <c r="H573" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I573" t="inlineStr"/>
       <c r="J573" t="inlineStr"/>
@@ -22143,7 +21021,7 @@
         <v>39879.67659494999</v>
       </c>
       <c r="H574" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I574" t="inlineStr"/>
       <c r="J574" t="inlineStr"/>
@@ -22176,7 +21054,7 @@
         <v>39879.67659494999</v>
       </c>
       <c r="H575" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I575" t="inlineStr"/>
       <c r="J575" t="inlineStr"/>
@@ -22209,7 +21087,7 @@
         <v>39879.67659494999</v>
       </c>
       <c r="H576" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I576" t="inlineStr"/>
       <c r="J576" t="inlineStr"/>
@@ -22242,7 +21120,7 @@
         <v>39879.67659494999</v>
       </c>
       <c r="H577" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I577" t="inlineStr"/>
       <c r="J577" t="inlineStr"/>
@@ -22275,7 +21153,7 @@
         <v>39879.67659494999</v>
       </c>
       <c r="H578" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I578" t="inlineStr"/>
       <c r="J578" t="inlineStr"/>
@@ -22308,7 +21186,7 @@
         <v>39879.67659494999</v>
       </c>
       <c r="H579" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I579" t="inlineStr"/>
       <c r="J579" t="inlineStr"/>
@@ -22341,7 +21219,7 @@
         <v>37356.56309494999</v>
       </c>
       <c r="H580" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I580" t="inlineStr"/>
       <c r="J580" t="inlineStr"/>
@@ -22374,7 +21252,7 @@
         <v>37363.56309494999</v>
       </c>
       <c r="H581" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I581" t="inlineStr"/>
       <c r="J581" t="inlineStr"/>
@@ -22407,7 +21285,7 @@
         <v>37347.66309494999</v>
       </c>
       <c r="H582" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I582" t="inlineStr"/>
       <c r="J582" t="inlineStr"/>
@@ -22440,7 +21318,7 @@
         <v>38198.46309494999</v>
       </c>
       <c r="H583" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I583" t="inlineStr"/>
       <c r="J583" t="inlineStr"/>
@@ -22473,7 +21351,7 @@
         <v>38188.76309494999</v>
       </c>
       <c r="H584" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I584" t="inlineStr"/>
       <c r="J584" t="inlineStr"/>
@@ -22506,7 +21384,7 @@
         <v>38188.76309494999</v>
       </c>
       <c r="H585" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I585" t="inlineStr"/>
       <c r="J585" t="inlineStr"/>
@@ -22539,7 +21417,7 @@
         <v>38188.76309494999</v>
       </c>
       <c r="H586" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I586" t="inlineStr"/>
       <c r="J586" t="inlineStr"/>
@@ -22572,7 +21450,7 @@
         <v>35557.78269494999</v>
       </c>
       <c r="H587" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I587" t="inlineStr"/>
       <c r="J587" t="inlineStr"/>
@@ -22605,7 +21483,7 @@
         <v>35563.18269495</v>
       </c>
       <c r="H588" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I588" t="inlineStr"/>
       <c r="J588" t="inlineStr"/>
@@ -22638,7 +21516,7 @@
         <v>35763.18269495</v>
       </c>
       <c r="H589" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I589" t="inlineStr"/>
       <c r="J589" t="inlineStr"/>
@@ -22671,7 +21549,7 @@
         <v>35763.18269495</v>
       </c>
       <c r="H590" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I590" t="inlineStr"/>
       <c r="J590" t="inlineStr"/>
@@ -22704,7 +21582,7 @@
         <v>35763.18269495</v>
       </c>
       <c r="H591" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I591" t="inlineStr"/>
       <c r="J591" t="inlineStr"/>
@@ -22737,7 +21615,7 @@
         <v>35763.18269495</v>
       </c>
       <c r="H592" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I592" t="inlineStr"/>
       <c r="J592" t="inlineStr"/>
@@ -22770,7 +21648,7 @@
         <v>35763.18269495</v>
       </c>
       <c r="H593" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I593" t="inlineStr"/>
       <c r="J593" t="inlineStr"/>
@@ -22803,7 +21681,7 @@
         <v>35753.08269495</v>
       </c>
       <c r="H594" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I594" t="inlineStr"/>
       <c r="J594" t="inlineStr"/>
@@ -22836,7 +21714,7 @@
         <v>35753.08269495</v>
       </c>
       <c r="H595" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I595" t="inlineStr"/>
       <c r="J595" t="inlineStr"/>
@@ -22869,7 +21747,7 @@
         <v>35753.08269495</v>
       </c>
       <c r="H596" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I596" t="inlineStr"/>
       <c r="J596" t="inlineStr"/>
@@ -22902,7 +21780,7 @@
         <v>35753.08269495</v>
       </c>
       <c r="H597" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I597" t="inlineStr"/>
       <c r="J597" t="inlineStr"/>
@@ -22935,7 +21813,7 @@
         <v>35753.08269495</v>
       </c>
       <c r="H598" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I598" t="inlineStr"/>
       <c r="J598" t="inlineStr"/>
@@ -22968,7 +21846,7 @@
         <v>36428.88269495</v>
       </c>
       <c r="H599" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I599" t="inlineStr"/>
       <c r="J599" t="inlineStr"/>
@@ -23001,7 +21879,7 @@
         <v>36428.88269495</v>
       </c>
       <c r="H600" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I600" t="inlineStr"/>
       <c r="J600" t="inlineStr"/>
@@ -23034,7 +21912,7 @@
         <v>37518.88269495</v>
       </c>
       <c r="H601" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I601" t="inlineStr"/>
       <c r="J601" t="inlineStr"/>
@@ -23067,7 +21945,7 @@
         <v>37510.48269495</v>
       </c>
       <c r="H602" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I602" t="inlineStr"/>
       <c r="J602" t="inlineStr"/>
@@ -23100,7 +21978,7 @@
         <v>37501.68269495</v>
       </c>
       <c r="H603" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I603" t="inlineStr"/>
       <c r="J603" t="inlineStr"/>
@@ -23133,7 +22011,7 @@
         <v>38541.37699495</v>
       </c>
       <c r="H604" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I604" t="inlineStr"/>
       <c r="J604" t="inlineStr"/>
@@ -23166,7 +22044,7 @@
         <v>38533.37699495</v>
       </c>
       <c r="H605" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I605" t="inlineStr"/>
       <c r="J605" t="inlineStr"/>
@@ -23199,7 +22077,7 @@
         <v>38533.37699495</v>
       </c>
       <c r="H606" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I606" t="inlineStr"/>
       <c r="J606" t="inlineStr"/>
@@ -23232,7 +22110,7 @@
         <v>39156.87699495</v>
       </c>
       <c r="H607" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I607" t="inlineStr"/>
       <c r="J607" t="inlineStr"/>
@@ -23265,7 +22143,7 @@
         <v>39152.37699495</v>
       </c>
       <c r="H608" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I608" t="inlineStr"/>
       <c r="J608" t="inlineStr"/>
@@ -23298,7 +22176,7 @@
         <v>40416.11469495</v>
       </c>
       <c r="H609" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I609" t="inlineStr"/>
       <c r="J609" t="inlineStr"/>
@@ -23331,7 +22209,7 @@
         <v>40416.11469495</v>
       </c>
       <c r="H610" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I610" t="inlineStr"/>
       <c r="J610" t="inlineStr"/>
@@ -23364,7 +22242,7 @@
         <v>40416.11469495</v>
       </c>
       <c r="H611" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I611" t="inlineStr"/>
       <c r="J611" t="inlineStr"/>
@@ -23496,7 +22374,7 @@
         <v>41477.11469495</v>
       </c>
       <c r="H615" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I615" t="inlineStr"/>
       <c r="J615" t="inlineStr"/>
@@ -23529,7 +22407,7 @@
         <v>42577.11469495</v>
       </c>
       <c r="H616" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I616" t="inlineStr"/>
       <c r="J616" t="inlineStr"/>
@@ -23562,7 +22440,7 @@
         <v>42569.41469495</v>
       </c>
       <c r="H617" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I617" t="inlineStr"/>
       <c r="J617" t="inlineStr"/>
@@ -24321,7 +23199,7 @@
         <v>42313.43029494999</v>
       </c>
       <c r="H640" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I640" t="inlineStr"/>
       <c r="J640" t="inlineStr"/>
@@ -24354,7 +23232,7 @@
         <v>42313.43029494999</v>
       </c>
       <c r="H641" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I641" t="inlineStr"/>
       <c r="J641" t="inlineStr"/>
@@ -24387,7 +23265,7 @@
         <v>42313.43029494999</v>
       </c>
       <c r="H642" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I642" t="inlineStr"/>
       <c r="J642" t="inlineStr"/>
@@ -24420,7 +23298,7 @@
         <v>42302.73029494999</v>
       </c>
       <c r="H643" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I643" t="inlineStr"/>
       <c r="J643" t="inlineStr"/>
@@ -24618,7 +23496,7 @@
         <v>41895.53029494999</v>
       </c>
       <c r="H649" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I649" t="inlineStr"/>
       <c r="J649" t="inlineStr"/>
@@ -24651,7 +23529,7 @@
         <v>41895.53029494999</v>
       </c>
       <c r="H650" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I650" t="inlineStr"/>
       <c r="J650" t="inlineStr"/>
@@ -24684,7 +23562,7 @@
         <v>41895.53029494999</v>
       </c>
       <c r="H651" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I651" t="inlineStr"/>
       <c r="J651" t="inlineStr"/>
@@ -24717,7 +23595,7 @@
         <v>44108.13029494999</v>
       </c>
       <c r="H652" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I652" t="inlineStr"/>
       <c r="J652" t="inlineStr"/>
@@ -24750,7 +23628,7 @@
         <v>44091.63029494999</v>
       </c>
       <c r="H653" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I653" t="inlineStr"/>
       <c r="J653" t="inlineStr"/>
@@ -24783,7 +23661,7 @@
         <v>44091.63029494999</v>
       </c>
       <c r="H654" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I654" t="inlineStr"/>
       <c r="J654" t="inlineStr"/>
@@ -25146,7 +24024,7 @@
         <v>44822.83029494998</v>
       </c>
       <c r="H665" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I665" t="inlineStr"/>
       <c r="J665" t="inlineStr"/>
@@ -25179,7 +24057,7 @@
         <v>44804.83029494998</v>
       </c>
       <c r="H666" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I666" t="inlineStr"/>
       <c r="J666" t="inlineStr"/>
@@ -25212,7 +24090,7 @@
         <v>44804.83029494998</v>
       </c>
       <c r="H667" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I667" t="inlineStr"/>
       <c r="J667" t="inlineStr"/>
@@ -25344,7 +24222,7 @@
         <v>44797.23029494999</v>
       </c>
       <c r="H671" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I671" t="inlineStr"/>
       <c r="J671" t="inlineStr"/>
@@ -25443,7 +24321,7 @@
         <v>44800.43029494998</v>
       </c>
       <c r="H674" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I674" t="inlineStr"/>
       <c r="J674" t="inlineStr"/>
@@ -25476,7 +24354,7 @@
         <v>44800.43029494998</v>
       </c>
       <c r="H675" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I675" t="inlineStr"/>
       <c r="J675" t="inlineStr"/>
@@ -25542,7 +24420,7 @@
         <v>44800.43029494998</v>
       </c>
       <c r="H677" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I677" t="inlineStr"/>
       <c r="J677" t="inlineStr"/>
@@ -25773,7 +24651,7 @@
         <v>45326.93029494998</v>
       </c>
       <c r="H684" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I684" t="inlineStr"/>
       <c r="J684" t="inlineStr"/>
@@ -25806,7 +24684,7 @@
         <v>45318.23029494999</v>
       </c>
       <c r="H685" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I685" t="inlineStr"/>
       <c r="J685" t="inlineStr"/>
@@ -25839,7 +24717,7 @@
         <v>45318.23029494999</v>
       </c>
       <c r="H686" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I686" t="inlineStr"/>
       <c r="J686" t="inlineStr"/>
@@ -25872,7 +24750,7 @@
         <v>45318.23029494999</v>
       </c>
       <c r="H687" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I687" t="inlineStr"/>
       <c r="J687" t="inlineStr"/>
@@ -25905,7 +24783,7 @@
         <v>46302.63029494999</v>
       </c>
       <c r="H688" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I688" t="inlineStr"/>
       <c r="J688" t="inlineStr"/>
@@ -25938,7 +24816,7 @@
         <v>46302.63029494999</v>
       </c>
       <c r="H689" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I689" t="inlineStr"/>
       <c r="J689" t="inlineStr"/>
@@ -25971,7 +24849,7 @@
         <v>46302.63029494999</v>
       </c>
       <c r="H690" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I690" t="inlineStr"/>
       <c r="J690" t="inlineStr"/>
@@ -26004,7 +24882,7 @@
         <v>46302.63029494999</v>
       </c>
       <c r="H691" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I691" t="inlineStr"/>
       <c r="J691" t="inlineStr"/>
@@ -26070,7 +24948,7 @@
         <v>46408.43029494999</v>
       </c>
       <c r="H693" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I693" t="inlineStr"/>
       <c r="J693" t="inlineStr"/>
@@ -26103,7 +24981,7 @@
         <v>46408.43029494999</v>
       </c>
       <c r="H694" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I694" t="inlineStr"/>
       <c r="J694" t="inlineStr"/>
@@ -26136,7 +25014,7 @@
         <v>46408.43029494999</v>
       </c>
       <c r="H695" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I695" t="inlineStr"/>
       <c r="J695" t="inlineStr"/>
@@ -26169,7 +25047,7 @@
         <v>46939.43029494999</v>
       </c>
       <c r="H696" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I696" t="inlineStr"/>
       <c r="J696" t="inlineStr"/>
@@ -26202,7 +25080,7 @@
         <v>46939.43029494999</v>
       </c>
       <c r="H697" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I697" t="inlineStr"/>
       <c r="J697" t="inlineStr"/>
@@ -26235,7 +25113,7 @@
         <v>47756.63029494999</v>
       </c>
       <c r="H698" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I698" t="inlineStr"/>
       <c r="J698" t="inlineStr"/>
@@ -26268,7 +25146,7 @@
         <v>47751.03029494999</v>
       </c>
       <c r="H699" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I699" t="inlineStr"/>
       <c r="J699" t="inlineStr"/>
@@ -26301,7 +25179,7 @@
         <v>47751.03029494999</v>
       </c>
       <c r="H700" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I700" t="inlineStr"/>
       <c r="J700" t="inlineStr"/>
@@ -26334,7 +25212,7 @@
         <v>47751.03029494999</v>
       </c>
       <c r="H701" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I701" t="inlineStr"/>
       <c r="J701" t="inlineStr"/>
@@ -26367,7 +25245,7 @@
         <v>47751.03029494999</v>
       </c>
       <c r="H702" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I702" t="inlineStr"/>
       <c r="J702" t="inlineStr"/>
@@ -26400,7 +25278,7 @@
         <v>47751.03029494999</v>
       </c>
       <c r="H703" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I703" t="inlineStr"/>
       <c r="J703" t="inlineStr"/>
@@ -26433,7 +25311,7 @@
         <v>47751.03029494999</v>
       </c>
       <c r="H704" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I704" t="inlineStr"/>
       <c r="J704" t="inlineStr"/>
@@ -26466,7 +25344,7 @@
         <v>47751.03029494999</v>
       </c>
       <c r="H705" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I705" t="inlineStr"/>
       <c r="J705" t="inlineStr"/>
@@ -26499,7 +25377,7 @@
         <v>47749.93029494999</v>
       </c>
       <c r="H706" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I706" t="inlineStr"/>
       <c r="J706" t="inlineStr"/>
@@ -26532,7 +25410,7 @@
         <v>48260.63029494999</v>
       </c>
       <c r="H707" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I707" t="inlineStr"/>
       <c r="J707" t="inlineStr"/>
@@ -26565,7 +25443,7 @@
         <v>47237.53029494999</v>
       </c>
       <c r="H708" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I708" t="inlineStr"/>
       <c r="J708" t="inlineStr"/>
@@ -26598,7 +25476,7 @@
         <v>47922.57479494999</v>
       </c>
       <c r="H709" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I709" t="inlineStr"/>
       <c r="J709" t="inlineStr"/>
@@ -26631,7 +25509,7 @@
         <v>47912.67479494999</v>
       </c>
       <c r="H710" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I710" t="inlineStr"/>
       <c r="J710" t="inlineStr"/>
@@ -26664,7 +25542,7 @@
         <v>47912.67479494999</v>
       </c>
       <c r="H711" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I711" t="inlineStr"/>
       <c r="J711" t="inlineStr"/>
@@ -26697,7 +25575,7 @@
         <v>47912.67479494999</v>
       </c>
       <c r="H712" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I712" t="inlineStr"/>
       <c r="J712" t="inlineStr"/>
@@ -26730,7 +25608,7 @@
         <v>47912.67479494999</v>
       </c>
       <c r="H713" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I713" t="inlineStr"/>
       <c r="J713" t="inlineStr"/>
@@ -26763,7 +25641,7 @@
         <v>47912.67479494999</v>
       </c>
       <c r="H714" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I714" t="inlineStr"/>
       <c r="J714" t="inlineStr"/>
@@ -26796,7 +25674,7 @@
         <v>47912.67479494999</v>
       </c>
       <c r="H715" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I715" t="inlineStr"/>
       <c r="J715" t="inlineStr"/>
@@ -26829,7 +25707,7 @@
         <v>47912.67479494999</v>
       </c>
       <c r="H716" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I716" t="inlineStr"/>
       <c r="J716" t="inlineStr"/>
@@ -26862,7 +25740,7 @@
         <v>47912.67479494999</v>
       </c>
       <c r="H717" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I717" t="inlineStr"/>
       <c r="J717" t="inlineStr"/>
@@ -26895,7 +25773,7 @@
         <v>47912.67479494999</v>
       </c>
       <c r="H718" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I718" t="inlineStr"/>
       <c r="J718" t="inlineStr"/>
@@ -26928,7 +25806,7 @@
         <v>47912.67479494999</v>
       </c>
       <c r="H719" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I719" t="inlineStr"/>
       <c r="J719" t="inlineStr"/>
@@ -26961,7 +25839,7 @@
         <v>48018.67479494999</v>
       </c>
       <c r="H720" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I720" t="inlineStr"/>
       <c r="J720" t="inlineStr"/>
@@ -26994,7 +25872,7 @@
         <v>48018.67479494999</v>
       </c>
       <c r="H721" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I721" t="inlineStr"/>
       <c r="J721" t="inlineStr"/>
@@ -27027,7 +25905,7 @@
         <v>48018.67479494999</v>
       </c>
       <c r="H722" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I722" t="inlineStr"/>
       <c r="J722" t="inlineStr"/>
@@ -27060,7 +25938,7 @@
         <v>47710.17479494999</v>
       </c>
       <c r="H723" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I723" t="inlineStr"/>
       <c r="J723" t="inlineStr"/>
@@ -27093,7 +25971,7 @@
         <v>47722.27479494999</v>
       </c>
       <c r="H724" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I724" t="inlineStr"/>
       <c r="J724" t="inlineStr"/>
@@ -27126,7 +26004,7 @@
         <v>47722.27479494999</v>
       </c>
       <c r="H725" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I725" t="inlineStr"/>
       <c r="J725" t="inlineStr"/>
@@ -27159,7 +26037,7 @@
         <v>47722.27479494999</v>
       </c>
       <c r="H726" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I726" t="inlineStr"/>
       <c r="J726" t="inlineStr"/>
@@ -27192,7 +26070,7 @@
         <v>47722.27479494999</v>
       </c>
       <c r="H727" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I727" t="inlineStr"/>
       <c r="J727" t="inlineStr"/>
@@ -27225,7 +26103,7 @@
         <v>47722.27479494999</v>
       </c>
       <c r="H728" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I728" t="inlineStr"/>
       <c r="J728" t="inlineStr"/>
@@ -27258,7 +26136,7 @@
         <v>47722.27479494999</v>
       </c>
       <c r="H729" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I729" t="inlineStr"/>
       <c r="J729" t="inlineStr"/>
@@ -27291,7 +26169,7 @@
         <v>47722.27479494999</v>
       </c>
       <c r="H730" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I730" t="inlineStr"/>
       <c r="J730" t="inlineStr"/>
@@ -27324,7 +26202,7 @@
         <v>47722.27479494999</v>
       </c>
       <c r="H731" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I731" t="inlineStr"/>
       <c r="J731" t="inlineStr"/>
@@ -27357,7 +26235,7 @@
         <v>47722.27479494999</v>
       </c>
       <c r="H732" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I732" t="inlineStr"/>
       <c r="J732" t="inlineStr"/>
@@ -27390,7 +26268,7 @@
         <v>47722.27479494999</v>
       </c>
       <c r="H733" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I733" t="inlineStr"/>
       <c r="J733" t="inlineStr"/>
@@ -27423,7 +26301,7 @@
         <v>47964.27479494999</v>
       </c>
       <c r="H734" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I734" t="inlineStr"/>
       <c r="J734" t="inlineStr"/>
@@ -27456,7 +26334,7 @@
         <v>47862.77479494999</v>
       </c>
       <c r="H735" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I735" t="inlineStr"/>
       <c r="J735" t="inlineStr"/>
@@ -27489,7 +26367,7 @@
         <v>47862.77479494999</v>
       </c>
       <c r="H736" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I736" t="inlineStr"/>
       <c r="J736" t="inlineStr"/>
@@ -27522,7 +26400,7 @@
         <v>47862.77479494999</v>
       </c>
       <c r="H737" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I737" t="inlineStr"/>
       <c r="J737" t="inlineStr"/>
@@ -27555,7 +26433,7 @@
         <v>47862.77479494999</v>
       </c>
       <c r="H738" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I738" t="inlineStr"/>
       <c r="J738" t="inlineStr"/>
@@ -27588,7 +26466,7 @@
         <v>47846.97479494999</v>
       </c>
       <c r="H739" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I739" t="inlineStr"/>
       <c r="J739" t="inlineStr"/>
@@ -27621,7 +26499,7 @@
         <v>47846.97479494999</v>
       </c>
       <c r="H740" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I740" t="inlineStr"/>
       <c r="J740" t="inlineStr"/>
@@ -27654,7 +26532,7 @@
         <v>47831.17479494998</v>
       </c>
       <c r="H741" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I741" t="inlineStr"/>
       <c r="J741" t="inlineStr"/>
@@ -27687,7 +26565,7 @@
         <v>47831.17479494998</v>
       </c>
       <c r="H742" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I742" t="inlineStr"/>
       <c r="J742" t="inlineStr"/>
@@ -27720,7 +26598,7 @@
         <v>47831.17479494998</v>
       </c>
       <c r="H743" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I743" t="inlineStr"/>
       <c r="J743" t="inlineStr"/>
@@ -27753,7 +26631,7 @@
         <v>47831.17479494998</v>
       </c>
       <c r="H744" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I744" t="inlineStr"/>
       <c r="J744" t="inlineStr"/>
@@ -27786,7 +26664,7 @@
         <v>47831.17479494998</v>
       </c>
       <c r="H745" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I745" t="inlineStr"/>
       <c r="J745" t="inlineStr"/>
@@ -27819,7 +26697,7 @@
         <v>47831.17479494998</v>
       </c>
       <c r="H746" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I746" t="inlineStr"/>
       <c r="J746" t="inlineStr"/>
@@ -27852,7 +26730,7 @@
         <v>48101.17479494998</v>
       </c>
       <c r="H747" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I747" t="inlineStr"/>
       <c r="J747" t="inlineStr"/>
@@ -27885,7 +26763,7 @@
         <v>48101.17479494998</v>
       </c>
       <c r="H748" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I748" t="inlineStr"/>
       <c r="J748" t="inlineStr"/>
@@ -27918,7 +26796,7 @@
         <v>48719.37479494998</v>
       </c>
       <c r="H749" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I749" t="inlineStr"/>
       <c r="J749" t="inlineStr"/>
@@ -27951,7 +26829,7 @@
         <v>49723.57479494998</v>
       </c>
       <c r="H750" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I750" t="inlineStr"/>
       <c r="J750" t="inlineStr"/>
@@ -27984,7 +26862,7 @@
         <v>49699.37479494998</v>
       </c>
       <c r="H751" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I751" t="inlineStr"/>
       <c r="J751" t="inlineStr"/>
@@ -28017,7 +26895,7 @@
         <v>49699.37479494998</v>
       </c>
       <c r="H752" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I752" t="inlineStr"/>
       <c r="J752" t="inlineStr"/>
@@ -28050,7 +26928,7 @@
         <v>49699.37479494998</v>
       </c>
       <c r="H753" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I753" t="inlineStr"/>
       <c r="J753" t="inlineStr"/>
@@ -28083,7 +26961,7 @@
         <v>49699.37479494998</v>
       </c>
       <c r="H754" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I754" t="inlineStr"/>
       <c r="J754" t="inlineStr"/>
@@ -28116,7 +26994,7 @@
         <v>49974.67479494998</v>
       </c>
       <c r="H755" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I755" t="inlineStr"/>
       <c r="J755" t="inlineStr"/>
@@ -28149,7 +27027,7 @@
         <v>49974.67479494998</v>
       </c>
       <c r="H756" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I756" t="inlineStr"/>
       <c r="J756" t="inlineStr"/>
@@ -28182,7 +27060,7 @@
         <v>49974.67479494998</v>
       </c>
       <c r="H757" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I757" t="inlineStr"/>
       <c r="J757" t="inlineStr"/>
@@ -28215,7 +27093,7 @@
         <v>49974.67479494998</v>
       </c>
       <c r="H758" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I758" t="inlineStr"/>
       <c r="J758" t="inlineStr"/>
@@ -28248,7 +27126,7 @@
         <v>49974.67479494998</v>
       </c>
       <c r="H759" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I759" t="inlineStr"/>
       <c r="J759" t="inlineStr"/>
@@ -28281,7 +27159,7 @@
         <v>49974.67479494998</v>
       </c>
       <c r="H760" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I760" t="inlineStr"/>
       <c r="J760" t="inlineStr"/>
@@ -28314,7 +27192,7 @@
         <v>49974.67479494998</v>
       </c>
       <c r="H761" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I761" t="inlineStr"/>
       <c r="J761" t="inlineStr"/>
@@ -28347,7 +27225,7 @@
         <v>49974.67479494998</v>
       </c>
       <c r="H762" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I762" t="inlineStr"/>
       <c r="J762" t="inlineStr"/>
@@ -28380,7 +27258,7 @@
         <v>49974.67479494998</v>
       </c>
       <c r="H763" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I763" t="inlineStr"/>
       <c r="J763" t="inlineStr"/>
@@ -28413,7 +27291,7 @@
         <v>49958.67479494998</v>
       </c>
       <c r="H764" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I764" t="inlineStr"/>
       <c r="J764" t="inlineStr"/>
@@ -28446,7 +27324,7 @@
         <v>50558.67479494998</v>
       </c>
       <c r="H765" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I765" t="inlineStr"/>
       <c r="J765" t="inlineStr"/>
@@ -28479,7 +27357,7 @@
         <v>50558.67479494998</v>
       </c>
       <c r="H766" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I766" t="inlineStr"/>
       <c r="J766" t="inlineStr"/>
@@ -28578,7 +27456,7 @@
         <v>50558.67479494998</v>
       </c>
       <c r="H769" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I769" t="inlineStr"/>
       <c r="J769" t="inlineStr"/>
@@ -28611,7 +27489,7 @@
         <v>50403.77479494998</v>
       </c>
       <c r="H770" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I770" t="inlineStr"/>
       <c r="J770" t="inlineStr"/>
@@ -28644,7 +27522,7 @@
         <v>50414.67479494998</v>
       </c>
       <c r="H771" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I771" t="inlineStr"/>
       <c r="J771" t="inlineStr"/>
@@ -28677,7 +27555,7 @@
         <v>50434.17479494998</v>
       </c>
       <c r="H772" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I772" t="inlineStr"/>
       <c r="J772" t="inlineStr"/>
@@ -28710,7 +27588,7 @@
         <v>52434.08169494999</v>
       </c>
       <c r="H773" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I773" t="inlineStr"/>
       <c r="J773" t="inlineStr"/>
@@ -28743,7 +27621,7 @@
         <v>51853.73659494999</v>
       </c>
       <c r="H774" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I774" t="inlineStr"/>
       <c r="J774" t="inlineStr"/>
@@ -28776,7 +27654,7 @@
         <v>51853.73659494999</v>
       </c>
       <c r="H775" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I775" t="inlineStr"/>
       <c r="J775" t="inlineStr"/>
@@ -28809,7 +27687,7 @@
         <v>51845.83659494999</v>
       </c>
       <c r="H776" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I776" t="inlineStr"/>
       <c r="J776" t="inlineStr"/>
@@ -28842,7 +27720,7 @@
         <v>51845.83659494999</v>
       </c>
       <c r="H777" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I777" t="inlineStr"/>
       <c r="J777" t="inlineStr"/>
@@ -28875,7 +27753,7 @@
         <v>51845.83659494999</v>
       </c>
       <c r="H778" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I778" t="inlineStr"/>
       <c r="J778" t="inlineStr"/>
@@ -28908,7 +27786,7 @@
         <v>51845.83659494999</v>
       </c>
       <c r="H779" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I779" t="inlineStr"/>
       <c r="J779" t="inlineStr"/>
@@ -28941,7 +27819,7 @@
         <v>51845.83659494999</v>
       </c>
       <c r="H780" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I780" t="inlineStr"/>
       <c r="J780" t="inlineStr"/>
@@ -28974,7 +27852,7 @@
         <v>51845.83659494999</v>
       </c>
       <c r="H781" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I781" t="inlineStr"/>
       <c r="J781" t="inlineStr"/>
@@ -29007,7 +27885,7 @@
         <v>51845.83659494999</v>
       </c>
       <c r="H782" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I782" t="inlineStr"/>
       <c r="J782" t="inlineStr"/>
@@ -29040,7 +27918,7 @@
         <v>51845.83659494999</v>
       </c>
       <c r="H783" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I783" t="inlineStr"/>
       <c r="J783" t="inlineStr"/>
@@ -29073,7 +27951,7 @@
         <v>52353.23659494999</v>
       </c>
       <c r="H784" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I784" t="inlineStr"/>
       <c r="J784" t="inlineStr"/>
@@ -29106,7 +27984,7 @@
         <v>52353.23659494999</v>
       </c>
       <c r="H785" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I785" t="inlineStr"/>
       <c r="J785" t="inlineStr"/>
@@ -29139,7 +28017,7 @@
         <v>52434.82319494999</v>
       </c>
       <c r="H786" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I786" t="inlineStr"/>
       <c r="J786" t="inlineStr"/>
@@ -29172,7 +28050,7 @@
         <v>52434.82319494999</v>
       </c>
       <c r="H787" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I787" t="inlineStr"/>
       <c r="J787" t="inlineStr"/>
@@ -29205,7 +28083,7 @@
         <v>52434.82319494999</v>
       </c>
       <c r="H788" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I788" t="inlineStr"/>
       <c r="J788" t="inlineStr"/>
@@ -29238,7 +28116,7 @@
         <v>52434.82319494999</v>
       </c>
       <c r="H789" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I789" t="inlineStr"/>
       <c r="J789" t="inlineStr"/>
@@ -29271,7 +28149,7 @@
         <v>52021.72319494999</v>
       </c>
       <c r="H790" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I790" t="inlineStr"/>
       <c r="J790" t="inlineStr"/>
@@ -29304,7 +28182,7 @@
         <v>52021.72319494999</v>
       </c>
       <c r="H791" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I791" t="inlineStr"/>
       <c r="J791" t="inlineStr"/>
@@ -29337,7 +28215,7 @@
         <v>52288.25399494999</v>
       </c>
       <c r="H792" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I792" t="inlineStr"/>
       <c r="J792" t="inlineStr"/>
@@ -29370,7 +28248,7 @@
         <v>52288.25399494999</v>
       </c>
       <c r="H793" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I793" t="inlineStr"/>
       <c r="J793" t="inlineStr"/>
@@ -29403,7 +28281,7 @@
         <v>52288.25399494999</v>
       </c>
       <c r="H794" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I794" t="inlineStr"/>
       <c r="J794" t="inlineStr"/>
@@ -29436,7 +28314,7 @@
         <v>52288.25399494999</v>
       </c>
       <c r="H795" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I795" t="inlineStr"/>
       <c r="J795" t="inlineStr"/>
@@ -29469,7 +28347,7 @@
         <v>52396.17509494999</v>
       </c>
       <c r="H796" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I796" t="inlineStr"/>
       <c r="J796" t="inlineStr"/>
@@ -29502,7 +28380,7 @@
         <v>52396.17509494999</v>
       </c>
       <c r="H797" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I797" t="inlineStr"/>
       <c r="J797" t="inlineStr"/>
@@ -29535,7 +28413,7 @@
         <v>52384.67509494999</v>
       </c>
       <c r="H798" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I798" t="inlineStr"/>
       <c r="J798" t="inlineStr"/>
@@ -29568,7 +28446,7 @@
         <v>52384.67509494999</v>
       </c>
       <c r="H799" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I799" t="inlineStr"/>
       <c r="J799" t="inlineStr"/>
@@ -29601,7 +28479,7 @@
         <v>52384.67509494999</v>
       </c>
       <c r="H800" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I800" t="inlineStr"/>
       <c r="J800" t="inlineStr"/>
@@ -29634,7 +28512,7 @@
         <v>52384.67509494999</v>
       </c>
       <c r="H801" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I801" t="inlineStr"/>
       <c r="J801" t="inlineStr"/>
@@ -29667,7 +28545,7 @@
         <v>52352.01659494999</v>
       </c>
       <c r="H802" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I802" t="inlineStr"/>
       <c r="J802" t="inlineStr"/>
@@ -29700,7 +28578,7 @@
         <v>52645.25809494999</v>
       </c>
       <c r="H803" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I803" t="inlineStr"/>
       <c r="J803" t="inlineStr"/>
@@ -29733,7 +28611,7 @@
         <v>52634.55809494999</v>
       </c>
       <c r="H804" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I804" t="inlineStr"/>
       <c r="J804" t="inlineStr"/>
@@ -29766,7 +28644,7 @@
         <v>52634.55809494999</v>
       </c>
       <c r="H805" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I805" t="inlineStr"/>
       <c r="J805" t="inlineStr"/>
@@ -29799,7 +28677,7 @@
         <v>52634.55809494999</v>
       </c>
       <c r="H806" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I806" t="inlineStr"/>
       <c r="J806" t="inlineStr"/>
@@ -29832,7 +28710,7 @@
         <v>52634.55809494999</v>
       </c>
       <c r="H807" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I807" t="inlineStr"/>
       <c r="J807" t="inlineStr"/>
@@ -29865,7 +28743,7 @@
         <v>52634.55809494999</v>
       </c>
       <c r="H808" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I808" t="inlineStr"/>
       <c r="J808" t="inlineStr"/>
@@ -29898,7 +28776,7 @@
         <v>52201.97999494999</v>
       </c>
       <c r="H809" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I809" t="inlineStr"/>
       <c r="J809" t="inlineStr"/>
@@ -29931,7 +28809,7 @@
         <v>52204.97999494999</v>
       </c>
       <c r="H810" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I810" t="inlineStr"/>
       <c r="J810" t="inlineStr"/>
@@ -29964,7 +28842,7 @@
         <v>52204.97999494999</v>
       </c>
       <c r="H811" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I811" t="inlineStr"/>
       <c r="J811" t="inlineStr"/>
@@ -29997,7 +28875,7 @@
         <v>52204.97999494999</v>
       </c>
       <c r="H812" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I812" t="inlineStr"/>
       <c r="J812" t="inlineStr"/>
@@ -30030,7 +28908,7 @@
         <v>52200.17999494999</v>
       </c>
       <c r="H813" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I813" t="inlineStr"/>
       <c r="J813" t="inlineStr"/>
@@ -30063,7 +28941,7 @@
         <v>52547.17999494999</v>
       </c>
       <c r="H814" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I814" t="inlineStr"/>
       <c r="J814" t="inlineStr"/>
@@ -30096,7 +28974,7 @@
         <v>52547.17999494999</v>
       </c>
       <c r="H815" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I815" t="inlineStr"/>
       <c r="J815" t="inlineStr"/>
@@ -30129,7 +29007,7 @@
         <v>52547.17999494999</v>
       </c>
       <c r="H816" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I816" t="inlineStr"/>
       <c r="J816" t="inlineStr"/>
@@ -30162,7 +29040,7 @@
         <v>52547.17999494999</v>
       </c>
       <c r="H817" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I817" t="inlineStr"/>
       <c r="J817" t="inlineStr"/>
@@ -30195,7 +29073,7 @@
         <v>52480.11439494999</v>
       </c>
       <c r="H818" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I818" t="inlineStr"/>
       <c r="J818" t="inlineStr"/>
@@ -30228,7 +29106,7 @@
         <v>52470.51439494999</v>
       </c>
       <c r="H819" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I819" t="inlineStr"/>
       <c r="J819" t="inlineStr"/>
@@ -30261,7 +29139,7 @@
         <v>50826.93459494999</v>
       </c>
       <c r="H820" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I820" t="inlineStr"/>
       <c r="J820" t="inlineStr"/>
@@ -30294,7 +29172,7 @@
         <v>50416.50749494999</v>
       </c>
       <c r="H821" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I821" t="inlineStr"/>
       <c r="J821" t="inlineStr"/>
@@ -30327,7 +29205,7 @@
         <v>50416.50749494999</v>
       </c>
       <c r="H822" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I822" t="inlineStr"/>
       <c r="J822" t="inlineStr"/>
@@ -30360,7 +29238,7 @@
         <v>51383.60749494999</v>
       </c>
       <c r="H823" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I823" t="inlineStr"/>
       <c r="J823" t="inlineStr"/>
@@ -30393,7 +29271,7 @@
         <v>51383.60749494999</v>
       </c>
       <c r="H824" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I824" t="inlineStr"/>
       <c r="J824" t="inlineStr"/>
@@ -30426,7 +29304,7 @@
         <v>51817.27759494999</v>
       </c>
       <c r="H825" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I825" t="inlineStr"/>
       <c r="J825" t="inlineStr"/>
@@ -30459,7 +29337,7 @@
         <v>51817.27759494999</v>
       </c>
       <c r="H826" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I826" t="inlineStr"/>
       <c r="J826" t="inlineStr"/>
@@ -30492,7 +29370,7 @@
         <v>51817.27759494999</v>
       </c>
       <c r="H827" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I827" t="inlineStr"/>
       <c r="J827" t="inlineStr"/>
@@ -30525,7 +29403,7 @@
         <v>51817.27759494999</v>
       </c>
       <c r="H828" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I828" t="inlineStr"/>
       <c r="J828" t="inlineStr"/>
@@ -30558,7 +29436,7 @@
         <v>51817.27759494999</v>
       </c>
       <c r="H829" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I829" t="inlineStr"/>
       <c r="J829" t="inlineStr"/>
@@ -30624,7 +29502,7 @@
         <v>52497.27759494999</v>
       </c>
       <c r="H831" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I831" t="inlineStr"/>
       <c r="J831" t="inlineStr"/>
@@ -30657,7 +29535,7 @@
         <v>52958.17759494999</v>
       </c>
       <c r="H832" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I832" t="inlineStr"/>
       <c r="J832" t="inlineStr"/>
@@ -30690,7 +29568,7 @@
         <v>51895.97759495</v>
       </c>
       <c r="H833" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I833" t="inlineStr"/>
       <c r="J833" t="inlineStr"/>
@@ -30756,7 +29634,7 @@
         <v>52723.72269495</v>
       </c>
       <c r="H835" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I835" t="inlineStr"/>
       <c r="J835" t="inlineStr"/>
@@ -30789,7 +29667,7 @@
         <v>52843.17249495</v>
       </c>
       <c r="H836" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I836" t="inlineStr"/>
       <c r="J836" t="inlineStr"/>
@@ -30822,7 +29700,7 @@
         <v>52843.17249495</v>
       </c>
       <c r="H837" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I837" t="inlineStr"/>
       <c r="J837" t="inlineStr"/>
@@ -30855,7 +29733,7 @@
         <v>52832.17249495</v>
       </c>
       <c r="H838" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I838" t="inlineStr"/>
       <c r="J838" t="inlineStr"/>
@@ -30921,7 +29799,7 @@
         <v>52832.17249495</v>
       </c>
       <c r="H840" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I840" t="inlineStr"/>
       <c r="J840" t="inlineStr"/>
@@ -30954,7 +29832,7 @@
         <v>54115.17249495</v>
       </c>
       <c r="H841" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I841" t="inlineStr"/>
       <c r="J841" t="inlineStr"/>
@@ -30987,7 +29865,7 @@
         <v>54115.17249495</v>
       </c>
       <c r="H842" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I842" t="inlineStr"/>
       <c r="J842" t="inlineStr"/>
@@ -31020,7 +29898,7 @@
         <v>54115.17249495</v>
       </c>
       <c r="H843" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I843" t="inlineStr"/>
       <c r="J843" t="inlineStr"/>
@@ -31053,7 +29931,7 @@
         <v>53200.77249495</v>
       </c>
       <c r="H844" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I844" t="inlineStr"/>
       <c r="J844" t="inlineStr"/>
@@ -31119,7 +29997,7 @@
         <v>52445.06849495</v>
       </c>
       <c r="H846" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I846" t="inlineStr"/>
       <c r="J846" t="inlineStr"/>
@@ -31152,7 +30030,7 @@
         <v>52445.06849495</v>
       </c>
       <c r="H847" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I847" t="inlineStr"/>
       <c r="J847" t="inlineStr"/>
@@ -31185,7 +30063,7 @@
         <v>52445.06849495</v>
       </c>
       <c r="H848" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I848" t="inlineStr"/>
       <c r="J848" t="inlineStr"/>
@@ -31218,7 +30096,7 @@
         <v>52445.06849495</v>
       </c>
       <c r="H849" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I849" t="inlineStr"/>
       <c r="J849" t="inlineStr"/>
@@ -31251,7 +30129,7 @@
         <v>52445.06849495</v>
       </c>
       <c r="H850" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I850" t="inlineStr"/>
       <c r="J850" t="inlineStr"/>
@@ -31284,7 +30162,7 @@
         <v>50899.83369495</v>
       </c>
       <c r="H851" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I851" t="inlineStr"/>
       <c r="J851" t="inlineStr"/>
@@ -31317,7 +30195,7 @@
         <v>50899.83369495</v>
       </c>
       <c r="H852" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I852" t="inlineStr"/>
       <c r="J852" t="inlineStr"/>
@@ -31350,7 +30228,7 @@
         <v>50899.83369495</v>
       </c>
       <c r="H853" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I853" t="inlineStr"/>
       <c r="J853" t="inlineStr"/>
@@ -31383,7 +30261,7 @@
         <v>50899.83369495</v>
       </c>
       <c r="H854" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I854" t="inlineStr"/>
       <c r="J854" t="inlineStr"/>
@@ -31416,7 +30294,7 @@
         <v>50899.83369495</v>
       </c>
       <c r="H855" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I855" t="inlineStr"/>
       <c r="J855" t="inlineStr"/>
@@ -31449,7 +30327,7 @@
         <v>50933.97369495</v>
       </c>
       <c r="H856" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I856" t="inlineStr"/>
       <c r="J856" t="inlineStr"/>
@@ -31482,7 +30360,7 @@
         <v>50927.87369495</v>
       </c>
       <c r="H857" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I857" t="inlineStr"/>
       <c r="J857" t="inlineStr"/>
@@ -31515,7 +30393,7 @@
         <v>50927.87369495</v>
       </c>
       <c r="H858" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I858" t="inlineStr"/>
       <c r="J858" t="inlineStr"/>
@@ -31548,7 +30426,7 @@
         <v>50927.87369495</v>
       </c>
       <c r="H859" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I859" t="inlineStr"/>
       <c r="J859" t="inlineStr"/>
@@ -31581,7 +30459,7 @@
         <v>50914.84969495</v>
       </c>
       <c r="H860" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I860" t="inlineStr"/>
       <c r="J860" t="inlineStr"/>
@@ -31614,7 +30492,7 @@
         <v>50914.84969495</v>
       </c>
       <c r="H861" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I861" t="inlineStr"/>
       <c r="J861" t="inlineStr"/>
@@ -31647,7 +30525,7 @@
         <v>51113.22569495</v>
       </c>
       <c r="H862" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I862" t="inlineStr"/>
       <c r="J862" t="inlineStr"/>
@@ -31680,7 +30558,7 @@
         <v>51113.22569495</v>
       </c>
       <c r="H863" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I863" t="inlineStr"/>
       <c r="J863" t="inlineStr"/>
@@ -31713,7 +30591,7 @@
         <v>51502.72569495</v>
       </c>
       <c r="H864" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I864" t="inlineStr"/>
       <c r="J864" t="inlineStr"/>
@@ -31746,7 +30624,7 @@
         <v>51472.96419495</v>
       </c>
       <c r="H865" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I865" t="inlineStr"/>
       <c r="J865" t="inlineStr"/>
@@ -31779,7 +30657,7 @@
         <v>51472.96419495</v>
       </c>
       <c r="H866" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I866" t="inlineStr"/>
       <c r="J866" t="inlineStr"/>
@@ -31812,7 +30690,7 @@
         <v>51472.96419495</v>
       </c>
       <c r="H867" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I867" t="inlineStr"/>
       <c r="J867" t="inlineStr"/>
@@ -32274,7 +31152,7 @@
         <v>51678.83699495</v>
       </c>
       <c r="H881" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I881" t="inlineStr"/>
       <c r="J881" t="inlineStr"/>
@@ -32307,7 +31185,7 @@
         <v>51678.83699495</v>
       </c>
       <c r="H882" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I882" t="inlineStr"/>
       <c r="J882" t="inlineStr"/>
@@ -32340,7 +31218,7 @@
         <v>51678.83699495</v>
       </c>
       <c r="H883" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I883" t="inlineStr"/>
       <c r="J883" t="inlineStr"/>
@@ -32373,7 +31251,7 @@
         <v>52189.93699495</v>
       </c>
       <c r="H884" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I884" t="inlineStr"/>
       <c r="J884" t="inlineStr"/>
@@ -32406,7 +31284,7 @@
         <v>52175.03699495</v>
       </c>
       <c r="H885" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I885" t="inlineStr"/>
       <c r="J885" t="inlineStr"/>
@@ -32439,7 +31317,7 @@
         <v>52175.03699495</v>
       </c>
       <c r="H886" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I886" t="inlineStr"/>
       <c r="J886" t="inlineStr"/>
@@ -32472,7 +31350,7 @@
         <v>52156.03699495</v>
       </c>
       <c r="H887" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I887" t="inlineStr"/>
       <c r="J887" t="inlineStr"/>
@@ -32505,7 +31383,7 @@
         <v>52156.03699495</v>
       </c>
       <c r="H888" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I888" t="inlineStr"/>
       <c r="J888" t="inlineStr"/>
@@ -32538,7 +31416,7 @@
         <v>52156.03699495</v>
       </c>
       <c r="H889" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I889" t="inlineStr"/>
       <c r="J889" t="inlineStr"/>
@@ -32571,7 +31449,7 @@
         <v>52156.03699495</v>
       </c>
       <c r="H890" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I890" t="inlineStr"/>
       <c r="J890" t="inlineStr"/>
@@ -32604,7 +31482,7 @@
         <v>52156.03699495</v>
       </c>
       <c r="H891" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I891" t="inlineStr"/>
       <c r="J891" t="inlineStr"/>
@@ -32637,7 +31515,7 @@
         <v>52156.03699495</v>
       </c>
       <c r="H892" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I892" t="inlineStr"/>
       <c r="J892" t="inlineStr"/>
@@ -32670,7 +31548,7 @@
         <v>52447.65369495</v>
       </c>
       <c r="H893" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I893" t="inlineStr"/>
       <c r="J893" t="inlineStr"/>
@@ -32703,7 +31581,7 @@
         <v>52217.27039495</v>
       </c>
       <c r="H894" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I894" t="inlineStr"/>
       <c r="J894" t="inlineStr"/>
@@ -32736,7 +31614,7 @@
         <v>52217.27039495</v>
       </c>
       <c r="H895" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I895" t="inlineStr"/>
       <c r="J895" t="inlineStr"/>
@@ -32769,7 +31647,7 @@
         <v>52217.27039495</v>
       </c>
       <c r="H896" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I896" t="inlineStr"/>
       <c r="J896" t="inlineStr"/>
@@ -32802,7 +31680,7 @@
         <v>52217.27039495</v>
       </c>
       <c r="H897" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I897" t="inlineStr"/>
       <c r="J897" t="inlineStr"/>
@@ -32835,7 +31713,7 @@
         <v>52217.27039495</v>
       </c>
       <c r="H898" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I898" t="inlineStr"/>
       <c r="J898" t="inlineStr"/>
@@ -32868,7 +31746,7 @@
         <v>52407.27039495</v>
       </c>
       <c r="H899" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I899" t="inlineStr"/>
       <c r="J899" t="inlineStr"/>
@@ -32901,7 +31779,7 @@
         <v>53187.48719495</v>
       </c>
       <c r="H900" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I900" t="inlineStr"/>
       <c r="J900" t="inlineStr"/>
@@ -32934,7 +31812,7 @@
         <v>53243.22799495</v>
       </c>
       <c r="H901" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I901" t="inlineStr"/>
       <c r="J901" t="inlineStr"/>
@@ -32967,7 +31845,7 @@
         <v>53238.12799495</v>
       </c>
       <c r="H902" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I902" t="inlineStr"/>
       <c r="J902" t="inlineStr"/>
@@ -33000,7 +31878,7 @@
         <v>53238.12799495</v>
       </c>
       <c r="H903" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I903" t="inlineStr"/>
       <c r="J903" t="inlineStr"/>
@@ -33033,7 +31911,7 @@
         <v>53771.52799495</v>
       </c>
       <c r="H904" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I904" t="inlineStr"/>
       <c r="J904" t="inlineStr"/>
@@ -33066,7 +31944,7 @@
         <v>53758.46229495</v>
       </c>
       <c r="H905" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I905" t="inlineStr"/>
       <c r="J905" t="inlineStr"/>
@@ -33099,7 +31977,7 @@
         <v>53754.86229495001</v>
       </c>
       <c r="H906" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I906" t="inlineStr"/>
       <c r="J906" t="inlineStr"/>
@@ -33396,7 +32274,7 @@
         <v>55000.66229495001</v>
       </c>
       <c r="H915" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I915" t="inlineStr"/>
       <c r="J915" t="inlineStr"/>
@@ -33495,7 +32373,7 @@
         <v>55206.26229495001</v>
       </c>
       <c r="H918" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I918" t="inlineStr"/>
       <c r="J918" t="inlineStr"/>
@@ -33528,7 +32406,7 @@
         <v>55187.66229495001</v>
       </c>
       <c r="H919" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I919" t="inlineStr"/>
       <c r="J919" t="inlineStr"/>
@@ -33561,7 +32439,7 @@
         <v>55861.66229495001</v>
       </c>
       <c r="H920" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I920" t="inlineStr"/>
       <c r="J920" t="inlineStr"/>
@@ -33594,7 +32472,7 @@
         <v>55861.66229495001</v>
       </c>
       <c r="H921" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I921" t="inlineStr"/>
       <c r="J921" t="inlineStr"/>
@@ -33627,7 +32505,7 @@
         <v>56023.56229495001</v>
       </c>
       <c r="H922" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I922" t="inlineStr"/>
       <c r="J922" t="inlineStr"/>
@@ -33660,7 +32538,7 @@
         <v>56512.52289495001</v>
       </c>
       <c r="H923" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I923" t="inlineStr"/>
       <c r="J923" t="inlineStr"/>
@@ -33693,7 +32571,7 @@
         <v>56512.52289495001</v>
       </c>
       <c r="H924" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I924" t="inlineStr"/>
       <c r="J924" t="inlineStr"/>
@@ -33726,7 +32604,7 @@
         <v>56512.52289495001</v>
       </c>
       <c r="H925" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I925" t="inlineStr"/>
       <c r="J925" t="inlineStr"/>
@@ -33759,7 +32637,7 @@
         <v>55844.52289495001</v>
       </c>
       <c r="H926" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I926" t="inlineStr"/>
       <c r="J926" t="inlineStr"/>
@@ -33792,7 +32670,7 @@
         <v>55844.52289495001</v>
       </c>
       <c r="H927" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I927" t="inlineStr"/>
       <c r="J927" t="inlineStr"/>
@@ -33825,7 +32703,7 @@
         <v>56022.59789495001</v>
       </c>
       <c r="H928" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I928" t="inlineStr"/>
       <c r="J928" t="inlineStr"/>
@@ -33858,7 +32736,7 @@
         <v>56022.59789495001</v>
       </c>
       <c r="H929" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I929" t="inlineStr"/>
       <c r="J929" t="inlineStr"/>
@@ -33891,7 +32769,7 @@
         <v>56723.59789495001</v>
       </c>
       <c r="H930" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I930" t="inlineStr"/>
       <c r="J930" t="inlineStr"/>
@@ -33957,7 +32835,7 @@
         <v>57571.59789495001</v>
       </c>
       <c r="H932" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I932" t="inlineStr"/>
       <c r="J932" t="inlineStr"/>
@@ -34034,6 +32912,6 @@
       <c r="M934" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-15 BackTest BHP.xlsx
+++ b/BackTest/2020-01-15 BackTest BHP.xlsx
@@ -841,9 +841,11 @@
         <v>5592.3717</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I12" t="n">
+        <v>941</v>
+      </c>
       <c r="J12" t="n">
         <v>939</v>
       </c>
@@ -880,9 +882,11 @@
         <v>5591.6717</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I13" t="n">
+        <v>941</v>
+      </c>
       <c r="J13" t="n">
         <v>939</v>
       </c>
@@ -919,9 +923,11 @@
         <v>5591.6717</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I14" t="n">
+        <v>939</v>
+      </c>
       <c r="J14" t="n">
         <v>939</v>
       </c>
@@ -958,9 +964,11 @@
         <v>5932.6717</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I15" t="n">
+        <v>939</v>
+      </c>
       <c r="J15" t="n">
         <v>939</v>
       </c>
@@ -997,9 +1005,11 @@
         <v>5932.6717</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I16" t="n">
+        <v>941</v>
+      </c>
       <c r="J16" t="n">
         <v>939</v>
       </c>
@@ -1036,9 +1046,11 @@
         <v>5932.6717</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>941</v>
+      </c>
       <c r="J17" t="n">
         <v>939</v>
       </c>
@@ -1075,9 +1087,11 @@
         <v>5927.7717</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I18" t="n">
+        <v>941</v>
+      </c>
       <c r="J18" t="n">
         <v>939</v>
       </c>
@@ -1114,9 +1128,11 @@
         <v>5927.7717</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I19" t="n">
+        <v>939</v>
+      </c>
       <c r="J19" t="n">
         <v>939</v>
       </c>
@@ -1153,9 +1169,11 @@
         <v>5927.7717</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I20" t="n">
+        <v>939</v>
+      </c>
       <c r="J20" t="n">
         <v>939</v>
       </c>
@@ -1192,9 +1210,11 @@
         <v>5924.871700000001</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
-      </c>
-      <c r="I21" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I21" t="n">
+        <v>939</v>
+      </c>
       <c r="J21" t="n">
         <v>939</v>
       </c>
@@ -1231,9 +1251,11 @@
         <v>5924.871700000001</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I22" t="n">
+        <v>937</v>
+      </c>
       <c r="J22" t="n">
         <v>939</v>
       </c>
@@ -1311,9 +1333,11 @@
         <v>6488.3567</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
-      </c>
-      <c r="I24" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I24" t="n">
+        <v>939</v>
+      </c>
       <c r="J24" t="n">
         <v>939</v>
       </c>
@@ -1350,9 +1374,11 @@
         <v>6488.3567</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I25" t="n">
+        <v>939</v>
+      </c>
       <c r="J25" t="n">
         <v>939</v>
       </c>
@@ -1389,9 +1415,11 @@
         <v>6488.3567</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I26" t="n">
+        <v>939</v>
+      </c>
       <c r="J26" t="n">
         <v>939</v>
       </c>
@@ -1428,9 +1456,11 @@
         <v>7062.6567</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
-      </c>
-      <c r="I27" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I27" t="n">
+        <v>939</v>
+      </c>
       <c r="J27" t="n">
         <v>939</v>
       </c>
@@ -1467,9 +1497,11 @@
         <v>7062.6567</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I28" t="n">
+        <v>941</v>
+      </c>
       <c r="J28" t="n">
         <v>939</v>
       </c>
@@ -1506,9 +1538,11 @@
         <v>7062.6567</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I29" t="n">
+        <v>941</v>
+      </c>
       <c r="J29" t="n">
         <v>939</v>
       </c>
@@ -1545,9 +1579,11 @@
         <v>7053.5567</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
-      </c>
-      <c r="I30" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I30" t="n">
+        <v>941</v>
+      </c>
       <c r="J30" t="n">
         <v>939</v>
       </c>
@@ -1584,9 +1620,11 @@
         <v>7053.5567</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
-      </c>
-      <c r="I31" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I31" t="n">
+        <v>939</v>
+      </c>
       <c r="J31" t="n">
         <v>939</v>
       </c>
@@ -1623,9 +1661,11 @@
         <v>7062.6567</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I32" t="n">
+        <v>939</v>
+      </c>
       <c r="J32" t="n">
         <v>939</v>
       </c>
@@ -1662,9 +1702,11 @@
         <v>7173.5567</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
-      </c>
-      <c r="I33" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I33" t="n">
+        <v>941</v>
+      </c>
       <c r="J33" t="n">
         <v>939</v>
       </c>
@@ -1701,9 +1743,11 @@
         <v>7167.0567</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I34" t="n">
+        <v>943</v>
+      </c>
       <c r="J34" t="n">
         <v>939</v>
       </c>
@@ -1740,9 +1784,11 @@
         <v>7167.0567</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I35" t="n">
+        <v>941</v>
+      </c>
       <c r="J35" t="n">
         <v>939</v>
       </c>
@@ -1779,9 +1825,11 @@
         <v>7167.0567</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
-      </c>
-      <c r="I36" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I36" t="n">
+        <v>941</v>
+      </c>
       <c r="J36" t="n">
         <v>939</v>
       </c>
@@ -1818,9 +1866,11 @@
         <v>7167.0567</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
-      </c>
-      <c r="I37" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I37" t="n">
+        <v>941</v>
+      </c>
       <c r="J37" t="n">
         <v>939</v>
       </c>
@@ -1857,9 +1907,11 @@
         <v>7877.0567</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
-      </c>
-      <c r="I38" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I38" t="n">
+        <v>941</v>
+      </c>
       <c r="J38" t="n">
         <v>939</v>
       </c>
@@ -11412,7 +11464,7 @@
         <v>23169.002</v>
       </c>
       <c r="H283" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="n">
@@ -11420,11 +11472,11 @@
       </c>
       <c r="K283" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L283" t="n">
-        <v>1.016299254526092</v>
+        <v>1</v>
       </c>
       <c r="M283" t="inlineStr"/>
     </row>
@@ -11451,11 +11503,17 @@
         <v>23468.002</v>
       </c>
       <c r="H284" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I284" t="inlineStr"/>
-      <c r="J284" t="inlineStr"/>
-      <c r="K284" t="inlineStr"/>
+      <c r="J284" t="n">
+        <v>939</v>
+      </c>
+      <c r="K284" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L284" t="n">
         <v>1</v>
       </c>
@@ -11484,11 +11542,17 @@
         <v>23468.002</v>
       </c>
       <c r="H285" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I285" t="inlineStr"/>
-      <c r="J285" t="inlineStr"/>
-      <c r="K285" t="inlineStr"/>
+      <c r="J285" t="n">
+        <v>939</v>
+      </c>
+      <c r="K285" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L285" t="n">
         <v>1</v>
       </c>
@@ -11517,11 +11581,17 @@
         <v>23451.602</v>
       </c>
       <c r="H286" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I286" t="inlineStr"/>
-      <c r="J286" t="inlineStr"/>
-      <c r="K286" t="inlineStr"/>
+      <c r="J286" t="n">
+        <v>939</v>
+      </c>
+      <c r="K286" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L286" t="n">
         <v>1</v>
       </c>
@@ -11550,11 +11620,17 @@
         <v>23438.90199999999</v>
       </c>
       <c r="H287" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I287" t="inlineStr"/>
-      <c r="J287" t="inlineStr"/>
-      <c r="K287" t="inlineStr"/>
+      <c r="J287" t="n">
+        <v>939</v>
+      </c>
+      <c r="K287" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L287" t="n">
         <v>1</v>
       </c>
@@ -11583,11 +11659,17 @@
         <v>24238.90199999999</v>
       </c>
       <c r="H288" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I288" t="inlineStr"/>
-      <c r="J288" t="inlineStr"/>
-      <c r="K288" t="inlineStr"/>
+      <c r="J288" t="n">
+        <v>939</v>
+      </c>
+      <c r="K288" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L288" t="n">
         <v>1</v>
       </c>
@@ -11616,11 +11698,17 @@
         <v>24238.90199999999</v>
       </c>
       <c r="H289" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I289" t="inlineStr"/>
-      <c r="J289" t="inlineStr"/>
-      <c r="K289" t="inlineStr"/>
+      <c r="J289" t="n">
+        <v>939</v>
+      </c>
+      <c r="K289" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L289" t="n">
         <v>1</v>
       </c>
@@ -11649,11 +11737,17 @@
         <v>25109.90199999999</v>
       </c>
       <c r="H290" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I290" t="inlineStr"/>
-      <c r="J290" t="inlineStr"/>
-      <c r="K290" t="inlineStr"/>
+      <c r="J290" t="n">
+        <v>939</v>
+      </c>
+      <c r="K290" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L290" t="n">
         <v>1</v>
       </c>
@@ -11682,11 +11776,17 @@
         <v>25076.602</v>
       </c>
       <c r="H291" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I291" t="inlineStr"/>
-      <c r="J291" t="inlineStr"/>
-      <c r="K291" t="inlineStr"/>
+      <c r="J291" t="n">
+        <v>939</v>
+      </c>
+      <c r="K291" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L291" t="n">
         <v>1</v>
       </c>
@@ -11715,11 +11815,17 @@
         <v>25064.602</v>
       </c>
       <c r="H292" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I292" t="inlineStr"/>
-      <c r="J292" t="inlineStr"/>
-      <c r="K292" t="inlineStr"/>
+      <c r="J292" t="n">
+        <v>939</v>
+      </c>
+      <c r="K292" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L292" t="n">
         <v>1</v>
       </c>
@@ -11748,11 +11854,17 @@
         <v>25056.802</v>
       </c>
       <c r="H293" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I293" t="inlineStr"/>
-      <c r="J293" t="inlineStr"/>
-      <c r="K293" t="inlineStr"/>
+      <c r="J293" t="n">
+        <v>939</v>
+      </c>
+      <c r="K293" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L293" t="n">
         <v>1</v>
       </c>
@@ -11781,11 +11893,17 @@
         <v>25056.802</v>
       </c>
       <c r="H294" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I294" t="inlineStr"/>
-      <c r="J294" t="inlineStr"/>
-      <c r="K294" t="inlineStr"/>
+      <c r="J294" t="n">
+        <v>939</v>
+      </c>
+      <c r="K294" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L294" t="n">
         <v>1</v>
       </c>
@@ -11814,11 +11932,17 @@
         <v>25801.702</v>
       </c>
       <c r="H295" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I295" t="inlineStr"/>
-      <c r="J295" t="inlineStr"/>
-      <c r="K295" t="inlineStr"/>
+      <c r="J295" t="n">
+        <v>939</v>
+      </c>
+      <c r="K295" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L295" t="n">
         <v>1</v>
       </c>
@@ -11847,11 +11971,17 @@
         <v>25801.702</v>
       </c>
       <c r="H296" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I296" t="inlineStr"/>
-      <c r="J296" t="inlineStr"/>
-      <c r="K296" t="inlineStr"/>
+      <c r="J296" t="n">
+        <v>939</v>
+      </c>
+      <c r="K296" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L296" t="n">
         <v>1</v>
       </c>
@@ -11880,11 +12010,17 @@
         <v>25801.702</v>
       </c>
       <c r="H297" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I297" t="inlineStr"/>
-      <c r="J297" t="inlineStr"/>
-      <c r="K297" t="inlineStr"/>
+      <c r="J297" t="n">
+        <v>939</v>
+      </c>
+      <c r="K297" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L297" t="n">
         <v>1</v>
       </c>
@@ -11913,11 +12049,17 @@
         <v>25801.702</v>
       </c>
       <c r="H298" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I298" t="inlineStr"/>
-      <c r="J298" t="inlineStr"/>
-      <c r="K298" t="inlineStr"/>
+      <c r="J298" t="n">
+        <v>939</v>
+      </c>
+      <c r="K298" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L298" t="n">
         <v>1</v>
       </c>
@@ -11949,8 +12091,14 @@
         <v>0</v>
       </c>
       <c r="I299" t="inlineStr"/>
-      <c r="J299" t="inlineStr"/>
-      <c r="K299" t="inlineStr"/>
+      <c r="J299" t="n">
+        <v>939</v>
+      </c>
+      <c r="K299" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L299" t="n">
         <v>1</v>
       </c>
@@ -11982,8 +12130,14 @@
         <v>0</v>
       </c>
       <c r="I300" t="inlineStr"/>
-      <c r="J300" t="inlineStr"/>
-      <c r="K300" t="inlineStr"/>
+      <c r="J300" t="n">
+        <v>939</v>
+      </c>
+      <c r="K300" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L300" t="n">
         <v>1</v>
       </c>
@@ -12015,8 +12169,14 @@
         <v>0</v>
       </c>
       <c r="I301" t="inlineStr"/>
-      <c r="J301" t="inlineStr"/>
-      <c r="K301" t="inlineStr"/>
+      <c r="J301" t="n">
+        <v>939</v>
+      </c>
+      <c r="K301" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L301" t="n">
         <v>1</v>
       </c>
@@ -12048,8 +12208,14 @@
         <v>0</v>
       </c>
       <c r="I302" t="inlineStr"/>
-      <c r="J302" t="inlineStr"/>
-      <c r="K302" t="inlineStr"/>
+      <c r="J302" t="n">
+        <v>939</v>
+      </c>
+      <c r="K302" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L302" t="n">
         <v>1</v>
       </c>
@@ -12081,8 +12247,14 @@
         <v>0</v>
       </c>
       <c r="I303" t="inlineStr"/>
-      <c r="J303" t="inlineStr"/>
-      <c r="K303" t="inlineStr"/>
+      <c r="J303" t="n">
+        <v>939</v>
+      </c>
+      <c r="K303" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L303" t="n">
         <v>1</v>
       </c>
@@ -12114,8 +12286,14 @@
         <v>0</v>
       </c>
       <c r="I304" t="inlineStr"/>
-      <c r="J304" t="inlineStr"/>
-      <c r="K304" t="inlineStr"/>
+      <c r="J304" t="n">
+        <v>939</v>
+      </c>
+      <c r="K304" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L304" t="n">
         <v>1</v>
       </c>
@@ -12147,8 +12325,14 @@
         <v>0</v>
       </c>
       <c r="I305" t="inlineStr"/>
-      <c r="J305" t="inlineStr"/>
-      <c r="K305" t="inlineStr"/>
+      <c r="J305" t="n">
+        <v>939</v>
+      </c>
+      <c r="K305" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L305" t="n">
         <v>1</v>
       </c>
@@ -12180,8 +12364,14 @@
         <v>0</v>
       </c>
       <c r="I306" t="inlineStr"/>
-      <c r="J306" t="inlineStr"/>
-      <c r="K306" t="inlineStr"/>
+      <c r="J306" t="n">
+        <v>939</v>
+      </c>
+      <c r="K306" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L306" t="n">
         <v>1</v>
       </c>
@@ -12213,8 +12403,14 @@
         <v>0</v>
       </c>
       <c r="I307" t="inlineStr"/>
-      <c r="J307" t="inlineStr"/>
-      <c r="K307" t="inlineStr"/>
+      <c r="J307" t="n">
+        <v>939</v>
+      </c>
+      <c r="K307" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L307" t="n">
         <v>1</v>
       </c>
@@ -12246,8 +12442,14 @@
         <v>0</v>
       </c>
       <c r="I308" t="inlineStr"/>
-      <c r="J308" t="inlineStr"/>
-      <c r="K308" t="inlineStr"/>
+      <c r="J308" t="n">
+        <v>939</v>
+      </c>
+      <c r="K308" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L308" t="n">
         <v>1</v>
       </c>
@@ -12279,8 +12481,14 @@
         <v>0</v>
       </c>
       <c r="I309" t="inlineStr"/>
-      <c r="J309" t="inlineStr"/>
-      <c r="K309" t="inlineStr"/>
+      <c r="J309" t="n">
+        <v>939</v>
+      </c>
+      <c r="K309" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L309" t="n">
         <v>1</v>
       </c>
@@ -12312,8 +12520,14 @@
         <v>0</v>
       </c>
       <c r="I310" t="inlineStr"/>
-      <c r="J310" t="inlineStr"/>
-      <c r="K310" t="inlineStr"/>
+      <c r="J310" t="n">
+        <v>939</v>
+      </c>
+      <c r="K310" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L310" t="n">
         <v>1</v>
       </c>
@@ -12345,8 +12559,14 @@
         <v>0</v>
       </c>
       <c r="I311" t="inlineStr"/>
-      <c r="J311" t="inlineStr"/>
-      <c r="K311" t="inlineStr"/>
+      <c r="J311" t="n">
+        <v>939</v>
+      </c>
+      <c r="K311" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L311" t="n">
         <v>1</v>
       </c>
@@ -12378,8 +12598,14 @@
         <v>0</v>
       </c>
       <c r="I312" t="inlineStr"/>
-      <c r="J312" t="inlineStr"/>
-      <c r="K312" t="inlineStr"/>
+      <c r="J312" t="n">
+        <v>939</v>
+      </c>
+      <c r="K312" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L312" t="n">
         <v>1</v>
       </c>
@@ -12411,8 +12637,14 @@
         <v>0</v>
       </c>
       <c r="I313" t="inlineStr"/>
-      <c r="J313" t="inlineStr"/>
-      <c r="K313" t="inlineStr"/>
+      <c r="J313" t="n">
+        <v>939</v>
+      </c>
+      <c r="K313" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L313" t="n">
         <v>1</v>
       </c>
@@ -12444,8 +12676,14 @@
         <v>0</v>
       </c>
       <c r="I314" t="inlineStr"/>
-      <c r="J314" t="inlineStr"/>
-      <c r="K314" t="inlineStr"/>
+      <c r="J314" t="n">
+        <v>939</v>
+      </c>
+      <c r="K314" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L314" t="n">
         <v>1</v>
       </c>
@@ -12477,8 +12715,14 @@
         <v>0</v>
       </c>
       <c r="I315" t="inlineStr"/>
-      <c r="J315" t="inlineStr"/>
-      <c r="K315" t="inlineStr"/>
+      <c r="J315" t="n">
+        <v>939</v>
+      </c>
+      <c r="K315" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L315" t="n">
         <v>1</v>
       </c>
@@ -12510,8 +12754,14 @@
         <v>0</v>
       </c>
       <c r="I316" t="inlineStr"/>
-      <c r="J316" t="inlineStr"/>
-      <c r="K316" t="inlineStr"/>
+      <c r="J316" t="n">
+        <v>939</v>
+      </c>
+      <c r="K316" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L316" t="n">
         <v>1</v>
       </c>
@@ -12543,8 +12793,14 @@
         <v>0</v>
       </c>
       <c r="I317" t="inlineStr"/>
-      <c r="J317" t="inlineStr"/>
-      <c r="K317" t="inlineStr"/>
+      <c r="J317" t="n">
+        <v>939</v>
+      </c>
+      <c r="K317" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L317" t="n">
         <v>1</v>
       </c>
@@ -12576,8 +12832,14 @@
         <v>0</v>
       </c>
       <c r="I318" t="inlineStr"/>
-      <c r="J318" t="inlineStr"/>
-      <c r="K318" t="inlineStr"/>
+      <c r="J318" t="n">
+        <v>939</v>
+      </c>
+      <c r="K318" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L318" t="n">
         <v>1</v>
       </c>
@@ -12609,8 +12871,14 @@
         <v>0</v>
       </c>
       <c r="I319" t="inlineStr"/>
-      <c r="J319" t="inlineStr"/>
-      <c r="K319" t="inlineStr"/>
+      <c r="J319" t="n">
+        <v>939</v>
+      </c>
+      <c r="K319" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L319" t="n">
         <v>1</v>
       </c>
@@ -12642,8 +12910,14 @@
         <v>0</v>
       </c>
       <c r="I320" t="inlineStr"/>
-      <c r="J320" t="inlineStr"/>
-      <c r="K320" t="inlineStr"/>
+      <c r="J320" t="n">
+        <v>939</v>
+      </c>
+      <c r="K320" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L320" t="n">
         <v>1</v>
       </c>
@@ -12675,8 +12949,14 @@
         <v>0</v>
       </c>
       <c r="I321" t="inlineStr"/>
-      <c r="J321" t="inlineStr"/>
-      <c r="K321" t="inlineStr"/>
+      <c r="J321" t="n">
+        <v>939</v>
+      </c>
+      <c r="K321" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L321" t="n">
         <v>1</v>
       </c>
@@ -12708,8 +12988,14 @@
         <v>0</v>
       </c>
       <c r="I322" t="inlineStr"/>
-      <c r="J322" t="inlineStr"/>
-      <c r="K322" t="inlineStr"/>
+      <c r="J322" t="n">
+        <v>939</v>
+      </c>
+      <c r="K322" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L322" t="n">
         <v>1</v>
       </c>
@@ -12741,8 +13027,14 @@
         <v>0</v>
       </c>
       <c r="I323" t="inlineStr"/>
-      <c r="J323" t="inlineStr"/>
-      <c r="K323" t="inlineStr"/>
+      <c r="J323" t="n">
+        <v>939</v>
+      </c>
+      <c r="K323" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L323" t="n">
         <v>1</v>
       </c>
@@ -12774,8 +13066,14 @@
         <v>0</v>
       </c>
       <c r="I324" t="inlineStr"/>
-      <c r="J324" t="inlineStr"/>
-      <c r="K324" t="inlineStr"/>
+      <c r="J324" t="n">
+        <v>939</v>
+      </c>
+      <c r="K324" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L324" t="n">
         <v>1</v>
       </c>
@@ -12807,8 +13105,14 @@
         <v>0</v>
       </c>
       <c r="I325" t="inlineStr"/>
-      <c r="J325" t="inlineStr"/>
-      <c r="K325" t="inlineStr"/>
+      <c r="J325" t="n">
+        <v>939</v>
+      </c>
+      <c r="K325" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L325" t="n">
         <v>1</v>
       </c>
@@ -12840,8 +13144,14 @@
         <v>0</v>
       </c>
       <c r="I326" t="inlineStr"/>
-      <c r="J326" t="inlineStr"/>
-      <c r="K326" t="inlineStr"/>
+      <c r="J326" t="n">
+        <v>939</v>
+      </c>
+      <c r="K326" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L326" t="n">
         <v>1</v>
       </c>
@@ -12873,8 +13183,14 @@
         <v>0</v>
       </c>
       <c r="I327" t="inlineStr"/>
-      <c r="J327" t="inlineStr"/>
-      <c r="K327" t="inlineStr"/>
+      <c r="J327" t="n">
+        <v>939</v>
+      </c>
+      <c r="K327" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L327" t="n">
         <v>1</v>
       </c>
@@ -12906,8 +13222,14 @@
         <v>0</v>
       </c>
       <c r="I328" t="inlineStr"/>
-      <c r="J328" t="inlineStr"/>
-      <c r="K328" t="inlineStr"/>
+      <c r="J328" t="n">
+        <v>939</v>
+      </c>
+      <c r="K328" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L328" t="n">
         <v>1</v>
       </c>
@@ -12939,8 +13261,14 @@
         <v>0</v>
       </c>
       <c r="I329" t="inlineStr"/>
-      <c r="J329" t="inlineStr"/>
-      <c r="K329" t="inlineStr"/>
+      <c r="J329" t="n">
+        <v>939</v>
+      </c>
+      <c r="K329" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L329" t="n">
         <v>1</v>
       </c>
@@ -12972,8 +13300,14 @@
         <v>0</v>
       </c>
       <c r="I330" t="inlineStr"/>
-      <c r="J330" t="inlineStr"/>
-      <c r="K330" t="inlineStr"/>
+      <c r="J330" t="n">
+        <v>939</v>
+      </c>
+      <c r="K330" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L330" t="n">
         <v>1</v>
       </c>
@@ -13005,8 +13339,14 @@
         <v>0</v>
       </c>
       <c r="I331" t="inlineStr"/>
-      <c r="J331" t="inlineStr"/>
-      <c r="K331" t="inlineStr"/>
+      <c r="J331" t="n">
+        <v>939</v>
+      </c>
+      <c r="K331" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L331" t="n">
         <v>1</v>
       </c>
@@ -13038,8 +13378,14 @@
         <v>0</v>
       </c>
       <c r="I332" t="inlineStr"/>
-      <c r="J332" t="inlineStr"/>
-      <c r="K332" t="inlineStr"/>
+      <c r="J332" t="n">
+        <v>939</v>
+      </c>
+      <c r="K332" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L332" t="n">
         <v>1</v>
       </c>
@@ -13071,8 +13417,14 @@
         <v>0</v>
       </c>
       <c r="I333" t="inlineStr"/>
-      <c r="J333" t="inlineStr"/>
-      <c r="K333" t="inlineStr"/>
+      <c r="J333" t="n">
+        <v>939</v>
+      </c>
+      <c r="K333" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L333" t="n">
         <v>1</v>
       </c>
@@ -13104,8 +13456,14 @@
         <v>0</v>
       </c>
       <c r="I334" t="inlineStr"/>
-      <c r="J334" t="inlineStr"/>
-      <c r="K334" t="inlineStr"/>
+      <c r="J334" t="n">
+        <v>939</v>
+      </c>
+      <c r="K334" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L334" t="n">
         <v>1</v>
       </c>
@@ -13137,8 +13495,14 @@
         <v>0</v>
       </c>
       <c r="I335" t="inlineStr"/>
-      <c r="J335" t="inlineStr"/>
-      <c r="K335" t="inlineStr"/>
+      <c r="J335" t="n">
+        <v>939</v>
+      </c>
+      <c r="K335" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L335" t="n">
         <v>1</v>
       </c>
@@ -13170,8 +13534,14 @@
         <v>0</v>
       </c>
       <c r="I336" t="inlineStr"/>
-      <c r="J336" t="inlineStr"/>
-      <c r="K336" t="inlineStr"/>
+      <c r="J336" t="n">
+        <v>939</v>
+      </c>
+      <c r="K336" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L336" t="n">
         <v>1</v>
       </c>
@@ -13203,8 +13573,14 @@
         <v>0</v>
       </c>
       <c r="I337" t="inlineStr"/>
-      <c r="J337" t="inlineStr"/>
-      <c r="K337" t="inlineStr"/>
+      <c r="J337" t="n">
+        <v>939</v>
+      </c>
+      <c r="K337" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L337" t="n">
         <v>1</v>
       </c>
@@ -13236,8 +13612,14 @@
         <v>0</v>
       </c>
       <c r="I338" t="inlineStr"/>
-      <c r="J338" t="inlineStr"/>
-      <c r="K338" t="inlineStr"/>
+      <c r="J338" t="n">
+        <v>939</v>
+      </c>
+      <c r="K338" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L338" t="n">
         <v>1</v>
       </c>
@@ -13269,8 +13651,14 @@
         <v>0</v>
       </c>
       <c r="I339" t="inlineStr"/>
-      <c r="J339" t="inlineStr"/>
-      <c r="K339" t="inlineStr"/>
+      <c r="J339" t="n">
+        <v>939</v>
+      </c>
+      <c r="K339" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L339" t="n">
         <v>1</v>
       </c>
@@ -13302,8 +13690,14 @@
         <v>0</v>
       </c>
       <c r="I340" t="inlineStr"/>
-      <c r="J340" t="inlineStr"/>
-      <c r="K340" t="inlineStr"/>
+      <c r="J340" t="n">
+        <v>939</v>
+      </c>
+      <c r="K340" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L340" t="n">
         <v>1</v>
       </c>
@@ -13335,8 +13729,14 @@
         <v>0</v>
       </c>
       <c r="I341" t="inlineStr"/>
-      <c r="J341" t="inlineStr"/>
-      <c r="K341" t="inlineStr"/>
+      <c r="J341" t="n">
+        <v>939</v>
+      </c>
+      <c r="K341" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L341" t="n">
         <v>1</v>
       </c>
@@ -13368,8 +13768,14 @@
         <v>0</v>
       </c>
       <c r="I342" t="inlineStr"/>
-      <c r="J342" t="inlineStr"/>
-      <c r="K342" t="inlineStr"/>
+      <c r="J342" t="n">
+        <v>939</v>
+      </c>
+      <c r="K342" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L342" t="n">
         <v>1</v>
       </c>
@@ -13401,8 +13807,14 @@
         <v>0</v>
       </c>
       <c r="I343" t="inlineStr"/>
-      <c r="J343" t="inlineStr"/>
-      <c r="K343" t="inlineStr"/>
+      <c r="J343" t="n">
+        <v>939</v>
+      </c>
+      <c r="K343" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L343" t="n">
         <v>1</v>
       </c>
@@ -13434,8 +13846,14 @@
         <v>0</v>
       </c>
       <c r="I344" t="inlineStr"/>
-      <c r="J344" t="inlineStr"/>
-      <c r="K344" t="inlineStr"/>
+      <c r="J344" t="n">
+        <v>939</v>
+      </c>
+      <c r="K344" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L344" t="n">
         <v>1</v>
       </c>
@@ -13467,8 +13885,14 @@
         <v>0</v>
       </c>
       <c r="I345" t="inlineStr"/>
-      <c r="J345" t="inlineStr"/>
-      <c r="K345" t="inlineStr"/>
+      <c r="J345" t="n">
+        <v>939</v>
+      </c>
+      <c r="K345" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L345" t="n">
         <v>1</v>
       </c>
@@ -13500,8 +13924,14 @@
         <v>0</v>
       </c>
       <c r="I346" t="inlineStr"/>
-      <c r="J346" t="inlineStr"/>
-      <c r="K346" t="inlineStr"/>
+      <c r="J346" t="n">
+        <v>939</v>
+      </c>
+      <c r="K346" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L346" t="n">
         <v>1</v>
       </c>
@@ -13533,8 +13963,14 @@
         <v>0</v>
       </c>
       <c r="I347" t="inlineStr"/>
-      <c r="J347" t="inlineStr"/>
-      <c r="K347" t="inlineStr"/>
+      <c r="J347" t="n">
+        <v>939</v>
+      </c>
+      <c r="K347" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L347" t="n">
         <v>1</v>
       </c>
@@ -13566,8 +14002,14 @@
         <v>0</v>
       </c>
       <c r="I348" t="inlineStr"/>
-      <c r="J348" t="inlineStr"/>
-      <c r="K348" t="inlineStr"/>
+      <c r="J348" t="n">
+        <v>939</v>
+      </c>
+      <c r="K348" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L348" t="n">
         <v>1</v>
       </c>
@@ -13599,8 +14041,14 @@
         <v>0</v>
       </c>
       <c r="I349" t="inlineStr"/>
-      <c r="J349" t="inlineStr"/>
-      <c r="K349" t="inlineStr"/>
+      <c r="J349" t="n">
+        <v>939</v>
+      </c>
+      <c r="K349" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L349" t="n">
         <v>1</v>
       </c>
@@ -13632,8 +14080,14 @@
         <v>0</v>
       </c>
       <c r="I350" t="inlineStr"/>
-      <c r="J350" t="inlineStr"/>
-      <c r="K350" t="inlineStr"/>
+      <c r="J350" t="n">
+        <v>939</v>
+      </c>
+      <c r="K350" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L350" t="n">
         <v>1</v>
       </c>
@@ -13665,8 +14119,14 @@
         <v>0</v>
       </c>
       <c r="I351" t="inlineStr"/>
-      <c r="J351" t="inlineStr"/>
-      <c r="K351" t="inlineStr"/>
+      <c r="J351" t="n">
+        <v>939</v>
+      </c>
+      <c r="K351" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L351" t="n">
         <v>1</v>
       </c>
@@ -13698,8 +14158,14 @@
         <v>0</v>
       </c>
       <c r="I352" t="inlineStr"/>
-      <c r="J352" t="inlineStr"/>
-      <c r="K352" t="inlineStr"/>
+      <c r="J352" t="n">
+        <v>939</v>
+      </c>
+      <c r="K352" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L352" t="n">
         <v>1</v>
       </c>
@@ -13731,8 +14197,14 @@
         <v>0</v>
       </c>
       <c r="I353" t="inlineStr"/>
-      <c r="J353" t="inlineStr"/>
-      <c r="K353" t="inlineStr"/>
+      <c r="J353" t="n">
+        <v>939</v>
+      </c>
+      <c r="K353" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L353" t="n">
         <v>1</v>
       </c>
@@ -13764,8 +14236,14 @@
         <v>0</v>
       </c>
       <c r="I354" t="inlineStr"/>
-      <c r="J354" t="inlineStr"/>
-      <c r="K354" t="inlineStr"/>
+      <c r="J354" t="n">
+        <v>939</v>
+      </c>
+      <c r="K354" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L354" t="n">
         <v>1</v>
       </c>
@@ -13797,8 +14275,14 @@
         <v>0</v>
       </c>
       <c r="I355" t="inlineStr"/>
-      <c r="J355" t="inlineStr"/>
-      <c r="K355" t="inlineStr"/>
+      <c r="J355" t="n">
+        <v>939</v>
+      </c>
+      <c r="K355" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L355" t="n">
         <v>1</v>
       </c>
@@ -13830,8 +14314,14 @@
         <v>0</v>
       </c>
       <c r="I356" t="inlineStr"/>
-      <c r="J356" t="inlineStr"/>
-      <c r="K356" t="inlineStr"/>
+      <c r="J356" t="n">
+        <v>939</v>
+      </c>
+      <c r="K356" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L356" t="n">
         <v>1</v>
       </c>
@@ -13863,8 +14353,14 @@
         <v>0</v>
       </c>
       <c r="I357" t="inlineStr"/>
-      <c r="J357" t="inlineStr"/>
-      <c r="K357" t="inlineStr"/>
+      <c r="J357" t="n">
+        <v>939</v>
+      </c>
+      <c r="K357" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L357" t="n">
         <v>1</v>
       </c>
@@ -13896,8 +14392,14 @@
         <v>0</v>
       </c>
       <c r="I358" t="inlineStr"/>
-      <c r="J358" t="inlineStr"/>
-      <c r="K358" t="inlineStr"/>
+      <c r="J358" t="n">
+        <v>939</v>
+      </c>
+      <c r="K358" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L358" t="n">
         <v>1</v>
       </c>
@@ -13929,8 +14431,14 @@
         <v>0</v>
       </c>
       <c r="I359" t="inlineStr"/>
-      <c r="J359" t="inlineStr"/>
-      <c r="K359" t="inlineStr"/>
+      <c r="J359" t="n">
+        <v>939</v>
+      </c>
+      <c r="K359" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L359" t="n">
         <v>1</v>
       </c>
@@ -13962,8 +14470,14 @@
         <v>0</v>
       </c>
       <c r="I360" t="inlineStr"/>
-      <c r="J360" t="inlineStr"/>
-      <c r="K360" t="inlineStr"/>
+      <c r="J360" t="n">
+        <v>939</v>
+      </c>
+      <c r="K360" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L360" t="n">
         <v>1</v>
       </c>
@@ -13995,8 +14509,14 @@
         <v>0</v>
       </c>
       <c r="I361" t="inlineStr"/>
-      <c r="J361" t="inlineStr"/>
-      <c r="K361" t="inlineStr"/>
+      <c r="J361" t="n">
+        <v>939</v>
+      </c>
+      <c r="K361" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L361" t="n">
         <v>1</v>
       </c>
@@ -14028,8 +14548,14 @@
         <v>0</v>
       </c>
       <c r="I362" t="inlineStr"/>
-      <c r="J362" t="inlineStr"/>
-      <c r="K362" t="inlineStr"/>
+      <c r="J362" t="n">
+        <v>939</v>
+      </c>
+      <c r="K362" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L362" t="n">
         <v>1</v>
       </c>
@@ -14061,8 +14587,14 @@
         <v>0</v>
       </c>
       <c r="I363" t="inlineStr"/>
-      <c r="J363" t="inlineStr"/>
-      <c r="K363" t="inlineStr"/>
+      <c r="J363" t="n">
+        <v>939</v>
+      </c>
+      <c r="K363" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L363" t="n">
         <v>1</v>
       </c>
@@ -14094,8 +14626,14 @@
         <v>0</v>
       </c>
       <c r="I364" t="inlineStr"/>
-      <c r="J364" t="inlineStr"/>
-      <c r="K364" t="inlineStr"/>
+      <c r="J364" t="n">
+        <v>939</v>
+      </c>
+      <c r="K364" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L364" t="n">
         <v>1</v>
       </c>
@@ -14127,8 +14665,14 @@
         <v>0</v>
       </c>
       <c r="I365" t="inlineStr"/>
-      <c r="J365" t="inlineStr"/>
-      <c r="K365" t="inlineStr"/>
+      <c r="J365" t="n">
+        <v>939</v>
+      </c>
+      <c r="K365" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L365" t="n">
         <v>1</v>
       </c>
@@ -14160,8 +14704,14 @@
         <v>0</v>
       </c>
       <c r="I366" t="inlineStr"/>
-      <c r="J366" t="inlineStr"/>
-      <c r="K366" t="inlineStr"/>
+      <c r="J366" t="n">
+        <v>939</v>
+      </c>
+      <c r="K366" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L366" t="n">
         <v>1</v>
       </c>
@@ -14193,8 +14743,14 @@
         <v>0</v>
       </c>
       <c r="I367" t="inlineStr"/>
-      <c r="J367" t="inlineStr"/>
-      <c r="K367" t="inlineStr"/>
+      <c r="J367" t="n">
+        <v>939</v>
+      </c>
+      <c r="K367" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L367" t="n">
         <v>1</v>
       </c>
@@ -14226,8 +14782,14 @@
         <v>0</v>
       </c>
       <c r="I368" t="inlineStr"/>
-      <c r="J368" t="inlineStr"/>
-      <c r="K368" t="inlineStr"/>
+      <c r="J368" t="n">
+        <v>939</v>
+      </c>
+      <c r="K368" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L368" t="n">
         <v>1</v>
       </c>
@@ -14259,8 +14821,14 @@
         <v>0</v>
       </c>
       <c r="I369" t="inlineStr"/>
-      <c r="J369" t="inlineStr"/>
-      <c r="K369" t="inlineStr"/>
+      <c r="J369" t="n">
+        <v>939</v>
+      </c>
+      <c r="K369" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L369" t="n">
         <v>1</v>
       </c>
@@ -14292,8 +14860,14 @@
         <v>0</v>
       </c>
       <c r="I370" t="inlineStr"/>
-      <c r="J370" t="inlineStr"/>
-      <c r="K370" t="inlineStr"/>
+      <c r="J370" t="n">
+        <v>939</v>
+      </c>
+      <c r="K370" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L370" t="n">
         <v>1</v>
       </c>
@@ -14325,8 +14899,14 @@
         <v>0</v>
       </c>
       <c r="I371" t="inlineStr"/>
-      <c r="J371" t="inlineStr"/>
-      <c r="K371" t="inlineStr"/>
+      <c r="J371" t="n">
+        <v>939</v>
+      </c>
+      <c r="K371" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L371" t="n">
         <v>1</v>
       </c>
@@ -14358,8 +14938,14 @@
         <v>0</v>
       </c>
       <c r="I372" t="inlineStr"/>
-      <c r="J372" t="inlineStr"/>
-      <c r="K372" t="inlineStr"/>
+      <c r="J372" t="n">
+        <v>939</v>
+      </c>
+      <c r="K372" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L372" t="n">
         <v>1</v>
       </c>
@@ -14391,8 +14977,14 @@
         <v>0</v>
       </c>
       <c r="I373" t="inlineStr"/>
-      <c r="J373" t="inlineStr"/>
-      <c r="K373" t="inlineStr"/>
+      <c r="J373" t="n">
+        <v>939</v>
+      </c>
+      <c r="K373" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L373" t="n">
         <v>1</v>
       </c>
@@ -14424,8 +15016,14 @@
         <v>0</v>
       </c>
       <c r="I374" t="inlineStr"/>
-      <c r="J374" t="inlineStr"/>
-      <c r="K374" t="inlineStr"/>
+      <c r="J374" t="n">
+        <v>939</v>
+      </c>
+      <c r="K374" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L374" t="n">
         <v>1</v>
       </c>
@@ -14457,8 +15055,14 @@
         <v>0</v>
       </c>
       <c r="I375" t="inlineStr"/>
-      <c r="J375" t="inlineStr"/>
-      <c r="K375" t="inlineStr"/>
+      <c r="J375" t="n">
+        <v>939</v>
+      </c>
+      <c r="K375" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L375" t="n">
         <v>1</v>
       </c>
@@ -14490,8 +15094,14 @@
         <v>0</v>
       </c>
       <c r="I376" t="inlineStr"/>
-      <c r="J376" t="inlineStr"/>
-      <c r="K376" t="inlineStr"/>
+      <c r="J376" t="n">
+        <v>939</v>
+      </c>
+      <c r="K376" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L376" t="n">
         <v>1</v>
       </c>
@@ -14523,8 +15133,14 @@
         <v>0</v>
       </c>
       <c r="I377" t="inlineStr"/>
-      <c r="J377" t="inlineStr"/>
-      <c r="K377" t="inlineStr"/>
+      <c r="J377" t="n">
+        <v>939</v>
+      </c>
+      <c r="K377" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L377" t="n">
         <v>1</v>
       </c>
@@ -14556,8 +15172,14 @@
         <v>0</v>
       </c>
       <c r="I378" t="inlineStr"/>
-      <c r="J378" t="inlineStr"/>
-      <c r="K378" t="inlineStr"/>
+      <c r="J378" t="n">
+        <v>939</v>
+      </c>
+      <c r="K378" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L378" t="n">
         <v>1</v>
       </c>
@@ -14589,8 +15211,14 @@
         <v>0</v>
       </c>
       <c r="I379" t="inlineStr"/>
-      <c r="J379" t="inlineStr"/>
-      <c r="K379" t="inlineStr"/>
+      <c r="J379" t="n">
+        <v>939</v>
+      </c>
+      <c r="K379" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L379" t="n">
         <v>1</v>
       </c>
@@ -14622,8 +15250,14 @@
         <v>0</v>
       </c>
       <c r="I380" t="inlineStr"/>
-      <c r="J380" t="inlineStr"/>
-      <c r="K380" t="inlineStr"/>
+      <c r="J380" t="n">
+        <v>939</v>
+      </c>
+      <c r="K380" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L380" t="n">
         <v>1</v>
       </c>
@@ -14655,8 +15289,14 @@
         <v>0</v>
       </c>
       <c r="I381" t="inlineStr"/>
-      <c r="J381" t="inlineStr"/>
-      <c r="K381" t="inlineStr"/>
+      <c r="J381" t="n">
+        <v>939</v>
+      </c>
+      <c r="K381" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L381" t="n">
         <v>1</v>
       </c>
@@ -14688,8 +15328,14 @@
         <v>0</v>
       </c>
       <c r="I382" t="inlineStr"/>
-      <c r="J382" t="inlineStr"/>
-      <c r="K382" t="inlineStr"/>
+      <c r="J382" t="n">
+        <v>939</v>
+      </c>
+      <c r="K382" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L382" t="n">
         <v>1</v>
       </c>
@@ -14721,8 +15367,14 @@
         <v>0</v>
       </c>
       <c r="I383" t="inlineStr"/>
-      <c r="J383" t="inlineStr"/>
-      <c r="K383" t="inlineStr"/>
+      <c r="J383" t="n">
+        <v>939</v>
+      </c>
+      <c r="K383" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L383" t="n">
         <v>1</v>
       </c>
@@ -14754,8 +15406,14 @@
         <v>0</v>
       </c>
       <c r="I384" t="inlineStr"/>
-      <c r="J384" t="inlineStr"/>
-      <c r="K384" t="inlineStr"/>
+      <c r="J384" t="n">
+        <v>939</v>
+      </c>
+      <c r="K384" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L384" t="n">
         <v>1</v>
       </c>
@@ -14787,8 +15445,14 @@
         <v>0</v>
       </c>
       <c r="I385" t="inlineStr"/>
-      <c r="J385" t="inlineStr"/>
-      <c r="K385" t="inlineStr"/>
+      <c r="J385" t="n">
+        <v>939</v>
+      </c>
+      <c r="K385" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L385" t="n">
         <v>1</v>
       </c>
@@ -14820,8 +15484,14 @@
         <v>0</v>
       </c>
       <c r="I386" t="inlineStr"/>
-      <c r="J386" t="inlineStr"/>
-      <c r="K386" t="inlineStr"/>
+      <c r="J386" t="n">
+        <v>939</v>
+      </c>
+      <c r="K386" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L386" t="n">
         <v>1</v>
       </c>
@@ -14853,8 +15523,14 @@
         <v>0</v>
       </c>
       <c r="I387" t="inlineStr"/>
-      <c r="J387" t="inlineStr"/>
-      <c r="K387" t="inlineStr"/>
+      <c r="J387" t="n">
+        <v>939</v>
+      </c>
+      <c r="K387" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L387" t="n">
         <v>1</v>
       </c>
@@ -14886,8 +15562,14 @@
         <v>0</v>
       </c>
       <c r="I388" t="inlineStr"/>
-      <c r="J388" t="inlineStr"/>
-      <c r="K388" t="inlineStr"/>
+      <c r="J388" t="n">
+        <v>939</v>
+      </c>
+      <c r="K388" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L388" t="n">
         <v>1</v>
       </c>
@@ -14919,8 +15601,14 @@
         <v>0</v>
       </c>
       <c r="I389" t="inlineStr"/>
-      <c r="J389" t="inlineStr"/>
-      <c r="K389" t="inlineStr"/>
+      <c r="J389" t="n">
+        <v>939</v>
+      </c>
+      <c r="K389" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L389" t="n">
         <v>1</v>
       </c>
@@ -14952,8 +15640,14 @@
         <v>0</v>
       </c>
       <c r="I390" t="inlineStr"/>
-      <c r="J390" t="inlineStr"/>
-      <c r="K390" t="inlineStr"/>
+      <c r="J390" t="n">
+        <v>939</v>
+      </c>
+      <c r="K390" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L390" t="n">
         <v>1</v>
       </c>
@@ -14985,8 +15679,14 @@
         <v>0</v>
       </c>
       <c r="I391" t="inlineStr"/>
-      <c r="J391" t="inlineStr"/>
-      <c r="K391" t="inlineStr"/>
+      <c r="J391" t="n">
+        <v>939</v>
+      </c>
+      <c r="K391" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L391" t="n">
         <v>1</v>
       </c>
@@ -15018,8 +15718,14 @@
         <v>0</v>
       </c>
       <c r="I392" t="inlineStr"/>
-      <c r="J392" t="inlineStr"/>
-      <c r="K392" t="inlineStr"/>
+      <c r="J392" t="n">
+        <v>939</v>
+      </c>
+      <c r="K392" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L392" t="n">
         <v>1</v>
       </c>
@@ -15051,8 +15757,14 @@
         <v>0</v>
       </c>
       <c r="I393" t="inlineStr"/>
-      <c r="J393" t="inlineStr"/>
-      <c r="K393" t="inlineStr"/>
+      <c r="J393" t="n">
+        <v>939</v>
+      </c>
+      <c r="K393" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L393" t="n">
         <v>1</v>
       </c>
@@ -15084,8 +15796,14 @@
         <v>0</v>
       </c>
       <c r="I394" t="inlineStr"/>
-      <c r="J394" t="inlineStr"/>
-      <c r="K394" t="inlineStr"/>
+      <c r="J394" t="n">
+        <v>939</v>
+      </c>
+      <c r="K394" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L394" t="n">
         <v>1</v>
       </c>
@@ -15117,8 +15835,14 @@
         <v>0</v>
       </c>
       <c r="I395" t="inlineStr"/>
-      <c r="J395" t="inlineStr"/>
-      <c r="K395" t="inlineStr"/>
+      <c r="J395" t="n">
+        <v>939</v>
+      </c>
+      <c r="K395" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L395" t="n">
         <v>1</v>
       </c>
@@ -15150,8 +15874,14 @@
         <v>0</v>
       </c>
       <c r="I396" t="inlineStr"/>
-      <c r="J396" t="inlineStr"/>
-      <c r="K396" t="inlineStr"/>
+      <c r="J396" t="n">
+        <v>939</v>
+      </c>
+      <c r="K396" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L396" t="n">
         <v>1</v>
       </c>
@@ -15183,8 +15913,14 @@
         <v>0</v>
       </c>
       <c r="I397" t="inlineStr"/>
-      <c r="J397" t="inlineStr"/>
-      <c r="K397" t="inlineStr"/>
+      <c r="J397" t="n">
+        <v>939</v>
+      </c>
+      <c r="K397" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L397" t="n">
         <v>1</v>
       </c>
@@ -15216,8 +15952,14 @@
         <v>0</v>
       </c>
       <c r="I398" t="inlineStr"/>
-      <c r="J398" t="inlineStr"/>
-      <c r="K398" t="inlineStr"/>
+      <c r="J398" t="n">
+        <v>939</v>
+      </c>
+      <c r="K398" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L398" t="n">
         <v>1</v>
       </c>
@@ -15249,8 +15991,14 @@
         <v>0</v>
       </c>
       <c r="I399" t="inlineStr"/>
-      <c r="J399" t="inlineStr"/>
-      <c r="K399" t="inlineStr"/>
+      <c r="J399" t="n">
+        <v>939</v>
+      </c>
+      <c r="K399" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L399" t="n">
         <v>1</v>
       </c>
@@ -15282,8 +16030,14 @@
         <v>0</v>
       </c>
       <c r="I400" t="inlineStr"/>
-      <c r="J400" t="inlineStr"/>
-      <c r="K400" t="inlineStr"/>
+      <c r="J400" t="n">
+        <v>939</v>
+      </c>
+      <c r="K400" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L400" t="n">
         <v>1</v>
       </c>
@@ -15315,8 +16069,14 @@
         <v>0</v>
       </c>
       <c r="I401" t="inlineStr"/>
-      <c r="J401" t="inlineStr"/>
-      <c r="K401" t="inlineStr"/>
+      <c r="J401" t="n">
+        <v>939</v>
+      </c>
+      <c r="K401" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L401" t="n">
         <v>1</v>
       </c>
@@ -15348,8 +16108,14 @@
         <v>0</v>
       </c>
       <c r="I402" t="inlineStr"/>
-      <c r="J402" t="inlineStr"/>
-      <c r="K402" t="inlineStr"/>
+      <c r="J402" t="n">
+        <v>939</v>
+      </c>
+      <c r="K402" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L402" t="n">
         <v>1</v>
       </c>
@@ -15381,8 +16147,14 @@
         <v>0</v>
       </c>
       <c r="I403" t="inlineStr"/>
-      <c r="J403" t="inlineStr"/>
-      <c r="K403" t="inlineStr"/>
+      <c r="J403" t="n">
+        <v>939</v>
+      </c>
+      <c r="K403" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L403" t="n">
         <v>1</v>
       </c>
@@ -15414,8 +16186,14 @@
         <v>0</v>
       </c>
       <c r="I404" t="inlineStr"/>
-      <c r="J404" t="inlineStr"/>
-      <c r="K404" t="inlineStr"/>
+      <c r="J404" t="n">
+        <v>939</v>
+      </c>
+      <c r="K404" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L404" t="n">
         <v>1</v>
       </c>
@@ -15447,8 +16225,14 @@
         <v>0</v>
       </c>
       <c r="I405" t="inlineStr"/>
-      <c r="J405" t="inlineStr"/>
-      <c r="K405" t="inlineStr"/>
+      <c r="J405" t="n">
+        <v>939</v>
+      </c>
+      <c r="K405" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L405" t="n">
         <v>1</v>
       </c>
@@ -15480,8 +16264,14 @@
         <v>0</v>
       </c>
       <c r="I406" t="inlineStr"/>
-      <c r="J406" t="inlineStr"/>
-      <c r="K406" t="inlineStr"/>
+      <c r="J406" t="n">
+        <v>939</v>
+      </c>
+      <c r="K406" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L406" t="n">
         <v>1</v>
       </c>
@@ -15513,8 +16303,14 @@
         <v>0</v>
       </c>
       <c r="I407" t="inlineStr"/>
-      <c r="J407" t="inlineStr"/>
-      <c r="K407" t="inlineStr"/>
+      <c r="J407" t="n">
+        <v>939</v>
+      </c>
+      <c r="K407" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L407" t="n">
         <v>1</v>
       </c>
@@ -15546,8 +16342,14 @@
         <v>0</v>
       </c>
       <c r="I408" t="inlineStr"/>
-      <c r="J408" t="inlineStr"/>
-      <c r="K408" t="inlineStr"/>
+      <c r="J408" t="n">
+        <v>939</v>
+      </c>
+      <c r="K408" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L408" t="n">
         <v>1</v>
       </c>
@@ -15579,8 +16381,14 @@
         <v>0</v>
       </c>
       <c r="I409" t="inlineStr"/>
-      <c r="J409" t="inlineStr"/>
-      <c r="K409" t="inlineStr"/>
+      <c r="J409" t="n">
+        <v>939</v>
+      </c>
+      <c r="K409" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L409" t="n">
         <v>1</v>
       </c>
@@ -15612,8 +16420,14 @@
         <v>0</v>
       </c>
       <c r="I410" t="inlineStr"/>
-      <c r="J410" t="inlineStr"/>
-      <c r="K410" t="inlineStr"/>
+      <c r="J410" t="n">
+        <v>939</v>
+      </c>
+      <c r="K410" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L410" t="n">
         <v>1</v>
       </c>
@@ -15645,8 +16459,14 @@
         <v>0</v>
       </c>
       <c r="I411" t="inlineStr"/>
-      <c r="J411" t="inlineStr"/>
-      <c r="K411" t="inlineStr"/>
+      <c r="J411" t="n">
+        <v>939</v>
+      </c>
+      <c r="K411" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L411" t="n">
         <v>1</v>
       </c>
@@ -15678,8 +16498,14 @@
         <v>0</v>
       </c>
       <c r="I412" t="inlineStr"/>
-      <c r="J412" t="inlineStr"/>
-      <c r="K412" t="inlineStr"/>
+      <c r="J412" t="n">
+        <v>939</v>
+      </c>
+      <c r="K412" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L412" t="n">
         <v>1</v>
       </c>
@@ -15711,8 +16537,14 @@
         <v>0</v>
       </c>
       <c r="I413" t="inlineStr"/>
-      <c r="J413" t="inlineStr"/>
-      <c r="K413" t="inlineStr"/>
+      <c r="J413" t="n">
+        <v>939</v>
+      </c>
+      <c r="K413" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L413" t="n">
         <v>1</v>
       </c>
@@ -15744,8 +16576,14 @@
         <v>0</v>
       </c>
       <c r="I414" t="inlineStr"/>
-      <c r="J414" t="inlineStr"/>
-      <c r="K414" t="inlineStr"/>
+      <c r="J414" t="n">
+        <v>939</v>
+      </c>
+      <c r="K414" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L414" t="n">
         <v>1</v>
       </c>
@@ -15777,8 +16615,14 @@
         <v>0</v>
       </c>
       <c r="I415" t="inlineStr"/>
-      <c r="J415" t="inlineStr"/>
-      <c r="K415" t="inlineStr"/>
+      <c r="J415" t="n">
+        <v>939</v>
+      </c>
+      <c r="K415" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L415" t="n">
         <v>1</v>
       </c>
@@ -15810,8 +16654,14 @@
         <v>0</v>
       </c>
       <c r="I416" t="inlineStr"/>
-      <c r="J416" t="inlineStr"/>
-      <c r="K416" t="inlineStr"/>
+      <c r="J416" t="n">
+        <v>939</v>
+      </c>
+      <c r="K416" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L416" t="n">
         <v>1</v>
       </c>
@@ -15843,8 +16693,14 @@
         <v>0</v>
       </c>
       <c r="I417" t="inlineStr"/>
-      <c r="J417" t="inlineStr"/>
-      <c r="K417" t="inlineStr"/>
+      <c r="J417" t="n">
+        <v>939</v>
+      </c>
+      <c r="K417" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L417" t="n">
         <v>1</v>
       </c>
@@ -15876,8 +16732,14 @@
         <v>0</v>
       </c>
       <c r="I418" t="inlineStr"/>
-      <c r="J418" t="inlineStr"/>
-      <c r="K418" t="inlineStr"/>
+      <c r="J418" t="n">
+        <v>939</v>
+      </c>
+      <c r="K418" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L418" t="n">
         <v>1</v>
       </c>
@@ -15909,8 +16771,14 @@
         <v>0</v>
       </c>
       <c r="I419" t="inlineStr"/>
-      <c r="J419" t="inlineStr"/>
-      <c r="K419" t="inlineStr"/>
+      <c r="J419" t="n">
+        <v>939</v>
+      </c>
+      <c r="K419" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L419" t="n">
         <v>1</v>
       </c>
@@ -15942,8 +16810,14 @@
         <v>0</v>
       </c>
       <c r="I420" t="inlineStr"/>
-      <c r="J420" t="inlineStr"/>
-      <c r="K420" t="inlineStr"/>
+      <c r="J420" t="n">
+        <v>939</v>
+      </c>
+      <c r="K420" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L420" t="n">
         <v>1</v>
       </c>
@@ -15975,8 +16849,14 @@
         <v>0</v>
       </c>
       <c r="I421" t="inlineStr"/>
-      <c r="J421" t="inlineStr"/>
-      <c r="K421" t="inlineStr"/>
+      <c r="J421" t="n">
+        <v>939</v>
+      </c>
+      <c r="K421" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L421" t="n">
         <v>1</v>
       </c>
@@ -16008,8 +16888,14 @@
         <v>0</v>
       </c>
       <c r="I422" t="inlineStr"/>
-      <c r="J422" t="inlineStr"/>
-      <c r="K422" t="inlineStr"/>
+      <c r="J422" t="n">
+        <v>939</v>
+      </c>
+      <c r="K422" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L422" t="n">
         <v>1</v>
       </c>
@@ -16041,8 +16927,14 @@
         <v>0</v>
       </c>
       <c r="I423" t="inlineStr"/>
-      <c r="J423" t="inlineStr"/>
-      <c r="K423" t="inlineStr"/>
+      <c r="J423" t="n">
+        <v>939</v>
+      </c>
+      <c r="K423" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L423" t="n">
         <v>1</v>
       </c>
@@ -16074,8 +16966,14 @@
         <v>0</v>
       </c>
       <c r="I424" t="inlineStr"/>
-      <c r="J424" t="inlineStr"/>
-      <c r="K424" t="inlineStr"/>
+      <c r="J424" t="n">
+        <v>939</v>
+      </c>
+      <c r="K424" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L424" t="n">
         <v>1</v>
       </c>
@@ -16104,13 +17002,19 @@
         <v>39625.70788045</v>
       </c>
       <c r="H425" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I425" t="inlineStr"/>
-      <c r="J425" t="inlineStr"/>
-      <c r="K425" t="inlineStr"/>
+      <c r="J425" t="n">
+        <v>939</v>
+      </c>
+      <c r="K425" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L425" t="n">
-        <v>1</v>
+        <v>1.022689030883919</v>
       </c>
       <c r="M425" t="inlineStr"/>
     </row>
@@ -16236,7 +17140,7 @@
         <v>40270.20788045</v>
       </c>
       <c r="H429" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I429" t="inlineStr"/>
       <c r="J429" t="inlineStr"/>
@@ -16302,7 +17206,7 @@
         <v>40270.20788045</v>
       </c>
       <c r="H431" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I431" t="inlineStr"/>
       <c r="J431" t="inlineStr"/>
@@ -16335,7 +17239,7 @@
         <v>40270.20788045</v>
       </c>
       <c r="H432" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I432" t="inlineStr"/>
       <c r="J432" t="inlineStr"/>
@@ -16368,7 +17272,7 @@
         <v>40270.20788045</v>
       </c>
       <c r="H433" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I433" t="inlineStr"/>
       <c r="J433" t="inlineStr"/>
@@ -16401,7 +17305,7 @@
         <v>40259.50788045</v>
       </c>
       <c r="H434" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I434" t="inlineStr"/>
       <c r="J434" t="inlineStr"/>
@@ -16434,7 +17338,7 @@
         <v>40259.50788045</v>
       </c>
       <c r="H435" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I435" t="inlineStr"/>
       <c r="J435" t="inlineStr"/>
@@ -16500,7 +17404,7 @@
         <v>40258.20788045001</v>
       </c>
       <c r="H437" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I437" t="inlineStr"/>
       <c r="J437" t="inlineStr"/>
@@ -16632,7 +17536,7 @@
         <v>42798.00788045</v>
       </c>
       <c r="H441" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I441" t="inlineStr"/>
       <c r="J441" t="inlineStr"/>
@@ -16665,7 +17569,7 @@
         <v>43595.20788045</v>
       </c>
       <c r="H442" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I442" t="inlineStr"/>
       <c r="J442" t="inlineStr"/>
@@ -16698,7 +17602,7 @@
         <v>43595.20788045</v>
       </c>
       <c r="H443" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I443" t="inlineStr"/>
       <c r="J443" t="inlineStr"/>
@@ -16731,7 +17635,7 @@
         <v>43595.20788045</v>
       </c>
       <c r="H444" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I444" t="inlineStr"/>
       <c r="J444" t="inlineStr"/>
@@ -16764,7 +17668,7 @@
         <v>43584.60788045</v>
       </c>
       <c r="H445" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I445" t="inlineStr"/>
       <c r="J445" t="inlineStr"/>
@@ -16797,7 +17701,7 @@
         <v>44121.90788045</v>
       </c>
       <c r="H446" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I446" t="inlineStr"/>
       <c r="J446" t="inlineStr"/>
@@ -16830,7 +17734,7 @@
         <v>44111.30788045</v>
       </c>
       <c r="H447" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I447" t="inlineStr"/>
       <c r="J447" t="inlineStr"/>
@@ -16863,7 +17767,7 @@
         <v>44111.30788045</v>
       </c>
       <c r="H448" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I448" t="inlineStr"/>
       <c r="J448" t="inlineStr"/>
@@ -16896,7 +17800,7 @@
         <v>44111.30788045</v>
       </c>
       <c r="H449" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I449" t="inlineStr"/>
       <c r="J449" t="inlineStr"/>
@@ -16929,7 +17833,7 @@
         <v>44361.30788045</v>
       </c>
       <c r="H450" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I450" t="inlineStr"/>
       <c r="J450" t="inlineStr"/>
@@ -16962,7 +17866,7 @@
         <v>44361.30788045</v>
       </c>
       <c r="H451" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I451" t="inlineStr"/>
       <c r="J451" t="inlineStr"/>
@@ -16995,7 +17899,7 @@
         <v>44359.80788045</v>
       </c>
       <c r="H452" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I452" t="inlineStr"/>
       <c r="J452" t="inlineStr"/>
@@ -17028,7 +17932,7 @@
         <v>44359.80788045</v>
       </c>
       <c r="H453" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I453" t="inlineStr"/>
       <c r="J453" t="inlineStr"/>
@@ -17061,7 +17965,7 @@
         <v>44359.80788045</v>
       </c>
       <c r="H454" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I454" t="inlineStr"/>
       <c r="J454" t="inlineStr"/>
@@ -17094,7 +17998,7 @@
         <v>44359.80788045</v>
       </c>
       <c r="H455" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I455" t="inlineStr"/>
       <c r="J455" t="inlineStr"/>
@@ -17127,7 +18031,7 @@
         <v>44359.80788045</v>
       </c>
       <c r="H456" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I456" t="inlineStr"/>
       <c r="J456" t="inlineStr"/>
@@ -17226,7 +18130,7 @@
         <v>46175.50788045001</v>
       </c>
       <c r="H459" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I459" t="inlineStr"/>
       <c r="J459" t="inlineStr"/>
@@ -17259,7 +18163,7 @@
         <v>46175.50788045001</v>
       </c>
       <c r="H460" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I460" t="inlineStr"/>
       <c r="J460" t="inlineStr"/>
@@ -17292,7 +18196,7 @@
         <v>46153.90788045001</v>
       </c>
       <c r="H461" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I461" t="inlineStr"/>
       <c r="J461" t="inlineStr"/>
@@ -17325,7 +18229,7 @@
         <v>46153.90788045001</v>
       </c>
       <c r="H462" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I462" t="inlineStr"/>
       <c r="J462" t="inlineStr"/>
@@ -17358,7 +18262,7 @@
         <v>46153.90788045001</v>
       </c>
       <c r="H463" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I463" t="inlineStr"/>
       <c r="J463" t="inlineStr"/>
@@ -17391,7 +18295,7 @@
         <v>46153.90788045001</v>
       </c>
       <c r="H464" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I464" t="inlineStr"/>
       <c r="J464" t="inlineStr"/>
@@ -17424,7 +18328,7 @@
         <v>46141.10788045001</v>
       </c>
       <c r="H465" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I465" t="inlineStr"/>
       <c r="J465" t="inlineStr"/>
@@ -17622,7 +18526,7 @@
         <v>46121.30788045</v>
       </c>
       <c r="H471" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I471" t="inlineStr"/>
       <c r="J471" t="inlineStr"/>
@@ -28413,7 +29317,7 @@
         <v>52384.67509494999</v>
       </c>
       <c r="H798" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I798" t="inlineStr"/>
       <c r="J798" t="inlineStr"/>
@@ -29733,7 +30637,7 @@
         <v>52832.17249495</v>
       </c>
       <c r="H838" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I838" t="inlineStr"/>
       <c r="J838" t="inlineStr"/>
@@ -29898,7 +30802,7 @@
         <v>54115.17249495</v>
       </c>
       <c r="H843" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I843" t="inlineStr"/>
       <c r="J843" t="inlineStr"/>
@@ -29931,7 +30835,7 @@
         <v>53200.77249495</v>
       </c>
       <c r="H844" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I844" t="inlineStr"/>
       <c r="J844" t="inlineStr"/>
@@ -29964,7 +30868,7 @@
         <v>52483.29519495</v>
       </c>
       <c r="H845" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I845" t="inlineStr"/>
       <c r="J845" t="inlineStr"/>
@@ -32604,7 +33508,7 @@
         <v>56512.52289495001</v>
       </c>
       <c r="H925" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I925" t="inlineStr"/>
       <c r="J925" t="inlineStr"/>
@@ -32637,7 +33541,7 @@
         <v>55844.52289495001</v>
       </c>
       <c r="H926" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I926" t="inlineStr"/>
       <c r="J926" t="inlineStr"/>
@@ -32736,7 +33640,7 @@
         <v>56022.59789495001</v>
       </c>
       <c r="H929" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I929" t="inlineStr"/>
       <c r="J929" t="inlineStr"/>
@@ -32769,7 +33673,7 @@
         <v>56723.59789495001</v>
       </c>
       <c r="H930" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I930" t="inlineStr"/>
       <c r="J930" t="inlineStr"/>
@@ -32802,7 +33706,7 @@
         <v>57571.59789495001</v>
       </c>
       <c r="H931" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I931" t="inlineStr"/>
       <c r="J931" t="inlineStr"/>
@@ -32835,7 +33739,7 @@
         <v>57571.59789495001</v>
       </c>
       <c r="H932" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I932" t="inlineStr"/>
       <c r="J932" t="inlineStr"/>
@@ -32868,7 +33772,7 @@
         <v>57826.69789495</v>
       </c>
       <c r="H933" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I933" t="inlineStr"/>
       <c r="J933" t="inlineStr"/>
@@ -32901,7 +33805,7 @@
         <v>57826.69789495</v>
       </c>
       <c r="H934" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I934" t="inlineStr"/>
       <c r="J934" t="inlineStr"/>
